--- a/80.자료/20210630_기초공부_자료.xlsx
+++ b/80.자료/20210630_기초공부_자료.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\00.KOSMO93\80.자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A389064B-6565-46A5-A9D1-A91F6B7C281A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FBC7FB7-EE81-4875-8F45-D01186E42B3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="12" xr2:uid="{76E4A3D2-DEE9-4D9F-B111-705009A14FA0}"/>
   </bookViews>
@@ -26,6 +26,7 @@
     <sheet name="Sheet11" sheetId="11" r:id="rId11"/>
     <sheet name="Sheet12" sheetId="12" r:id="rId12"/>
     <sheet name="board" sheetId="13" r:id="rId13"/>
+    <sheet name="book" sheetId="14" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Sheet6!$C$43:$P$43</definedName>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="751">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="780">
   <si>
     <t xml:space="preserve">help </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2923,6 +2924,99 @@
   <si>
     <t xml:space="preserve">브라우저에서 돔트리를 만든다. </t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>book.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BookController</t>
+  </si>
+  <si>
+    <t>BookDAO</t>
+  </si>
+  <si>
+    <t>BookSqlMap</t>
+  </si>
+  <si>
+    <t>BookDAOImpl</t>
+  </si>
+  <si>
+    <t>String getBookInsertQuery()</t>
+  </si>
+  <si>
+    <t>BookInsert.jsp</t>
+  </si>
+  <si>
+    <t>String getBookSelectAllQuery()</t>
+  </si>
+  <si>
+    <t>BookSelectAll.jsp</t>
+  </si>
+  <si>
+    <t>String getBookSelectQuery()</t>
+  </si>
+  <si>
+    <t>BookSelect.jsp</t>
+  </si>
+  <si>
+    <t>String getBookUpdateQuery()</t>
+  </si>
+  <si>
+    <t>String getBookDeleteQuery()</t>
+  </si>
+  <si>
+    <t>BookUpdate.jsp</t>
+  </si>
+  <si>
+    <t>BookDelete.jsp</t>
+  </si>
+  <si>
+    <t>boolean bookInsert(BookVO bvo)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArrayList&lt;BookVO&gt; bookSelectAll()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArrayList&lt;BookVO&gt; bookSelect(BookVO bvo)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArrayList&lt;BookVO&gt; bookUpdate(BookVO bvo)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArrayList&lt;BookVO&gt; bookDelete(BookVO bvo)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isudtype="I"</t>
+  </si>
+  <si>
+    <t>/testKosmo/Book?isudtype=SALL</t>
+  </si>
+  <si>
+    <t>var v1 = $("#isudtype").val('U');</t>
+  </si>
+  <si>
+    <t>var v2 = $("#isudtype").val('D');</t>
+  </si>
+  <si>
+    <t>if("I".equeals(isudtype))</t>
+  </si>
+  <si>
+    <t>if("SALL".equeals(isudtype))</t>
+  </si>
+  <si>
+    <t>if ("S".equals(isudtype) || "U".equals(isudtype) || "D".equals(isudtype))</t>
+  </si>
+  <si>
+    <t>UOK.equals(isudtype)</t>
+  </si>
+  <si>
+    <t>DOK.equals(isudtype)</t>
   </si>
 </sst>
 </file>
@@ -4571,6 +4665,42 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4580,14 +4710,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4601,45 +4731,84 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4685,81 +4854,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4778,6 +4872,105 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4796,111 +4989,240 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="56" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="56" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4919,236 +5241,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="56" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="56" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -13523,7 +13617,7 @@
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="226"/>
+      <c r="C3" s="231"/>
       <c r="L3" s="20"/>
       <c r="M3" s="16"/>
       <c r="N3" s="38"/>
@@ -13535,7 +13629,7 @@
       <c r="B4" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="227"/>
+      <c r="C4" s="232"/>
       <c r="D4" s="2"/>
       <c r="E4" t="s">
         <v>0</v>
@@ -13550,7 +13644,7 @@
       <c r="Q4" s="37"/>
     </row>
     <row r="5" spans="2:17">
-      <c r="C5" s="227"/>
+      <c r="C5" s="232"/>
       <c r="D5" s="3"/>
       <c r="E5" s="4"/>
       <c r="K5" s="36"/>
@@ -13565,7 +13659,7 @@
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="227"/>
+      <c r="C6" s="232"/>
       <c r="D6" s="3"/>
       <c r="E6" s="4" t="s">
         <v>1</v>
@@ -13585,7 +13679,7 @@
       <c r="B7" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="227"/>
+      <c r="C7" s="232"/>
       <c r="D7" s="3"/>
       <c r="E7" s="4"/>
       <c r="K7" s="36"/>
@@ -13599,7 +13693,7 @@
       <c r="B8" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="227"/>
+      <c r="C8" s="232"/>
       <c r="D8" s="3"/>
       <c r="E8" s="4"/>
       <c r="K8" s="36"/>
@@ -13612,7 +13706,7 @@
       <c r="P8" s="37"/>
     </row>
     <row r="9" spans="2:17" ht="17.25" thickBot="1">
-      <c r="C9" s="227"/>
+      <c r="C9" s="232"/>
       <c r="D9" s="3"/>
       <c r="E9" s="1"/>
       <c r="K9" s="36"/>
@@ -13623,7 +13717,7 @@
       <c r="P9" s="37"/>
     </row>
     <row r="10" spans="2:17">
-      <c r="C10" s="227"/>
+      <c r="C10" s="232"/>
       <c r="D10" s="3"/>
       <c r="E10" s="4"/>
       <c r="K10" s="36"/>
@@ -13634,7 +13728,7 @@
       <c r="P10" s="37"/>
     </row>
     <row r="11" spans="2:17">
-      <c r="C11" s="227"/>
+      <c r="C11" s="232"/>
       <c r="D11" s="3"/>
       <c r="E11" s="4"/>
       <c r="K11" s="36"/>
@@ -13645,7 +13739,7 @@
       <c r="P11" s="37"/>
     </row>
     <row r="12" spans="2:17">
-      <c r="C12" s="227"/>
+      <c r="C12" s="232"/>
       <c r="D12" s="3"/>
       <c r="E12" s="4"/>
       <c r="K12" s="36"/>
@@ -13657,7 +13751,7 @@
       <c r="Q12" s="37"/>
     </row>
     <row r="13" spans="2:17" ht="17.25" thickBot="1">
-      <c r="C13" s="227"/>
+      <c r="C13" s="232"/>
       <c r="D13" s="5"/>
       <c r="E13" s="6"/>
       <c r="L13" s="20"/>
@@ -13670,7 +13764,7 @@
       <c r="Q13" s="37"/>
     </row>
     <row r="14" spans="2:17">
-      <c r="C14" s="227"/>
+      <c r="C14" s="232"/>
       <c r="L14" s="20"/>
       <c r="M14" s="16"/>
       <c r="N14" s="35" t="s">
@@ -13681,7 +13775,7 @@
       <c r="Q14" s="37"/>
     </row>
     <row r="15" spans="2:17">
-      <c r="C15" s="227"/>
+      <c r="C15" s="232"/>
       <c r="M15" s="16"/>
       <c r="N15" s="35"/>
       <c r="O15" s="37"/>
@@ -13689,15 +13783,15 @@
       <c r="Q15" s="37"/>
     </row>
     <row r="16" spans="2:17">
-      <c r="C16" s="227"/>
+      <c r="C16" s="232"/>
       <c r="M16" s="16"/>
       <c r="N16" s="35"/>
     </row>
     <row r="17" spans="3:20">
-      <c r="C17" s="227"/>
+      <c r="C17" s="232"/>
     </row>
     <row r="18" spans="3:20" ht="17.25" thickBot="1">
-      <c r="C18" s="228"/>
+      <c r="C18" s="233"/>
     </row>
     <row r="20" spans="3:20">
       <c r="C20" t="s">
@@ -13785,74 +13879,74 @@
       <c r="U38" s="65"/>
     </row>
     <row r="39" spans="3:22" ht="17.25" thickBot="1">
-      <c r="D39" s="232" t="s">
+      <c r="D39" s="216" t="s">
         <v>157</v>
       </c>
-      <c r="E39" s="233"/>
-      <c r="F39" s="233"/>
-      <c r="G39" s="233"/>
-      <c r="H39" s="234"/>
-      <c r="L39" s="232" t="s">
+      <c r="E39" s="217"/>
+      <c r="F39" s="217"/>
+      <c r="G39" s="217"/>
+      <c r="H39" s="218"/>
+      <c r="L39" s="216" t="s">
         <v>157</v>
       </c>
-      <c r="M39" s="233"/>
-      <c r="N39" s="233"/>
-      <c r="O39" s="233"/>
-      <c r="P39" s="234"/>
-      <c r="R39" s="232" t="s">
+      <c r="M39" s="217"/>
+      <c r="N39" s="217"/>
+      <c r="O39" s="217"/>
+      <c r="P39" s="218"/>
+      <c r="R39" s="216" t="s">
         <v>157</v>
       </c>
-      <c r="S39" s="233"/>
-      <c r="T39" s="233"/>
-      <c r="U39" s="233"/>
-      <c r="V39" s="234"/>
+      <c r="S39" s="217"/>
+      <c r="T39" s="217"/>
+      <c r="U39" s="217"/>
+      <c r="V39" s="218"/>
     </row>
     <row r="40" spans="3:22" ht="17.25" thickBot="1">
-      <c r="D40" s="235" t="s">
+      <c r="D40" s="219" t="s">
         <v>156</v>
       </c>
-      <c r="E40" s="236"/>
-      <c r="F40" s="236"/>
-      <c r="G40" s="236"/>
-      <c r="H40" s="237"/>
-      <c r="L40" s="235" t="s">
+      <c r="E40" s="220"/>
+      <c r="F40" s="220"/>
+      <c r="G40" s="220"/>
+      <c r="H40" s="221"/>
+      <c r="L40" s="219" t="s">
         <v>156</v>
       </c>
-      <c r="M40" s="236"/>
-      <c r="N40" s="236"/>
-      <c r="O40" s="236"/>
-      <c r="P40" s="237"/>
-      <c r="R40" s="235" t="s">
+      <c r="M40" s="220"/>
+      <c r="N40" s="220"/>
+      <c r="O40" s="220"/>
+      <c r="P40" s="221"/>
+      <c r="R40" s="219" t="s">
         <v>156</v>
       </c>
-      <c r="S40" s="236"/>
-      <c r="T40" s="236"/>
-      <c r="U40" s="236"/>
-      <c r="V40" s="237"/>
+      <c r="S40" s="220"/>
+      <c r="T40" s="220"/>
+      <c r="U40" s="220"/>
+      <c r="V40" s="221"/>
     </row>
     <row r="41" spans="3:22">
       <c r="C41" s="9"/>
-      <c r="D41" s="229" t="s">
+      <c r="D41" s="222" t="s">
         <v>155</v>
       </c>
-      <c r="E41" s="230"/>
-      <c r="F41" s="230"/>
-      <c r="G41" s="230"/>
-      <c r="H41" s="231"/>
-      <c r="L41" s="229" t="s">
+      <c r="E41" s="223"/>
+      <c r="F41" s="223"/>
+      <c r="G41" s="223"/>
+      <c r="H41" s="224"/>
+      <c r="L41" s="222" t="s">
         <v>155</v>
       </c>
-      <c r="M41" s="230"/>
-      <c r="N41" s="230"/>
-      <c r="O41" s="230"/>
-      <c r="P41" s="231"/>
-      <c r="R41" s="229" t="s">
+      <c r="M41" s="223"/>
+      <c r="N41" s="223"/>
+      <c r="O41" s="223"/>
+      <c r="P41" s="224"/>
+      <c r="R41" s="222" t="s">
         <v>155</v>
       </c>
-      <c r="S41" s="230"/>
-      <c r="T41" s="230"/>
-      <c r="U41" s="230"/>
-      <c r="V41" s="231"/>
+      <c r="S41" s="223"/>
+      <c r="T41" s="223"/>
+      <c r="U41" s="223"/>
+      <c r="V41" s="224"/>
     </row>
     <row r="42" spans="3:22">
       <c r="C42" s="9"/>
@@ -14034,40 +14128,40 @@
     </row>
     <row r="63" spans="3:17" ht="17.25" thickBot="1"/>
     <row r="64" spans="3:17" ht="17.25" thickBot="1">
-      <c r="C64" s="222" t="s">
+      <c r="C64" s="234" t="s">
         <v>10</v>
       </c>
-      <c r="D64" s="222"/>
-      <c r="E64" s="222"/>
-      <c r="F64" s="222"/>
-      <c r="I64" s="219" t="s">
+      <c r="D64" s="234"/>
+      <c r="E64" s="234"/>
+      <c r="F64" s="234"/>
+      <c r="I64" s="225" t="s">
         <v>12</v>
       </c>
-      <c r="J64" s="220"/>
-      <c r="K64" s="221"/>
+      <c r="J64" s="226"/>
+      <c r="K64" s="227"/>
     </row>
     <row r="65" spans="3:11" ht="17.25" thickBot="1">
-      <c r="C65" s="223" t="s">
+      <c r="C65" s="235" t="s">
         <v>11</v>
       </c>
-      <c r="D65" s="224"/>
-      <c r="E65" s="224"/>
-      <c r="F65" s="225"/>
-      <c r="I65" s="219" t="s">
+      <c r="D65" s="236"/>
+      <c r="E65" s="236"/>
+      <c r="F65" s="237"/>
+      <c r="I65" s="225" t="s">
         <v>19</v>
       </c>
-      <c r="J65" s="220"/>
-      <c r="K65" s="221"/>
+      <c r="J65" s="226"/>
+      <c r="K65" s="227"/>
     </row>
     <row r="66" spans="3:11" ht="17.25" thickBot="1">
       <c r="G66" t="s">
         <v>15</v>
       </c>
-      <c r="I66" s="219" t="s">
+      <c r="I66" s="225" t="s">
         <v>16</v>
       </c>
-      <c r="J66" s="220"/>
-      <c r="K66" s="221"/>
+      <c r="J66" s="226"/>
+      <c r="K66" s="227"/>
     </row>
     <row r="67" spans="3:11" ht="17.25" thickBot="1">
       <c r="G67" t="s">
@@ -14104,53 +14198,53 @@
         <v>23</v>
       </c>
       <c r="H70" s="12"/>
-      <c r="I70" s="216" t="s">
+      <c r="I70" s="228" t="s">
         <v>14</v>
       </c>
-      <c r="J70" s="217"/>
-      <c r="K70" s="218"/>
+      <c r="J70" s="229"/>
+      <c r="K70" s="230"/>
     </row>
     <row r="71" spans="3:11" ht="17.25" thickBot="1">
-      <c r="I71" s="216"/>
-      <c r="J71" s="217"/>
-      <c r="K71" s="218"/>
+      <c r="I71" s="228"/>
+      <c r="J71" s="229"/>
+      <c r="K71" s="230"/>
     </row>
     <row r="73" spans="3:11" ht="17.25" thickBot="1"/>
     <row r="74" spans="3:11" ht="17.25" thickBot="1">
-      <c r="C74" s="222" t="s">
+      <c r="C74" s="234" t="s">
         <v>24</v>
       </c>
-      <c r="D74" s="222"/>
-      <c r="E74" s="222"/>
-      <c r="F74" s="222"/>
-      <c r="I74" s="219" t="s">
+      <c r="D74" s="234"/>
+      <c r="E74" s="234"/>
+      <c r="F74" s="234"/>
+      <c r="I74" s="225" t="s">
         <v>12</v>
       </c>
-      <c r="J74" s="220"/>
-      <c r="K74" s="221"/>
+      <c r="J74" s="226"/>
+      <c r="K74" s="227"/>
     </row>
     <row r="75" spans="3:11" ht="17.25" thickBot="1">
-      <c r="C75" s="223" t="s">
+      <c r="C75" s="235" t="s">
         <v>30</v>
       </c>
-      <c r="D75" s="224"/>
-      <c r="E75" s="224"/>
-      <c r="F75" s="225"/>
-      <c r="I75" s="219" t="s">
+      <c r="D75" s="236"/>
+      <c r="E75" s="236"/>
+      <c r="F75" s="237"/>
+      <c r="I75" s="225" t="s">
         <v>19</v>
       </c>
-      <c r="J75" s="220"/>
-      <c r="K75" s="221"/>
+      <c r="J75" s="226"/>
+      <c r="K75" s="227"/>
     </row>
     <row r="76" spans="3:11" ht="17.25" thickBot="1">
       <c r="G76" t="s">
         <v>25</v>
       </c>
-      <c r="I76" s="219" t="s">
+      <c r="I76" s="225" t="s">
         <v>16</v>
       </c>
-      <c r="J76" s="220"/>
-      <c r="K76" s="221"/>
+      <c r="J76" s="226"/>
+      <c r="K76" s="227"/>
     </row>
     <row r="77" spans="3:11" ht="17.25" thickBot="1">
       <c r="G77" t="s">
@@ -14186,16 +14280,16 @@
       <c r="G80" t="s">
         <v>29</v>
       </c>
-      <c r="I80" s="216" t="s">
+      <c r="I80" s="228" t="s">
         <v>14</v>
       </c>
-      <c r="J80" s="217"/>
-      <c r="K80" s="218"/>
+      <c r="J80" s="229"/>
+      <c r="K80" s="230"/>
     </row>
     <row r="81" spans="3:11" ht="17.25" thickBot="1">
-      <c r="I81" s="216"/>
-      <c r="J81" s="217"/>
-      <c r="K81" s="218"/>
+      <c r="I81" s="228"/>
+      <c r="J81" s="229"/>
+      <c r="K81" s="230"/>
     </row>
     <row r="87" spans="3:11">
       <c r="C87" t="s">
@@ -15289,12 +15383,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="L39:P39"/>
-    <mergeCell ref="L40:P40"/>
-    <mergeCell ref="L41:P41"/>
-    <mergeCell ref="R39:V39"/>
-    <mergeCell ref="R40:V40"/>
-    <mergeCell ref="R41:V41"/>
+    <mergeCell ref="I81:K81"/>
+    <mergeCell ref="I74:K74"/>
+    <mergeCell ref="I80:K80"/>
+    <mergeCell ref="I71:K71"/>
+    <mergeCell ref="C74:F74"/>
+    <mergeCell ref="C75:F75"/>
+    <mergeCell ref="I75:K75"/>
+    <mergeCell ref="I76:K76"/>
     <mergeCell ref="I66:K66"/>
     <mergeCell ref="I70:K70"/>
     <mergeCell ref="C3:C18"/>
@@ -15305,14 +15401,12 @@
     <mergeCell ref="D41:H41"/>
     <mergeCell ref="D39:H39"/>
     <mergeCell ref="D40:H40"/>
-    <mergeCell ref="I81:K81"/>
-    <mergeCell ref="I74:K74"/>
-    <mergeCell ref="I80:K80"/>
-    <mergeCell ref="I71:K71"/>
-    <mergeCell ref="C74:F74"/>
-    <mergeCell ref="C75:F75"/>
-    <mergeCell ref="I75:K75"/>
-    <mergeCell ref="I76:K76"/>
+    <mergeCell ref="L39:P39"/>
+    <mergeCell ref="L40:P40"/>
+    <mergeCell ref="L41:P41"/>
+    <mergeCell ref="R39:V39"/>
+    <mergeCell ref="R40:V40"/>
+    <mergeCell ref="R41:V41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15333,28 +15427,28 @@
   <sheetData>
     <row r="4" spans="4:14" ht="17.25" thickBot="1"/>
     <row r="5" spans="4:14" ht="17.25" thickBot="1">
-      <c r="D5" s="271"/>
-      <c r="E5" s="272"/>
-      <c r="F5" s="272"/>
-      <c r="G5" s="272"/>
-      <c r="H5" s="272"/>
-      <c r="I5" s="273"/>
+      <c r="D5" s="256"/>
+      <c r="E5" s="257"/>
+      <c r="F5" s="257"/>
+      <c r="G5" s="257"/>
+      <c r="H5" s="257"/>
+      <c r="I5" s="258"/>
     </row>
     <row r="6" spans="4:14">
-      <c r="D6" s="229"/>
-      <c r="E6" s="230"/>
-      <c r="F6" s="230"/>
-      <c r="G6" s="230"/>
-      <c r="H6" s="230"/>
-      <c r="I6" s="230"/>
-      <c r="J6" s="230"/>
-      <c r="K6" s="230"/>
-      <c r="L6" s="230"/>
-      <c r="M6" s="230"/>
-      <c r="N6" s="231"/>
+      <c r="D6" s="222"/>
+      <c r="E6" s="223"/>
+      <c r="F6" s="223"/>
+      <c r="G6" s="223"/>
+      <c r="H6" s="223"/>
+      <c r="I6" s="223"/>
+      <c r="J6" s="223"/>
+      <c r="K6" s="223"/>
+      <c r="L6" s="223"/>
+      <c r="M6" s="223"/>
+      <c r="N6" s="224"/>
     </row>
     <row r="7" spans="4:14" ht="17.25" thickBot="1">
-      <c r="D7" s="269"/>
+      <c r="D7" s="254"/>
       <c r="E7" s="282"/>
       <c r="F7" s="282"/>
       <c r="G7" s="282"/>
@@ -15368,44 +15462,44 @@
     </row>
     <row r="10" spans="4:14" ht="17.25" thickBot="1"/>
     <row r="11" spans="4:14" ht="17.25" thickBot="1">
-      <c r="D11" s="271"/>
-      <c r="E11" s="272"/>
-      <c r="F11" s="272"/>
-      <c r="G11" s="272"/>
-      <c r="H11" s="273"/>
+      <c r="D11" s="256"/>
+      <c r="E11" s="257"/>
+      <c r="F11" s="257"/>
+      <c r="G11" s="257"/>
+      <c r="H11" s="258"/>
     </row>
     <row r="12" spans="4:14" ht="17.25" thickBot="1">
-      <c r="D12" s="276" t="s">
+      <c r="D12" s="261" t="s">
         <v>592</v>
       </c>
-      <c r="E12" s="277"/>
-      <c r="F12" s="277"/>
-      <c r="G12" s="277"/>
-      <c r="H12" s="277"/>
-      <c r="I12" s="277"/>
-      <c r="J12" s="277"/>
-      <c r="K12" s="277"/>
-      <c r="L12" s="277"/>
-      <c r="M12" s="277"/>
-      <c r="N12" s="278"/>
+      <c r="E12" s="262"/>
+      <c r="F12" s="262"/>
+      <c r="G12" s="262"/>
+      <c r="H12" s="262"/>
+      <c r="I12" s="262"/>
+      <c r="J12" s="262"/>
+      <c r="K12" s="262"/>
+      <c r="L12" s="262"/>
+      <c r="M12" s="262"/>
+      <c r="N12" s="263"/>
     </row>
     <row r="13" spans="4:14">
-      <c r="D13" s="229" t="s">
+      <c r="D13" s="222" t="s">
         <v>251</v>
       </c>
-      <c r="E13" s="230"/>
-      <c r="F13" s="230"/>
-      <c r="G13" s="230"/>
-      <c r="H13" s="230"/>
-      <c r="I13" s="230"/>
-      <c r="J13" s="230"/>
-      <c r="K13" s="230"/>
-      <c r="L13" s="230"/>
-      <c r="M13" s="230"/>
-      <c r="N13" s="231"/>
+      <c r="E13" s="223"/>
+      <c r="F13" s="223"/>
+      <c r="G13" s="223"/>
+      <c r="H13" s="223"/>
+      <c r="I13" s="223"/>
+      <c r="J13" s="223"/>
+      <c r="K13" s="223"/>
+      <c r="L13" s="223"/>
+      <c r="M13" s="223"/>
+      <c r="N13" s="224"/>
     </row>
     <row r="14" spans="4:14" ht="17.25" thickBot="1">
-      <c r="D14" s="269"/>
+      <c r="D14" s="254"/>
       <c r="E14" s="282"/>
       <c r="F14" s="282"/>
       <c r="G14" s="282"/>
@@ -15688,15 +15782,15 @@
     </row>
     <row r="48" spans="4:14" ht="17.25" thickBot="1"/>
     <row r="49" spans="4:14" ht="8.25" customHeight="1" thickBot="1">
-      <c r="D49" s="235"/>
-      <c r="E49" s="236"/>
-      <c r="F49" s="236"/>
-      <c r="G49" s="236"/>
-      <c r="H49" s="236"/>
-      <c r="I49" s="236"/>
-      <c r="J49" s="236"/>
-      <c r="K49" s="236"/>
-      <c r="L49" s="237"/>
+      <c r="D49" s="219"/>
+      <c r="E49" s="220"/>
+      <c r="F49" s="220"/>
+      <c r="G49" s="220"/>
+      <c r="H49" s="220"/>
+      <c r="I49" s="220"/>
+      <c r="J49" s="220"/>
+      <c r="K49" s="220"/>
+      <c r="L49" s="221"/>
     </row>
     <row r="50" spans="4:14" ht="17.25" thickBot="1">
       <c r="D50" s="413" t="s">
@@ -15727,20 +15821,20 @@
       <c r="N51" s="412"/>
     </row>
     <row r="52" spans="4:14" ht="7.5" customHeight="1" thickBot="1">
-      <c r="D52" s="235"/>
-      <c r="E52" s="236"/>
-      <c r="F52" s="236"/>
-      <c r="G52" s="236"/>
-      <c r="H52" s="236"/>
-      <c r="I52" s="236"/>
-      <c r="J52" s="236"/>
-      <c r="K52" s="236"/>
-      <c r="L52" s="236"/>
-      <c r="M52" s="236"/>
-      <c r="N52" s="237"/>
+      <c r="D52" s="219"/>
+      <c r="E52" s="220"/>
+      <c r="F52" s="220"/>
+      <c r="G52" s="220"/>
+      <c r="H52" s="220"/>
+      <c r="I52" s="220"/>
+      <c r="J52" s="220"/>
+      <c r="K52" s="220"/>
+      <c r="L52" s="220"/>
+      <c r="M52" s="220"/>
+      <c r="N52" s="221"/>
     </row>
     <row r="53" spans="4:14">
-      <c r="D53" s="270" t="s">
+      <c r="D53" s="255" t="s">
         <v>251</v>
       </c>
       <c r="E53" s="280"/>
@@ -15755,7 +15849,7 @@
       <c r="N53" s="281"/>
     </row>
     <row r="54" spans="4:14" ht="17.25" thickBot="1">
-      <c r="D54" s="269"/>
+      <c r="D54" s="254"/>
       <c r="E54" s="282"/>
       <c r="F54" s="282"/>
       <c r="G54" s="282"/>
@@ -15769,16 +15863,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="D51:N51"/>
+    <mergeCell ref="D53:N54"/>
+    <mergeCell ref="D50:L50"/>
+    <mergeCell ref="D49:L49"/>
+    <mergeCell ref="D52:N52"/>
     <mergeCell ref="D6:N7"/>
     <mergeCell ref="D5:I5"/>
     <mergeCell ref="D13:N14"/>
     <mergeCell ref="D12:N12"/>
     <mergeCell ref="D11:H11"/>
-    <mergeCell ref="D51:N51"/>
-    <mergeCell ref="D53:N54"/>
-    <mergeCell ref="D50:L50"/>
-    <mergeCell ref="D49:L49"/>
-    <mergeCell ref="D52:N52"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16085,8 +16179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0FD2099-79D4-4375-8055-DA218DE583FE}">
   <dimension ref="B4:H122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -16824,6 +16918,423 @@
       <c r="D122" s="211" t="s">
         <v>695</v>
       </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E2AE7EE-90B0-447A-A55D-CBEB3F632DFF}">
+  <dimension ref="B4:H122"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="4.875" customWidth="1"/>
+    <col min="2" max="2" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.25" customWidth="1"/>
+    <col min="4" max="4" width="66.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="47.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:8">
+      <c r="B4" s="72" t="s">
+        <v>751</v>
+      </c>
+      <c r="D4" s="72" t="s">
+        <v>752</v>
+      </c>
+      <c r="E4" s="72" t="s">
+        <v>635</v>
+      </c>
+      <c r="F4" s="72" t="s">
+        <v>753</v>
+      </c>
+      <c r="G4" s="72" t="s">
+        <v>754</v>
+      </c>
+      <c r="H4" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="E5" s="72" t="s">
+        <v>636</v>
+      </c>
+      <c r="F5" s="72" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="21" t="s">
+        <v>771</v>
+      </c>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21" t="s">
+        <v>775</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>766</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>766</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="213"/>
+      <c r="C8" s="213"/>
+      <c r="F8" s="211"/>
+      <c r="G8" s="211"/>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="211"/>
+      <c r="C9" s="211"/>
+      <c r="D9" s="211"/>
+      <c r="F9" s="212"/>
+      <c r="G9" s="212"/>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="212"/>
+      <c r="C10" s="212"/>
+      <c r="D10" s="212"/>
+      <c r="F10" s="212"/>
+      <c r="G10" s="212"/>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="212"/>
+      <c r="C11" s="212"/>
+      <c r="D11" s="212"/>
+      <c r="F11" s="212"/>
+      <c r="G11" s="212"/>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="F12" s="212"/>
+      <c r="G12" s="212"/>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="F13" s="212"/>
+      <c r="G13" s="212"/>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" s="211"/>
+      <c r="C14" s="211"/>
+      <c r="D14" s="211"/>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" s="212"/>
+      <c r="C15" s="212"/>
+      <c r="D15" s="212"/>
+    </row>
+    <row r="20" spans="3:5">
+      <c r="D20" s="214"/>
+      <c r="E20" s="72"/>
+    </row>
+    <row r="21" spans="3:5">
+      <c r="D21" s="211"/>
+    </row>
+    <row r="22" spans="3:5">
+      <c r="D22" s="212"/>
+    </row>
+    <row r="23" spans="3:5">
+      <c r="D23" s="212"/>
+    </row>
+    <row r="26" spans="3:5">
+      <c r="D26" s="211"/>
+    </row>
+    <row r="27" spans="3:5">
+      <c r="D27" s="212"/>
+    </row>
+    <row r="30" spans="3:5">
+      <c r="D30" s="211"/>
+    </row>
+    <row r="32" spans="3:5">
+      <c r="C32" s="72" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7">
+      <c r="C33" s="21" t="s">
+        <v>772</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>776</v>
+      </c>
+      <c r="E33" s="21" t="s">
+        <v>767</v>
+      </c>
+      <c r="F33" s="21" t="s">
+        <v>767</v>
+      </c>
+      <c r="G33" s="21" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="37" spans="3:7">
+      <c r="D37" s="211"/>
+    </row>
+    <row r="38" spans="3:7">
+      <c r="D38" s="211"/>
+    </row>
+    <row r="39" spans="3:7">
+      <c r="D39" s="211"/>
+    </row>
+    <row r="41" spans="3:7">
+      <c r="C41" s="72" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="46" spans="3:7">
+      <c r="C46" s="211"/>
+    </row>
+    <row r="47" spans="3:7">
+      <c r="C47" s="212"/>
+    </row>
+    <row r="48" spans="3:7">
+      <c r="C48" s="212"/>
+    </row>
+    <row r="49" spans="3:7">
+      <c r="C49" s="212"/>
+    </row>
+    <row r="50" spans="3:7">
+      <c r="C50" s="212"/>
+    </row>
+    <row r="51" spans="3:7">
+      <c r="C51" s="212"/>
+    </row>
+    <row r="53" spans="3:7">
+      <c r="C53" s="211"/>
+    </row>
+    <row r="54" spans="3:7">
+      <c r="C54" s="212"/>
+    </row>
+    <row r="55" spans="3:7">
+      <c r="C55" s="212"/>
+    </row>
+    <row r="58" spans="3:7">
+      <c r="C58" s="21" t="s">
+        <v>773</v>
+      </c>
+      <c r="D58" s="21" t="s">
+        <v>777</v>
+      </c>
+      <c r="E58" s="21" t="s">
+        <v>768</v>
+      </c>
+      <c r="F58" s="21" t="s">
+        <v>768</v>
+      </c>
+      <c r="G58" s="21" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="59" spans="3:7">
+      <c r="F59" s="211"/>
+      <c r="G59" s="211"/>
+    </row>
+    <row r="63" spans="3:7">
+      <c r="D63" s="211"/>
+    </row>
+    <row r="65" spans="3:7">
+      <c r="D65" s="211"/>
+    </row>
+    <row r="66" spans="3:7">
+      <c r="D66" s="211"/>
+    </row>
+    <row r="67" spans="3:7">
+      <c r="D67" s="211"/>
+    </row>
+    <row r="70" spans="3:7">
+      <c r="C70" s="21" t="s">
+        <v>774</v>
+      </c>
+      <c r="D70" s="21" t="s">
+        <v>777</v>
+      </c>
+      <c r="E70" s="21" t="s">
+        <v>768</v>
+      </c>
+      <c r="F70" s="21" t="s">
+        <v>768</v>
+      </c>
+      <c r="G70" s="21" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="71" spans="3:7">
+      <c r="F71" s="211"/>
+      <c r="G71" s="211"/>
+    </row>
+    <row r="75" spans="3:7">
+      <c r="D75" s="211"/>
+    </row>
+    <row r="77" spans="3:7">
+      <c r="D77" s="211"/>
+    </row>
+    <row r="78" spans="3:7">
+      <c r="D78" s="211"/>
+    </row>
+    <row r="79" spans="3:7">
+      <c r="D79" s="211"/>
+    </row>
+    <row r="82" spans="3:7">
+      <c r="C82" s="72" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="84" spans="3:7">
+      <c r="C84" s="21" t="s">
+        <v>726</v>
+      </c>
+      <c r="D84" s="21" t="s">
+        <v>778</v>
+      </c>
+      <c r="E84" s="21" t="s">
+        <v>769</v>
+      </c>
+      <c r="F84" s="21" t="s">
+        <v>769</v>
+      </c>
+      <c r="G84" s="21" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="85" spans="3:7">
+      <c r="F85" s="211"/>
+      <c r="G85" s="211"/>
+    </row>
+    <row r="86" spans="3:7">
+      <c r="F86" s="212"/>
+      <c r="G86" s="212"/>
+    </row>
+    <row r="87" spans="3:7">
+      <c r="F87" s="212"/>
+      <c r="G87" s="212"/>
+    </row>
+    <row r="89" spans="3:7">
+      <c r="D89" s="211"/>
+    </row>
+    <row r="90" spans="3:7">
+      <c r="D90" s="215"/>
+    </row>
+    <row r="91" spans="3:7">
+      <c r="D91" s="212"/>
+    </row>
+    <row r="93" spans="3:7">
+      <c r="D93" s="211"/>
+    </row>
+    <row r="94" spans="3:7">
+      <c r="D94" s="211"/>
+    </row>
+    <row r="96" spans="3:7">
+      <c r="C96" s="21" t="s">
+        <v>728</v>
+      </c>
+      <c r="D96" s="21" t="s">
+        <v>779</v>
+      </c>
+      <c r="E96" s="21" t="s">
+        <v>770</v>
+      </c>
+      <c r="F96" s="21" t="s">
+        <v>770</v>
+      </c>
+      <c r="G96" s="21" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="97" spans="3:7">
+      <c r="F97" s="211"/>
+      <c r="G97" s="211"/>
+    </row>
+    <row r="101" spans="3:7">
+      <c r="D101" s="211"/>
+    </row>
+    <row r="103" spans="3:7">
+      <c r="D103" s="211"/>
+    </row>
+    <row r="104" spans="3:7">
+      <c r="D104" s="211"/>
+    </row>
+    <row r="105" spans="3:7">
+      <c r="D105" s="211"/>
+    </row>
+    <row r="106" spans="3:7">
+      <c r="C106" s="72" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="107" spans="3:7">
+      <c r="C107" s="21" t="s">
+        <v>772</v>
+      </c>
+      <c r="D107" s="21" t="s">
+        <v>776</v>
+      </c>
+      <c r="E107" s="21" t="s">
+        <v>767</v>
+      </c>
+      <c r="F107" s="21" t="s">
+        <v>767</v>
+      </c>
+      <c r="G107" s="21" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="111" spans="3:7">
+      <c r="D111" s="211"/>
+    </row>
+    <row r="112" spans="3:7">
+      <c r="D112" s="211"/>
+    </row>
+    <row r="113" spans="3:7">
+      <c r="D113" s="211"/>
+    </row>
+    <row r="115" spans="3:7">
+      <c r="C115" s="72" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="116" spans="3:7">
+      <c r="C116" s="21" t="s">
+        <v>772</v>
+      </c>
+      <c r="D116" s="21" t="s">
+        <v>776</v>
+      </c>
+      <c r="E116" s="21" t="s">
+        <v>767</v>
+      </c>
+      <c r="F116" s="21" t="s">
+        <v>767</v>
+      </c>
+      <c r="G116" s="21" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="120" spans="3:7">
+      <c r="D120" s="211"/>
+    </row>
+    <row r="121" spans="3:7">
+      <c r="D121" s="211"/>
+    </row>
+    <row r="122" spans="3:7">
+      <c r="D122" s="211"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -17925,25 +18436,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="J115:L115"/>
-    <mergeCell ref="J109:L109"/>
-    <mergeCell ref="J110:L110"/>
-    <mergeCell ref="J111:L111"/>
-    <mergeCell ref="J112:L112"/>
-    <mergeCell ref="J113:L113"/>
-    <mergeCell ref="J114:L114"/>
-    <mergeCell ref="J107:L107"/>
-    <mergeCell ref="J108:L108"/>
-    <mergeCell ref="J101:L101"/>
-    <mergeCell ref="J102:L102"/>
-    <mergeCell ref="J103:L103"/>
-    <mergeCell ref="J104:L104"/>
-    <mergeCell ref="J96:L96"/>
-    <mergeCell ref="J97:L97"/>
-    <mergeCell ref="J98:L98"/>
-    <mergeCell ref="J99:L99"/>
-    <mergeCell ref="J106:L106"/>
-    <mergeCell ref="J100:L100"/>
     <mergeCell ref="J95:L95"/>
     <mergeCell ref="J91:L91"/>
     <mergeCell ref="AB91:AD91"/>
@@ -17959,6 +18451,25 @@
     <mergeCell ref="J88:L88"/>
     <mergeCell ref="J89:L89"/>
     <mergeCell ref="J90:L90"/>
+    <mergeCell ref="J96:L96"/>
+    <mergeCell ref="J97:L97"/>
+    <mergeCell ref="J98:L98"/>
+    <mergeCell ref="J99:L99"/>
+    <mergeCell ref="J106:L106"/>
+    <mergeCell ref="J100:L100"/>
+    <mergeCell ref="J107:L107"/>
+    <mergeCell ref="J108:L108"/>
+    <mergeCell ref="J101:L101"/>
+    <mergeCell ref="J102:L102"/>
+    <mergeCell ref="J103:L103"/>
+    <mergeCell ref="J104:L104"/>
+    <mergeCell ref="J115:L115"/>
+    <mergeCell ref="J109:L109"/>
+    <mergeCell ref="J110:L110"/>
+    <mergeCell ref="J111:L111"/>
+    <mergeCell ref="J112:L112"/>
+    <mergeCell ref="J113:L113"/>
+    <mergeCell ref="J114:L114"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17994,13 +18505,13 @@
     </row>
     <row r="8" spans="4:18" ht="17.25" thickBot="1"/>
     <row r="9" spans="4:18" ht="17.25" thickBot="1">
-      <c r="L9" s="263" t="s">
+      <c r="L9" s="248" t="s">
         <v>207</v>
       </c>
-      <c r="M9" s="264"/>
-      <c r="N9" s="264"/>
-      <c r="O9" s="265"/>
-      <c r="P9" s="270" t="s">
+      <c r="M9" s="249"/>
+      <c r="N9" s="249"/>
+      <c r="O9" s="250"/>
+      <c r="P9" s="255" t="s">
         <v>210</v>
       </c>
     </row>
@@ -18008,114 +18519,114 @@
       <c r="D10" t="s">
         <v>205</v>
       </c>
-      <c r="E10" s="271"/>
-      <c r="F10" s="272"/>
-      <c r="G10" s="273"/>
+      <c r="E10" s="256"/>
+      <c r="F10" s="257"/>
+      <c r="G10" s="258"/>
       <c r="H10" t="s">
         <v>210</v>
       </c>
-      <c r="I10" s="274" t="s">
+      <c r="I10" s="259" t="s">
         <v>206</v>
       </c>
-      <c r="J10" s="275"/>
+      <c r="J10" s="260"/>
       <c r="K10" t="s">
         <v>210</v>
       </c>
-      <c r="L10" s="266"/>
-      <c r="M10" s="267"/>
-      <c r="N10" s="267"/>
-      <c r="O10" s="268"/>
-      <c r="P10" s="270"/>
+      <c r="L10" s="251"/>
+      <c r="M10" s="252"/>
+      <c r="N10" s="252"/>
+      <c r="O10" s="253"/>
+      <c r="P10" s="255"/>
     </row>
     <row r="11" spans="4:18" ht="17.25" thickBot="1"/>
     <row r="12" spans="4:18" ht="17.25" thickBot="1">
-      <c r="E12" s="276" t="s">
+      <c r="E12" s="261" t="s">
         <v>203</v>
       </c>
-      <c r="F12" s="277"/>
-      <c r="G12" s="277"/>
-      <c r="H12" s="277"/>
-      <c r="I12" s="277"/>
-      <c r="J12" s="277"/>
-      <c r="K12" s="277"/>
-      <c r="L12" s="277"/>
-      <c r="M12" s="277"/>
-      <c r="N12" s="277"/>
-      <c r="O12" s="277"/>
-      <c r="P12" s="277"/>
-      <c r="Q12" s="278"/>
+      <c r="F12" s="262"/>
+      <c r="G12" s="262"/>
+      <c r="H12" s="262"/>
+      <c r="I12" s="262"/>
+      <c r="J12" s="262"/>
+      <c r="K12" s="262"/>
+      <c r="L12" s="262"/>
+      <c r="M12" s="262"/>
+      <c r="N12" s="262"/>
+      <c r="O12" s="262"/>
+      <c r="P12" s="262"/>
+      <c r="Q12" s="263"/>
       <c r="R12" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="13" spans="4:18">
       <c r="E13" s="71"/>
-      <c r="F13" s="254" t="s">
+      <c r="F13" s="239" t="s">
         <v>204</v>
       </c>
-      <c r="G13" s="255"/>
-      <c r="H13" s="255"/>
-      <c r="I13" s="255"/>
-      <c r="J13" s="255"/>
-      <c r="K13" s="255"/>
-      <c r="L13" s="255"/>
-      <c r="M13" s="255"/>
-      <c r="N13" s="255"/>
-      <c r="O13" s="256"/>
-      <c r="P13" s="229" t="s">
+      <c r="G13" s="240"/>
+      <c r="H13" s="240"/>
+      <c r="I13" s="240"/>
+      <c r="J13" s="240"/>
+      <c r="K13" s="240"/>
+      <c r="L13" s="240"/>
+      <c r="M13" s="240"/>
+      <c r="N13" s="240"/>
+      <c r="O13" s="241"/>
+      <c r="P13" s="222" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="14" spans="4:18" ht="17.25" thickBot="1">
-      <c r="F14" s="257"/>
-      <c r="G14" s="258"/>
-      <c r="H14" s="258"/>
-      <c r="I14" s="258"/>
-      <c r="J14" s="258"/>
-      <c r="K14" s="258"/>
-      <c r="L14" s="258"/>
-      <c r="M14" s="258"/>
-      <c r="N14" s="258"/>
-      <c r="O14" s="259"/>
-      <c r="P14" s="269"/>
+      <c r="F14" s="242"/>
+      <c r="G14" s="243"/>
+      <c r="H14" s="243"/>
+      <c r="I14" s="243"/>
+      <c r="J14" s="243"/>
+      <c r="K14" s="243"/>
+      <c r="L14" s="243"/>
+      <c r="M14" s="243"/>
+      <c r="N14" s="243"/>
+      <c r="O14" s="244"/>
+      <c r="P14" s="254"/>
     </row>
     <row r="15" spans="4:18" ht="17.25" thickBot="1">
-      <c r="E15" s="235" t="s">
+      <c r="E15" s="219" t="s">
         <v>202</v>
       </c>
-      <c r="F15" s="236"/>
-      <c r="G15" s="236"/>
-      <c r="H15" s="236"/>
-      <c r="I15" s="236"/>
-      <c r="J15" s="236"/>
-      <c r="K15" s="236"/>
-      <c r="L15" s="236"/>
-      <c r="M15" s="236"/>
-      <c r="N15" s="236"/>
-      <c r="O15" s="236"/>
-      <c r="P15" s="236"/>
-      <c r="Q15" s="237"/>
+      <c r="F15" s="220"/>
+      <c r="G15" s="220"/>
+      <c r="H15" s="220"/>
+      <c r="I15" s="220"/>
+      <c r="J15" s="220"/>
+      <c r="K15" s="220"/>
+      <c r="L15" s="220"/>
+      <c r="M15" s="220"/>
+      <c r="N15" s="220"/>
+      <c r="O15" s="220"/>
+      <c r="P15" s="220"/>
+      <c r="Q15" s="221"/>
       <c r="R15" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="17" spans="4:18" ht="17.25" thickBot="1"/>
     <row r="18" spans="4:18" ht="17.25" thickBot="1">
-      <c r="E18" s="260" t="s">
+      <c r="E18" s="245" t="s">
         <v>208</v>
       </c>
-      <c r="F18" s="261"/>
-      <c r="G18" s="261"/>
-      <c r="H18" s="261"/>
-      <c r="I18" s="261"/>
-      <c r="J18" s="261"/>
-      <c r="K18" s="261"/>
-      <c r="L18" s="261"/>
-      <c r="M18" s="261"/>
-      <c r="N18" s="261"/>
-      <c r="O18" s="261"/>
-      <c r="P18" s="261"/>
-      <c r="Q18" s="262"/>
+      <c r="F18" s="246"/>
+      <c r="G18" s="246"/>
+      <c r="H18" s="246"/>
+      <c r="I18" s="246"/>
+      <c r="J18" s="246"/>
+      <c r="K18" s="246"/>
+      <c r="L18" s="246"/>
+      <c r="M18" s="246"/>
+      <c r="N18" s="246"/>
+      <c r="O18" s="246"/>
+      <c r="P18" s="246"/>
+      <c r="Q18" s="247"/>
       <c r="R18" t="s">
         <v>212</v>
       </c>
@@ -18177,28 +18688,28 @@
       </c>
     </row>
     <row r="29" spans="4:18">
-      <c r="G29" s="248" t="s">
+      <c r="G29" s="273" t="s">
         <v>223</v>
       </c>
-      <c r="H29" s="249"/>
-      <c r="I29" s="249"/>
-      <c r="J29" s="249"/>
-      <c r="K29" s="249"/>
-      <c r="L29" s="249"/>
-      <c r="M29" s="249"/>
-      <c r="N29" s="249"/>
-      <c r="O29" s="250"/>
+      <c r="H29" s="274"/>
+      <c r="I29" s="274"/>
+      <c r="J29" s="274"/>
+      <c r="K29" s="274"/>
+      <c r="L29" s="274"/>
+      <c r="M29" s="274"/>
+      <c r="N29" s="274"/>
+      <c r="O29" s="275"/>
     </row>
     <row r="30" spans="4:18" ht="17.25" thickBot="1">
-      <c r="G30" s="251"/>
-      <c r="H30" s="252"/>
-      <c r="I30" s="252"/>
-      <c r="J30" s="252"/>
-      <c r="K30" s="252"/>
-      <c r="L30" s="252"/>
-      <c r="M30" s="252"/>
-      <c r="N30" s="252"/>
-      <c r="O30" s="253"/>
+      <c r="G30" s="276"/>
+      <c r="H30" s="277"/>
+      <c r="I30" s="277"/>
+      <c r="J30" s="277"/>
+      <c r="K30" s="277"/>
+      <c r="L30" s="277"/>
+      <c r="M30" s="277"/>
+      <c r="N30" s="277"/>
+      <c r="O30" s="278"/>
     </row>
     <row r="31" spans="4:18">
       <c r="F31" t="s">
@@ -18217,28 +18728,28 @@
       </c>
     </row>
     <row r="35" spans="6:16">
-      <c r="G35" s="248" t="s">
+      <c r="G35" s="273" t="s">
         <v>230</v>
       </c>
-      <c r="H35" s="249"/>
-      <c r="I35" s="249"/>
-      <c r="J35" s="249"/>
-      <c r="K35" s="249"/>
-      <c r="L35" s="249"/>
-      <c r="M35" s="249"/>
-      <c r="N35" s="249"/>
-      <c r="O35" s="250"/>
+      <c r="H35" s="274"/>
+      <c r="I35" s="274"/>
+      <c r="J35" s="274"/>
+      <c r="K35" s="274"/>
+      <c r="L35" s="274"/>
+      <c r="M35" s="274"/>
+      <c r="N35" s="274"/>
+      <c r="O35" s="275"/>
     </row>
     <row r="36" spans="6:16" ht="17.25" thickBot="1">
-      <c r="G36" s="251"/>
-      <c r="H36" s="252"/>
-      <c r="I36" s="252"/>
-      <c r="J36" s="252"/>
-      <c r="K36" s="252"/>
-      <c r="L36" s="252"/>
-      <c r="M36" s="252"/>
-      <c r="N36" s="252"/>
-      <c r="O36" s="253"/>
+      <c r="G36" s="276"/>
+      <c r="H36" s="277"/>
+      <c r="I36" s="277"/>
+      <c r="J36" s="277"/>
+      <c r="K36" s="277"/>
+      <c r="L36" s="277"/>
+      <c r="M36" s="277"/>
+      <c r="N36" s="277"/>
+      <c r="O36" s="278"/>
     </row>
     <row r="37" spans="6:16">
       <c r="F37" t="s">
@@ -18257,28 +18768,28 @@
       </c>
     </row>
     <row r="41" spans="6:16">
-      <c r="G41" s="248" t="s">
+      <c r="G41" s="273" t="s">
         <v>231</v>
       </c>
-      <c r="H41" s="249"/>
-      <c r="I41" s="249"/>
-      <c r="J41" s="249"/>
-      <c r="K41" s="249"/>
-      <c r="L41" s="249"/>
-      <c r="M41" s="249"/>
-      <c r="N41" s="249"/>
-      <c r="O41" s="250"/>
+      <c r="H41" s="274"/>
+      <c r="I41" s="274"/>
+      <c r="J41" s="274"/>
+      <c r="K41" s="274"/>
+      <c r="L41" s="274"/>
+      <c r="M41" s="274"/>
+      <c r="N41" s="274"/>
+      <c r="O41" s="275"/>
     </row>
     <row r="42" spans="6:16" ht="17.25" thickBot="1">
-      <c r="G42" s="251"/>
-      <c r="H42" s="252"/>
-      <c r="I42" s="252"/>
-      <c r="J42" s="252"/>
-      <c r="K42" s="252"/>
-      <c r="L42" s="252"/>
-      <c r="M42" s="252"/>
-      <c r="N42" s="252"/>
-      <c r="O42" s="253"/>
+      <c r="G42" s="276"/>
+      <c r="H42" s="277"/>
+      <c r="I42" s="277"/>
+      <c r="J42" s="277"/>
+      <c r="K42" s="277"/>
+      <c r="L42" s="277"/>
+      <c r="M42" s="277"/>
+      <c r="N42" s="277"/>
+      <c r="O42" s="278"/>
     </row>
     <row r="43" spans="6:16">
       <c r="F43" t="s">
@@ -18365,44 +18876,44 @@
       </c>
     </row>
     <row r="57" spans="4:16" ht="17.25" thickBot="1">
-      <c r="F57" s="235" t="s">
+      <c r="F57" s="219" t="s">
         <v>236</v>
       </c>
-      <c r="G57" s="236"/>
-      <c r="H57" s="237"/>
+      <c r="G57" s="220"/>
+      <c r="H57" s="221"/>
     </row>
     <row r="58" spans="4:16" ht="17.25" thickBot="1"/>
     <row r="59" spans="4:16">
-      <c r="F59" s="239" t="s">
+      <c r="F59" s="264" t="s">
         <v>237</v>
       </c>
-      <c r="G59" s="240"/>
-      <c r="H59" s="241"/>
+      <c r="G59" s="265"/>
+      <c r="H59" s="266"/>
     </row>
     <row r="60" spans="4:16">
-      <c r="F60" s="242"/>
-      <c r="G60" s="243"/>
-      <c r="H60" s="244"/>
+      <c r="F60" s="267"/>
+      <c r="G60" s="268"/>
+      <c r="H60" s="269"/>
     </row>
     <row r="61" spans="4:16">
-      <c r="F61" s="242"/>
-      <c r="G61" s="243"/>
-      <c r="H61" s="244"/>
+      <c r="F61" s="267"/>
+      <c r="G61" s="268"/>
+      <c r="H61" s="269"/>
     </row>
     <row r="62" spans="4:16">
-      <c r="F62" s="242"/>
-      <c r="G62" s="243"/>
-      <c r="H62" s="244"/>
+      <c r="F62" s="267"/>
+      <c r="G62" s="268"/>
+      <c r="H62" s="269"/>
     </row>
     <row r="63" spans="4:16">
-      <c r="F63" s="242"/>
-      <c r="G63" s="243"/>
-      <c r="H63" s="244"/>
+      <c r="F63" s="267"/>
+      <c r="G63" s="268"/>
+      <c r="H63" s="269"/>
     </row>
     <row r="64" spans="4:16" ht="17.25" thickBot="1">
-      <c r="F64" s="245"/>
-      <c r="G64" s="246"/>
-      <c r="H64" s="247"/>
+      <c r="F64" s="270"/>
+      <c r="G64" s="271"/>
+      <c r="H64" s="272"/>
     </row>
     <row r="68" spans="4:4">
       <c r="D68" t="s">
@@ -18411,6 +18922,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F57:H57"/>
+    <mergeCell ref="F59:H64"/>
+    <mergeCell ref="G29:O30"/>
+    <mergeCell ref="G35:O36"/>
+    <mergeCell ref="G41:O42"/>
     <mergeCell ref="E15:Q15"/>
     <mergeCell ref="F13:O14"/>
     <mergeCell ref="E18:Q18"/>
@@ -18420,11 +18936,6 @@
     <mergeCell ref="E10:G10"/>
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="E12:Q12"/>
-    <mergeCell ref="F57:H57"/>
-    <mergeCell ref="F59:H64"/>
-    <mergeCell ref="G29:O30"/>
-    <mergeCell ref="G35:O36"/>
-    <mergeCell ref="G41:O42"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18884,99 +19395,99 @@
     </row>
     <row r="42" spans="7:29" ht="17.25" thickBot="1"/>
     <row r="43" spans="7:29">
-      <c r="G43" s="229" t="s">
+      <c r="G43" s="222" t="s">
         <v>247</v>
       </c>
-      <c r="H43" s="230"/>
-      <c r="I43" s="230"/>
-      <c r="J43" s="231"/>
-      <c r="N43" s="229" t="s">
+      <c r="H43" s="223"/>
+      <c r="I43" s="223"/>
+      <c r="J43" s="224"/>
+      <c r="N43" s="222" t="s">
         <v>248</v>
       </c>
-      <c r="O43" s="230"/>
-      <c r="P43" s="230"/>
-      <c r="Q43" s="231"/>
-      <c r="T43" s="229" t="s">
+      <c r="O43" s="223"/>
+      <c r="P43" s="223"/>
+      <c r="Q43" s="224"/>
+      <c r="T43" s="222" t="s">
         <v>249</v>
       </c>
-      <c r="U43" s="230"/>
-      <c r="V43" s="230"/>
-      <c r="W43" s="231"/>
-      <c r="Z43" s="229" t="s">
+      <c r="U43" s="223"/>
+      <c r="V43" s="223"/>
+      <c r="W43" s="224"/>
+      <c r="Z43" s="222" t="s">
         <v>250</v>
       </c>
-      <c r="AA43" s="230"/>
-      <c r="AB43" s="230"/>
-      <c r="AC43" s="231"/>
+      <c r="AA43" s="223"/>
+      <c r="AB43" s="223"/>
+      <c r="AC43" s="224"/>
     </row>
     <row r="44" spans="7:29">
-      <c r="G44" s="270"/>
+      <c r="G44" s="255"/>
       <c r="H44" s="280"/>
       <c r="I44" s="280"/>
       <c r="J44" s="281"/>
-      <c r="N44" s="270"/>
+      <c r="N44" s="255"/>
       <c r="O44" s="280"/>
       <c r="P44" s="280"/>
       <c r="Q44" s="281"/>
-      <c r="T44" s="270"/>
+      <c r="T44" s="255"/>
       <c r="U44" s="280"/>
       <c r="V44" s="280"/>
       <c r="W44" s="281"/>
-      <c r="Z44" s="270"/>
+      <c r="Z44" s="255"/>
       <c r="AA44" s="280"/>
       <c r="AB44" s="280"/>
       <c r="AC44" s="281"/>
     </row>
     <row r="45" spans="7:29">
-      <c r="G45" s="270"/>
+      <c r="G45" s="255"/>
       <c r="H45" s="280"/>
       <c r="I45" s="280"/>
       <c r="J45" s="281"/>
-      <c r="N45" s="270"/>
+      <c r="N45" s="255"/>
       <c r="O45" s="280"/>
       <c r="P45" s="280"/>
       <c r="Q45" s="281"/>
-      <c r="T45" s="270"/>
+      <c r="T45" s="255"/>
       <c r="U45" s="280"/>
       <c r="V45" s="280"/>
       <c r="W45" s="281"/>
-      <c r="Z45" s="270"/>
+      <c r="Z45" s="255"/>
       <c r="AA45" s="280"/>
       <c r="AB45" s="280"/>
       <c r="AC45" s="281"/>
     </row>
     <row r="46" spans="7:29">
-      <c r="G46" s="270"/>
+      <c r="G46" s="255"/>
       <c r="H46" s="280"/>
       <c r="I46" s="280"/>
       <c r="J46" s="281"/>
-      <c r="N46" s="270"/>
+      <c r="N46" s="255"/>
       <c r="O46" s="280"/>
       <c r="P46" s="280"/>
       <c r="Q46" s="281"/>
-      <c r="T46" s="270"/>
+      <c r="T46" s="255"/>
       <c r="U46" s="280"/>
       <c r="V46" s="280"/>
       <c r="W46" s="281"/>
-      <c r="Z46" s="270"/>
+      <c r="Z46" s="255"/>
       <c r="AA46" s="280"/>
       <c r="AB46" s="280"/>
       <c r="AC46" s="281"/>
     </row>
     <row r="47" spans="7:29" ht="17.25" thickBot="1">
-      <c r="G47" s="269"/>
+      <c r="G47" s="254"/>
       <c r="H47" s="282"/>
       <c r="I47" s="282"/>
       <c r="J47" s="283"/>
-      <c r="N47" s="269"/>
+      <c r="N47" s="254"/>
       <c r="O47" s="282"/>
       <c r="P47" s="282"/>
       <c r="Q47" s="283"/>
-      <c r="T47" s="269"/>
+      <c r="T47" s="254"/>
       <c r="U47" s="282"/>
       <c r="V47" s="282"/>
       <c r="W47" s="283"/>
-      <c r="Z47" s="269"/>
+      <c r="Z47" s="254"/>
       <c r="AA47" s="282"/>
       <c r="AB47" s="282"/>
       <c r="AC47" s="283"/>
@@ -19013,27 +19524,27 @@
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="2" spans="6:67">
-      <c r="AE2" s="295" t="s">
+      <c r="AE2" s="315" t="s">
         <v>258</v>
       </c>
-      <c r="AF2" s="295"/>
-      <c r="AG2" s="295"/>
-      <c r="AH2" s="295"/>
-      <c r="AI2" s="295"/>
-      <c r="AJ2" s="295"/>
-      <c r="AK2" s="295"/>
-      <c r="AL2" s="295"/>
-      <c r="AM2" s="295"/>
-      <c r="AN2" s="295"/>
-      <c r="AO2" s="295"/>
-      <c r="AP2" s="295"/>
-      <c r="AQ2" s="295"/>
-      <c r="AR2" s="295"/>
-      <c r="AS2" s="295"/>
-      <c r="AT2" s="295"/>
-      <c r="AU2" s="295"/>
-      <c r="AV2" s="295"/>
-      <c r="AW2" s="295"/>
+      <c r="AF2" s="315"/>
+      <c r="AG2" s="315"/>
+      <c r="AH2" s="315"/>
+      <c r="AI2" s="315"/>
+      <c r="AJ2" s="315"/>
+      <c r="AK2" s="315"/>
+      <c r="AL2" s="315"/>
+      <c r="AM2" s="315"/>
+      <c r="AN2" s="315"/>
+      <c r="AO2" s="315"/>
+      <c r="AP2" s="315"/>
+      <c r="AQ2" s="315"/>
+      <c r="AR2" s="315"/>
+      <c r="AS2" s="315"/>
+      <c r="AT2" s="315"/>
+      <c r="AU2" s="315"/>
+      <c r="AV2" s="315"/>
+      <c r="AW2" s="315"/>
     </row>
     <row r="4" spans="6:67" ht="17.25" thickBot="1">
       <c r="AE4" s="26" t="s">
@@ -19074,20 +19585,20 @@
     <row r="6" spans="6:67">
       <c r="AE6" s="3"/>
       <c r="AF6" s="9"/>
-      <c r="AG6" s="296" t="s">
+      <c r="AG6" s="316" t="s">
         <v>257</v>
       </c>
-      <c r="AH6" s="296"/>
-      <c r="AI6" s="296"/>
-      <c r="AJ6" s="296"/>
-      <c r="AK6" s="296"/>
-      <c r="AL6" s="296"/>
-      <c r="AM6" s="296"/>
-      <c r="AN6" s="296"/>
-      <c r="AO6" s="296"/>
-      <c r="AP6" s="296"/>
-      <c r="AQ6" s="296"/>
-      <c r="AR6" s="296"/>
+      <c r="AH6" s="316"/>
+      <c r="AI6" s="316"/>
+      <c r="AJ6" s="316"/>
+      <c r="AK6" s="316"/>
+      <c r="AL6" s="316"/>
+      <c r="AM6" s="316"/>
+      <c r="AN6" s="316"/>
+      <c r="AO6" s="316"/>
+      <c r="AP6" s="316"/>
+      <c r="AQ6" s="316"/>
+      <c r="AR6" s="316"/>
       <c r="AS6" s="9"/>
       <c r="AT6" s="9"/>
       <c r="AU6" s="9"/>
@@ -19103,15 +19614,15 @@
       <c r="BE6" s="9"/>
       <c r="BF6" s="9"/>
       <c r="BG6" s="4"/>
-      <c r="BI6" s="222" t="s">
+      <c r="BI6" s="234" t="s">
         <v>261</v>
       </c>
-      <c r="BJ6" s="222"/>
-      <c r="BK6" s="222"/>
-      <c r="BL6" s="222"/>
-      <c r="BM6" s="222"/>
-      <c r="BN6" s="222"/>
-      <c r="BO6" s="222"/>
+      <c r="BJ6" s="234"/>
+      <c r="BK6" s="234"/>
+      <c r="BL6" s="234"/>
+      <c r="BM6" s="234"/>
+      <c r="BN6" s="234"/>
+      <c r="BO6" s="234"/>
     </row>
     <row r="7" spans="6:67" ht="17.25" thickBot="1">
       <c r="AE7" s="3"/>
@@ -19143,29 +19654,29 @@
       <c r="BE7" s="9"/>
       <c r="BF7" s="9"/>
       <c r="BG7" s="4"/>
-      <c r="BI7" s="222" t="s">
+      <c r="BI7" s="234" t="s">
         <v>262</v>
       </c>
-      <c r="BJ7" s="222"/>
-      <c r="BK7" s="222"/>
-      <c r="BL7" s="222"/>
-      <c r="BM7" s="222"/>
-      <c r="BN7" s="222"/>
-      <c r="BO7" s="222"/>
+      <c r="BJ7" s="234"/>
+      <c r="BK7" s="234"/>
+      <c r="BL7" s="234"/>
+      <c r="BM7" s="234"/>
+      <c r="BN7" s="234"/>
+      <c r="BO7" s="234"/>
     </row>
     <row r="8" spans="6:67">
-      <c r="F8" s="229" t="s">
+      <c r="F8" s="222" t="s">
         <v>266</v>
       </c>
-      <c r="G8" s="230"/>
-      <c r="H8" s="230"/>
-      <c r="I8" s="230"/>
-      <c r="J8" s="230"/>
-      <c r="K8" s="230"/>
-      <c r="L8" s="230"/>
-      <c r="M8" s="230"/>
-      <c r="N8" s="230"/>
-      <c r="O8" s="231"/>
+      <c r="G8" s="223"/>
+      <c r="H8" s="223"/>
+      <c r="I8" s="223"/>
+      <c r="J8" s="223"/>
+      <c r="K8" s="223"/>
+      <c r="L8" s="223"/>
+      <c r="M8" s="223"/>
+      <c r="N8" s="223"/>
+      <c r="O8" s="224"/>
       <c r="AE8" s="3"/>
       <c r="AF8" s="9"/>
       <c r="AG8" s="9"/>
@@ -19195,18 +19706,18 @@
       <c r="BE8" s="9"/>
       <c r="BF8" s="9"/>
       <c r="BG8" s="4"/>
-      <c r="BI8" s="222" t="s">
+      <c r="BI8" s="234" t="s">
         <v>260</v>
       </c>
-      <c r="BJ8" s="222"/>
-      <c r="BK8" s="222"/>
-      <c r="BL8" s="222"/>
-      <c r="BM8" s="222"/>
-      <c r="BN8" s="222"/>
-      <c r="BO8" s="222"/>
+      <c r="BJ8" s="234"/>
+      <c r="BK8" s="234"/>
+      <c r="BL8" s="234"/>
+      <c r="BM8" s="234"/>
+      <c r="BN8" s="234"/>
+      <c r="BO8" s="234"/>
     </row>
     <row r="9" spans="6:67">
-      <c r="F9" s="270"/>
+      <c r="F9" s="255"/>
       <c r="G9" s="280"/>
       <c r="H9" s="280"/>
       <c r="I9" s="280"/>
@@ -19221,18 +19732,18 @@
       <c r="AG9" s="9"/>
       <c r="AH9" s="9"/>
       <c r="AI9" s="9"/>
-      <c r="AJ9" s="303" t="s">
+      <c r="AJ9" s="298" t="s">
         <v>253</v>
       </c>
-      <c r="AK9" s="303"/>
-      <c r="AL9" s="303"/>
-      <c r="AM9" s="303"/>
-      <c r="AN9" s="303"/>
-      <c r="AO9" s="303"/>
-      <c r="AP9" s="303"/>
-      <c r="AQ9" s="303"/>
-      <c r="AR9" s="303"/>
-      <c r="AS9" s="303"/>
+      <c r="AK9" s="298"/>
+      <c r="AL9" s="298"/>
+      <c r="AM9" s="298"/>
+      <c r="AN9" s="298"/>
+      <c r="AO9" s="298"/>
+      <c r="AP9" s="298"/>
+      <c r="AQ9" s="298"/>
+      <c r="AR9" s="298"/>
+      <c r="AS9" s="298"/>
       <c r="AT9" s="9"/>
       <c r="AU9" s="9"/>
       <c r="AV9" s="9"/>
@@ -19247,18 +19758,18 @@
       <c r="BE9" s="9"/>
       <c r="BF9" s="9"/>
       <c r="BG9" s="4"/>
-      <c r="BI9" s="222" t="s">
+      <c r="BI9" s="234" t="s">
         <v>259</v>
       </c>
-      <c r="BJ9" s="222"/>
-      <c r="BK9" s="222"/>
-      <c r="BL9" s="222"/>
-      <c r="BM9" s="222"/>
-      <c r="BN9" s="222"/>
-      <c r="BO9" s="222"/>
+      <c r="BJ9" s="234"/>
+      <c r="BK9" s="234"/>
+      <c r="BL9" s="234"/>
+      <c r="BM9" s="234"/>
+      <c r="BN9" s="234"/>
+      <c r="BO9" s="234"/>
     </row>
     <row r="10" spans="6:67">
-      <c r="F10" s="270"/>
+      <c r="F10" s="255"/>
       <c r="G10" s="280"/>
       <c r="H10" s="280"/>
       <c r="I10" s="280"/>
@@ -19276,16 +19787,16 @@
       <c r="AG10" s="9"/>
       <c r="AH10" s="9"/>
       <c r="AI10" s="9"/>
-      <c r="AJ10" s="303"/>
-      <c r="AK10" s="303"/>
-      <c r="AL10" s="303"/>
-      <c r="AM10" s="303"/>
-      <c r="AN10" s="303"/>
-      <c r="AO10" s="303"/>
-      <c r="AP10" s="303"/>
-      <c r="AQ10" s="303"/>
-      <c r="AR10" s="303"/>
-      <c r="AS10" s="303"/>
+      <c r="AJ10" s="298"/>
+      <c r="AK10" s="298"/>
+      <c r="AL10" s="298"/>
+      <c r="AM10" s="298"/>
+      <c r="AN10" s="298"/>
+      <c r="AO10" s="298"/>
+      <c r="AP10" s="298"/>
+      <c r="AQ10" s="298"/>
+      <c r="AR10" s="298"/>
+      <c r="AS10" s="298"/>
       <c r="AT10" s="9"/>
       <c r="AU10" s="9"/>
       <c r="AV10" s="9"/>
@@ -19302,7 +19813,7 @@
       <c r="BG10" s="4"/>
     </row>
     <row r="11" spans="6:67">
-      <c r="F11" s="270"/>
+      <c r="F11" s="255"/>
       <c r="G11" s="280"/>
       <c r="H11" s="280"/>
       <c r="I11" s="280"/>
@@ -19346,7 +19857,7 @@
       <c r="BG11" s="4"/>
     </row>
     <row r="12" spans="6:67" ht="17.25" thickBot="1">
-      <c r="F12" s="270"/>
+      <c r="F12" s="255"/>
       <c r="G12" s="280"/>
       <c r="H12" s="280"/>
       <c r="I12" s="280"/>
@@ -19387,7 +19898,7 @@
       <c r="BG12" s="4"/>
     </row>
     <row r="13" spans="6:67" ht="17.25" thickBot="1">
-      <c r="F13" s="270"/>
+      <c r="F13" s="255"/>
       <c r="G13" s="280"/>
       <c r="H13" s="280"/>
       <c r="I13" s="280"/>
@@ -19397,19 +19908,19 @@
       <c r="M13" s="280"/>
       <c r="N13" s="280"/>
       <c r="O13" s="281"/>
-      <c r="Q13" s="308" t="s">
+      <c r="Q13" s="303" t="s">
         <v>263</v>
       </c>
-      <c r="R13" s="309"/>
-      <c r="S13" s="309"/>
-      <c r="T13" s="309"/>
-      <c r="U13" s="309"/>
-      <c r="V13" s="309"/>
-      <c r="W13" s="309"/>
-      <c r="X13" s="309"/>
-      <c r="Y13" s="309"/>
-      <c r="Z13" s="309"/>
-      <c r="AA13" s="310"/>
+      <c r="R13" s="304"/>
+      <c r="S13" s="304"/>
+      <c r="T13" s="304"/>
+      <c r="U13" s="304"/>
+      <c r="V13" s="304"/>
+      <c r="W13" s="304"/>
+      <c r="X13" s="304"/>
+      <c r="Y13" s="304"/>
+      <c r="Z13" s="304"/>
+      <c r="AA13" s="305"/>
       <c r="AE13" s="3"/>
       <c r="AF13" s="9"/>
       <c r="AG13" s="9"/>
@@ -19441,7 +19952,7 @@
       <c r="BG13" s="4"/>
     </row>
     <row r="14" spans="6:67">
-      <c r="F14" s="270"/>
+      <c r="F14" s="255"/>
       <c r="G14" s="280"/>
       <c r="H14" s="280"/>
       <c r="I14" s="280"/>
@@ -19451,32 +19962,32 @@
       <c r="M14" s="280"/>
       <c r="N14" s="280"/>
       <c r="O14" s="281"/>
-      <c r="Q14" s="311"/>
-      <c r="R14" s="312"/>
-      <c r="S14" s="312"/>
-      <c r="T14" s="312"/>
-      <c r="U14" s="312"/>
-      <c r="V14" s="312"/>
-      <c r="W14" s="312"/>
-      <c r="X14" s="312"/>
-      <c r="Y14" s="312"/>
-      <c r="Z14" s="312"/>
-      <c r="AA14" s="313"/>
+      <c r="Q14" s="306"/>
+      <c r="R14" s="307"/>
+      <c r="S14" s="307"/>
+      <c r="T14" s="307"/>
+      <c r="U14" s="307"/>
+      <c r="V14" s="307"/>
+      <c r="W14" s="307"/>
+      <c r="X14" s="307"/>
+      <c r="Y14" s="307"/>
+      <c r="Z14" s="307"/>
+      <c r="AA14" s="308"/>
       <c r="AE14" s="3"/>
       <c r="AF14" s="9"/>
       <c r="AG14" s="9"/>
       <c r="AH14" s="9"/>
       <c r="AI14" s="2"/>
-      <c r="AJ14" s="304" t="s">
+      <c r="AJ14" s="299" t="s">
         <v>254</v>
       </c>
-      <c r="AK14" s="305"/>
-      <c r="AL14" s="305"/>
-      <c r="AM14" s="305"/>
-      <c r="AN14" s="305"/>
-      <c r="AO14" s="305"/>
-      <c r="AP14" s="305"/>
-      <c r="AQ14" s="305"/>
+      <c r="AK14" s="300"/>
+      <c r="AL14" s="300"/>
+      <c r="AM14" s="300"/>
+      <c r="AN14" s="300"/>
+      <c r="AO14" s="300"/>
+      <c r="AP14" s="300"/>
+      <c r="AQ14" s="300"/>
       <c r="AR14" s="8"/>
       <c r="AS14" s="9"/>
       <c r="AT14" s="9"/>
@@ -19495,7 +20006,7 @@
       <c r="BG14" s="4"/>
     </row>
     <row r="15" spans="6:67">
-      <c r="F15" s="270"/>
+      <c r="F15" s="255"/>
       <c r="G15" s="280"/>
       <c r="H15" s="280"/>
       <c r="I15" s="280"/>
@@ -19505,17 +20016,17 @@
       <c r="M15" s="280"/>
       <c r="N15" s="280"/>
       <c r="O15" s="281"/>
-      <c r="Q15" s="311"/>
-      <c r="R15" s="312"/>
-      <c r="S15" s="312"/>
-      <c r="T15" s="312"/>
-      <c r="U15" s="312"/>
-      <c r="V15" s="312"/>
-      <c r="W15" s="312"/>
-      <c r="X15" s="312"/>
-      <c r="Y15" s="312"/>
-      <c r="Z15" s="312"/>
-      <c r="AA15" s="313"/>
+      <c r="Q15" s="306"/>
+      <c r="R15" s="307"/>
+      <c r="S15" s="307"/>
+      <c r="T15" s="307"/>
+      <c r="U15" s="307"/>
+      <c r="V15" s="307"/>
+      <c r="W15" s="307"/>
+      <c r="X15" s="307"/>
+      <c r="Y15" s="307"/>
+      <c r="Z15" s="307"/>
+      <c r="AA15" s="308"/>
       <c r="AE15" s="3"/>
       <c r="AF15" s="9"/>
       <c r="AG15" s="9"/>
@@ -19547,7 +20058,7 @@
       <c r="BG15" s="4"/>
     </row>
     <row r="16" spans="6:67">
-      <c r="F16" s="270"/>
+      <c r="F16" s="255"/>
       <c r="G16" s="280"/>
       <c r="H16" s="280"/>
       <c r="I16" s="280"/>
@@ -19557,33 +20068,33 @@
       <c r="M16" s="280"/>
       <c r="N16" s="280"/>
       <c r="O16" s="281"/>
-      <c r="Q16" s="311"/>
-      <c r="R16" s="312"/>
-      <c r="S16" s="312"/>
-      <c r="T16" s="312"/>
-      <c r="U16" s="312"/>
-      <c r="V16" s="312"/>
-      <c r="W16" s="312"/>
-      <c r="X16" s="312"/>
-      <c r="Y16" s="312"/>
-      <c r="Z16" s="312"/>
-      <c r="AA16" s="313"/>
+      <c r="Q16" s="306"/>
+      <c r="R16" s="307"/>
+      <c r="S16" s="307"/>
+      <c r="T16" s="307"/>
+      <c r="U16" s="307"/>
+      <c r="V16" s="307"/>
+      <c r="W16" s="307"/>
+      <c r="X16" s="307"/>
+      <c r="Y16" s="307"/>
+      <c r="Z16" s="307"/>
+      <c r="AA16" s="308"/>
       <c r="AE16" s="3"/>
       <c r="AF16" s="9"/>
       <c r="AG16" s="9"/>
       <c r="AH16" s="9"/>
       <c r="AI16" s="3"/>
-      <c r="AJ16" s="306" t="s">
+      <c r="AJ16" s="301" t="s">
         <v>255</v>
       </c>
-      <c r="AK16" s="307"/>
-      <c r="AL16" s="307"/>
+      <c r="AK16" s="302"/>
+      <c r="AL16" s="302"/>
       <c r="AM16" s="9"/>
-      <c r="AN16" s="306" t="s">
+      <c r="AN16" s="301" t="s">
         <v>256</v>
       </c>
-      <c r="AO16" s="307"/>
-      <c r="AP16" s="307"/>
+      <c r="AO16" s="302"/>
+      <c r="AP16" s="302"/>
       <c r="AQ16" s="9"/>
       <c r="AR16" s="4"/>
       <c r="AS16" s="9"/>
@@ -19603,7 +20114,7 @@
       <c r="BG16" s="4"/>
     </row>
     <row r="17" spans="6:67">
-      <c r="F17" s="270"/>
+      <c r="F17" s="255"/>
       <c r="G17" s="280"/>
       <c r="H17" s="280"/>
       <c r="I17" s="280"/>
@@ -19613,17 +20124,17 @@
       <c r="M17" s="280"/>
       <c r="N17" s="280"/>
       <c r="O17" s="281"/>
-      <c r="Q17" s="311"/>
-      <c r="R17" s="312"/>
-      <c r="S17" s="312"/>
-      <c r="T17" s="312"/>
-      <c r="U17" s="312"/>
-      <c r="V17" s="312"/>
-      <c r="W17" s="312"/>
-      <c r="X17" s="312"/>
-      <c r="Y17" s="312"/>
-      <c r="Z17" s="312"/>
-      <c r="AA17" s="313"/>
+      <c r="Q17" s="306"/>
+      <c r="R17" s="307"/>
+      <c r="S17" s="307"/>
+      <c r="T17" s="307"/>
+      <c r="U17" s="307"/>
+      <c r="V17" s="307"/>
+      <c r="W17" s="307"/>
+      <c r="X17" s="307"/>
+      <c r="Y17" s="307"/>
+      <c r="Z17" s="307"/>
+      <c r="AA17" s="308"/>
       <c r="AE17" s="3"/>
       <c r="AF17" s="9"/>
       <c r="AG17" s="9"/>
@@ -19655,7 +20166,7 @@
       <c r="BG17" s="4"/>
     </row>
     <row r="18" spans="6:67">
-      <c r="F18" s="270"/>
+      <c r="F18" s="255"/>
       <c r="G18" s="280"/>
       <c r="H18" s="280"/>
       <c r="I18" s="280"/>
@@ -19665,17 +20176,17 @@
       <c r="M18" s="280"/>
       <c r="N18" s="280"/>
       <c r="O18" s="281"/>
-      <c r="Q18" s="311"/>
-      <c r="R18" s="312"/>
-      <c r="S18" s="312"/>
-      <c r="T18" s="312"/>
-      <c r="U18" s="312"/>
-      <c r="V18" s="312"/>
-      <c r="W18" s="312"/>
-      <c r="X18" s="312"/>
-      <c r="Y18" s="312"/>
-      <c r="Z18" s="312"/>
-      <c r="AA18" s="313"/>
+      <c r="Q18" s="306"/>
+      <c r="R18" s="307"/>
+      <c r="S18" s="307"/>
+      <c r="T18" s="307"/>
+      <c r="U18" s="307"/>
+      <c r="V18" s="307"/>
+      <c r="W18" s="307"/>
+      <c r="X18" s="307"/>
+      <c r="Y18" s="307"/>
+      <c r="Z18" s="307"/>
+      <c r="AA18" s="308"/>
       <c r="AE18" s="3"/>
       <c r="AF18" s="9"/>
       <c r="AG18" s="9"/>
@@ -19707,7 +20218,7 @@
       <c r="BG18" s="4"/>
     </row>
     <row r="19" spans="6:67">
-      <c r="F19" s="270"/>
+      <c r="F19" s="255"/>
       <c r="G19" s="280"/>
       <c r="H19" s="280"/>
       <c r="I19" s="280"/>
@@ -19717,17 +20228,17 @@
       <c r="M19" s="280"/>
       <c r="N19" s="280"/>
       <c r="O19" s="281"/>
-      <c r="Q19" s="311"/>
-      <c r="R19" s="312"/>
-      <c r="S19" s="312"/>
-      <c r="T19" s="312"/>
-      <c r="U19" s="312"/>
-      <c r="V19" s="312"/>
-      <c r="W19" s="312"/>
-      <c r="X19" s="312"/>
-      <c r="Y19" s="312"/>
-      <c r="Z19" s="312"/>
-      <c r="AA19" s="313"/>
+      <c r="Q19" s="306"/>
+      <c r="R19" s="307"/>
+      <c r="S19" s="307"/>
+      <c r="T19" s="307"/>
+      <c r="U19" s="307"/>
+      <c r="V19" s="307"/>
+      <c r="W19" s="307"/>
+      <c r="X19" s="307"/>
+      <c r="Y19" s="307"/>
+      <c r="Z19" s="307"/>
+      <c r="AA19" s="308"/>
       <c r="AE19" s="3"/>
       <c r="AF19" s="9"/>
       <c r="AG19" s="9"/>
@@ -19759,7 +20270,7 @@
       <c r="BG19" s="4"/>
     </row>
     <row r="20" spans="6:67">
-      <c r="F20" s="270"/>
+      <c r="F20" s="255"/>
       <c r="G20" s="280"/>
       <c r="H20" s="280"/>
       <c r="I20" s="280"/>
@@ -19769,17 +20280,17 @@
       <c r="M20" s="280"/>
       <c r="N20" s="280"/>
       <c r="O20" s="281"/>
-      <c r="Q20" s="311"/>
-      <c r="R20" s="312"/>
-      <c r="S20" s="312"/>
-      <c r="T20" s="312"/>
-      <c r="U20" s="312"/>
-      <c r="V20" s="312"/>
-      <c r="W20" s="312"/>
-      <c r="X20" s="312"/>
-      <c r="Y20" s="312"/>
-      <c r="Z20" s="312"/>
-      <c r="AA20" s="313"/>
+      <c r="Q20" s="306"/>
+      <c r="R20" s="307"/>
+      <c r="S20" s="307"/>
+      <c r="T20" s="307"/>
+      <c r="U20" s="307"/>
+      <c r="V20" s="307"/>
+      <c r="W20" s="307"/>
+      <c r="X20" s="307"/>
+      <c r="Y20" s="307"/>
+      <c r="Z20" s="307"/>
+      <c r="AA20" s="308"/>
       <c r="AE20" s="3"/>
       <c r="AF20" s="9"/>
       <c r="AG20" s="9"/>
@@ -19811,7 +20322,7 @@
       <c r="BG20" s="4"/>
     </row>
     <row r="21" spans="6:67" ht="17.25" thickBot="1">
-      <c r="F21" s="270"/>
+      <c r="F21" s="255"/>
       <c r="G21" s="280"/>
       <c r="H21" s="280"/>
       <c r="I21" s="280"/>
@@ -19821,17 +20332,17 @@
       <c r="M21" s="280"/>
       <c r="N21" s="280"/>
       <c r="O21" s="281"/>
-      <c r="Q21" s="311"/>
-      <c r="R21" s="312"/>
-      <c r="S21" s="312"/>
-      <c r="T21" s="312"/>
-      <c r="U21" s="312"/>
-      <c r="V21" s="312"/>
-      <c r="W21" s="312"/>
-      <c r="X21" s="312"/>
-      <c r="Y21" s="312"/>
-      <c r="Z21" s="312"/>
-      <c r="AA21" s="313"/>
+      <c r="Q21" s="306"/>
+      <c r="R21" s="307"/>
+      <c r="S21" s="307"/>
+      <c r="T21" s="307"/>
+      <c r="U21" s="307"/>
+      <c r="V21" s="307"/>
+      <c r="W21" s="307"/>
+      <c r="X21" s="307"/>
+      <c r="Y21" s="307"/>
+      <c r="Z21" s="307"/>
+      <c r="AA21" s="308"/>
       <c r="AE21" s="3"/>
       <c r="AF21" s="9"/>
       <c r="AG21" s="9"/>
@@ -19863,7 +20374,7 @@
       <c r="BG21" s="4"/>
     </row>
     <row r="22" spans="6:67">
-      <c r="F22" s="270"/>
+      <c r="F22" s="255"/>
       <c r="G22" s="280"/>
       <c r="H22" s="280"/>
       <c r="I22" s="280"/>
@@ -19873,17 +20384,17 @@
       <c r="M22" s="280"/>
       <c r="N22" s="280"/>
       <c r="O22" s="281"/>
-      <c r="Q22" s="311"/>
-      <c r="R22" s="312"/>
-      <c r="S22" s="312"/>
-      <c r="T22" s="312"/>
-      <c r="U22" s="312"/>
-      <c r="V22" s="312"/>
-      <c r="W22" s="312"/>
-      <c r="X22" s="312"/>
-      <c r="Y22" s="312"/>
-      <c r="Z22" s="312"/>
-      <c r="AA22" s="313"/>
+      <c r="Q22" s="306"/>
+      <c r="R22" s="307"/>
+      <c r="S22" s="307"/>
+      <c r="T22" s="307"/>
+      <c r="U22" s="307"/>
+      <c r="V22" s="307"/>
+      <c r="W22" s="307"/>
+      <c r="X22" s="307"/>
+      <c r="Y22" s="307"/>
+      <c r="Z22" s="307"/>
+      <c r="AA22" s="308"/>
       <c r="AE22" s="3"/>
       <c r="AF22" s="9"/>
       <c r="AG22" s="9"/>
@@ -19915,7 +20426,7 @@
       <c r="BG22" s="4"/>
     </row>
     <row r="23" spans="6:67">
-      <c r="F23" s="270"/>
+      <c r="F23" s="255"/>
       <c r="G23" s="280"/>
       <c r="H23" s="280"/>
       <c r="I23" s="280"/>
@@ -19925,17 +20436,17 @@
       <c r="M23" s="280"/>
       <c r="N23" s="280"/>
       <c r="O23" s="281"/>
-      <c r="Q23" s="311"/>
-      <c r="R23" s="312"/>
-      <c r="S23" s="312"/>
-      <c r="T23" s="312"/>
-      <c r="U23" s="312"/>
-      <c r="V23" s="312"/>
-      <c r="W23" s="312"/>
-      <c r="X23" s="312"/>
-      <c r="Y23" s="312"/>
-      <c r="Z23" s="312"/>
-      <c r="AA23" s="313"/>
+      <c r="Q23" s="306"/>
+      <c r="R23" s="307"/>
+      <c r="S23" s="307"/>
+      <c r="T23" s="307"/>
+      <c r="U23" s="307"/>
+      <c r="V23" s="307"/>
+      <c r="W23" s="307"/>
+      <c r="X23" s="307"/>
+      <c r="Y23" s="307"/>
+      <c r="Z23" s="307"/>
+      <c r="AA23" s="308"/>
       <c r="AE23" s="3"/>
       <c r="AF23" s="9"/>
       <c r="AG23" s="9"/>
@@ -19967,7 +20478,7 @@
       <c r="BG23" s="4"/>
     </row>
     <row r="24" spans="6:67" ht="17.25" thickBot="1">
-      <c r="F24" s="269"/>
+      <c r="F24" s="254"/>
       <c r="G24" s="282"/>
       <c r="H24" s="282"/>
       <c r="I24" s="282"/>
@@ -19977,17 +20488,17 @@
       <c r="M24" s="282"/>
       <c r="N24" s="282"/>
       <c r="O24" s="283"/>
-      <c r="Q24" s="314"/>
-      <c r="R24" s="315"/>
-      <c r="S24" s="315"/>
-      <c r="T24" s="315"/>
-      <c r="U24" s="315"/>
-      <c r="V24" s="315"/>
-      <c r="W24" s="315"/>
-      <c r="X24" s="315"/>
-      <c r="Y24" s="315"/>
-      <c r="Z24" s="315"/>
-      <c r="AA24" s="316"/>
+      <c r="Q24" s="309"/>
+      <c r="R24" s="310"/>
+      <c r="S24" s="310"/>
+      <c r="T24" s="310"/>
+      <c r="U24" s="310"/>
+      <c r="V24" s="310"/>
+      <c r="W24" s="310"/>
+      <c r="X24" s="310"/>
+      <c r="Y24" s="310"/>
+      <c r="Z24" s="310"/>
+      <c r="AA24" s="311"/>
       <c r="AE24" s="5"/>
       <c r="AF24" s="10"/>
       <c r="AG24" s="10"/>
@@ -20037,7 +20548,7 @@
       <c r="S25" s="93"/>
       <c r="T25" s="93"/>
       <c r="U25" s="93"/>
-      <c r="V25" s="317"/>
+      <c r="V25" s="312"/>
       <c r="W25" s="93"/>
       <c r="X25" s="93"/>
       <c r="Y25" s="93"/>
@@ -20056,7 +20567,7 @@
       <c r="AL25" s="93"/>
       <c r="AM25" s="93"/>
       <c r="AN25" s="93"/>
-      <c r="AO25" s="317"/>
+      <c r="AO25" s="312"/>
       <c r="AP25" s="93"/>
       <c r="AQ25" s="95"/>
       <c r="AR25" s="93"/>
@@ -20085,86 +20596,86 @@
       <c r="BO25" s="94"/>
     </row>
     <row r="26" spans="6:67">
-      <c r="J26" s="297"/>
-      <c r="V26" s="318"/>
-      <c r="AO26" s="318"/>
-      <c r="AQ26" s="297"/>
+      <c r="J26" s="292"/>
+      <c r="V26" s="313"/>
+      <c r="AO26" s="313"/>
+      <c r="AQ26" s="292"/>
     </row>
     <row r="27" spans="6:67">
-      <c r="J27" s="298"/>
-      <c r="V27" s="318"/>
-      <c r="AO27" s="318"/>
-      <c r="AQ27" s="298"/>
+      <c r="J27" s="293"/>
+      <c r="V27" s="313"/>
+      <c r="AO27" s="313"/>
+      <c r="AQ27" s="293"/>
     </row>
     <row r="28" spans="6:67" ht="17.25" thickBot="1">
-      <c r="J28" s="298"/>
-      <c r="V28" s="318"/>
-      <c r="AO28" s="318"/>
-      <c r="AQ28" s="298"/>
+      <c r="J28" s="293"/>
+      <c r="V28" s="313"/>
+      <c r="AO28" s="313"/>
+      <c r="AQ28" s="293"/>
     </row>
     <row r="29" spans="6:67" ht="17.25" thickBot="1">
-      <c r="J29" s="298"/>
-      <c r="V29" s="319"/>
-      <c r="W29" s="300"/>
-      <c r="X29" s="301"/>
-      <c r="Y29" s="301"/>
-      <c r="Z29" s="301"/>
-      <c r="AA29" s="301"/>
-      <c r="AB29" s="301"/>
-      <c r="AC29" s="301"/>
-      <c r="AD29" s="301"/>
-      <c r="AE29" s="301"/>
-      <c r="AF29" s="301"/>
-      <c r="AG29" s="301"/>
-      <c r="AH29" s="301"/>
-      <c r="AI29" s="301"/>
-      <c r="AJ29" s="301"/>
-      <c r="AK29" s="301"/>
-      <c r="AL29" s="301"/>
-      <c r="AM29" s="301"/>
-      <c r="AN29" s="302"/>
-      <c r="AO29" s="319"/>
-      <c r="AQ29" s="298"/>
+      <c r="J29" s="293"/>
+      <c r="V29" s="314"/>
+      <c r="W29" s="295"/>
+      <c r="X29" s="296"/>
+      <c r="Y29" s="296"/>
+      <c r="Z29" s="296"/>
+      <c r="AA29" s="296"/>
+      <c r="AB29" s="296"/>
+      <c r="AC29" s="296"/>
+      <c r="AD29" s="296"/>
+      <c r="AE29" s="296"/>
+      <c r="AF29" s="296"/>
+      <c r="AG29" s="296"/>
+      <c r="AH29" s="296"/>
+      <c r="AI29" s="296"/>
+      <c r="AJ29" s="296"/>
+      <c r="AK29" s="296"/>
+      <c r="AL29" s="296"/>
+      <c r="AM29" s="296"/>
+      <c r="AN29" s="297"/>
+      <c r="AO29" s="314"/>
+      <c r="AQ29" s="293"/>
     </row>
     <row r="30" spans="6:67" ht="17.25" thickBot="1">
-      <c r="J30" s="298"/>
-      <c r="AQ30" s="299"/>
+      <c r="J30" s="293"/>
+      <c r="AQ30" s="294"/>
     </row>
     <row r="31" spans="6:67" ht="17.25" thickBot="1">
-      <c r="J31" s="299"/>
-      <c r="K31" s="300"/>
-      <c r="L31" s="301"/>
-      <c r="M31" s="301"/>
-      <c r="N31" s="301"/>
-      <c r="O31" s="301"/>
-      <c r="P31" s="301"/>
-      <c r="Q31" s="301"/>
-      <c r="R31" s="301"/>
-      <c r="S31" s="301"/>
-      <c r="T31" s="301"/>
-      <c r="U31" s="301"/>
-      <c r="V31" s="301"/>
-      <c r="W31" s="301"/>
-      <c r="X31" s="301"/>
-      <c r="Y31" s="301"/>
-      <c r="Z31" s="301"/>
-      <c r="AA31" s="301"/>
-      <c r="AB31" s="301"/>
-      <c r="AC31" s="301"/>
-      <c r="AD31" s="301"/>
-      <c r="AE31" s="301"/>
-      <c r="AF31" s="301"/>
-      <c r="AG31" s="301"/>
-      <c r="AH31" s="301"/>
-      <c r="AI31" s="301"/>
-      <c r="AJ31" s="301"/>
-      <c r="AK31" s="301"/>
-      <c r="AL31" s="301"/>
-      <c r="AM31" s="301"/>
-      <c r="AN31" s="301"/>
-      <c r="AO31" s="301"/>
-      <c r="AP31" s="301"/>
-      <c r="AQ31" s="302"/>
+      <c r="J31" s="294"/>
+      <c r="K31" s="295"/>
+      <c r="L31" s="296"/>
+      <c r="M31" s="296"/>
+      <c r="N31" s="296"/>
+      <c r="O31" s="296"/>
+      <c r="P31" s="296"/>
+      <c r="Q31" s="296"/>
+      <c r="R31" s="296"/>
+      <c r="S31" s="296"/>
+      <c r="T31" s="296"/>
+      <c r="U31" s="296"/>
+      <c r="V31" s="296"/>
+      <c r="W31" s="296"/>
+      <c r="X31" s="296"/>
+      <c r="Y31" s="296"/>
+      <c r="Z31" s="296"/>
+      <c r="AA31" s="296"/>
+      <c r="AB31" s="296"/>
+      <c r="AC31" s="296"/>
+      <c r="AD31" s="296"/>
+      <c r="AE31" s="296"/>
+      <c r="AF31" s="296"/>
+      <c r="AG31" s="296"/>
+      <c r="AH31" s="296"/>
+      <c r="AI31" s="296"/>
+      <c r="AJ31" s="296"/>
+      <c r="AK31" s="296"/>
+      <c r="AL31" s="296"/>
+      <c r="AM31" s="296"/>
+      <c r="AN31" s="296"/>
+      <c r="AO31" s="296"/>
+      <c r="AP31" s="296"/>
+      <c r="AQ31" s="297"/>
     </row>
     <row r="33" spans="6:48">
       <c r="Q33" s="238" t="s">
@@ -20173,29 +20684,29 @@
       <c r="R33" s="238"/>
       <c r="S33" s="238"/>
       <c r="T33" s="238"/>
-      <c r="W33" s="320" t="s">
+      <c r="W33" s="287" t="s">
         <v>281</v>
       </c>
-      <c r="X33" s="321"/>
-      <c r="Y33" s="321"/>
-      <c r="Z33" s="321"/>
-      <c r="AA33" s="321"/>
-      <c r="AB33" s="321"/>
-      <c r="AC33" s="321"/>
-      <c r="AD33" s="321"/>
-      <c r="AE33" s="321"/>
-      <c r="AF33" s="321"/>
-      <c r="AG33" s="321"/>
-      <c r="AH33" s="321"/>
-      <c r="AI33" s="321"/>
-      <c r="AJ33" s="322"/>
+      <c r="X33" s="288"/>
+      <c r="Y33" s="288"/>
+      <c r="Z33" s="288"/>
+      <c r="AA33" s="288"/>
+      <c r="AB33" s="288"/>
+      <c r="AC33" s="288"/>
+      <c r="AD33" s="288"/>
+      <c r="AE33" s="288"/>
+      <c r="AF33" s="288"/>
+      <c r="AG33" s="288"/>
+      <c r="AH33" s="288"/>
+      <c r="AI33" s="288"/>
+      <c r="AJ33" s="289"/>
     </row>
     <row r="34" spans="6:48">
       <c r="Q34" s="238"/>
       <c r="R34" s="238"/>
       <c r="S34" s="238"/>
       <c r="T34" s="238"/>
-      <c r="W34" s="323"/>
+      <c r="W34" s="290"/>
       <c r="X34" s="279"/>
       <c r="Y34" s="279"/>
       <c r="Z34" s="279"/>
@@ -20208,811 +20719,811 @@
       <c r="AG34" s="279"/>
       <c r="AH34" s="279"/>
       <c r="AI34" s="279"/>
-      <c r="AJ34" s="324"/>
+      <c r="AJ34" s="291"/>
     </row>
     <row r="36" spans="6:48">
-      <c r="Q36" s="291" t="s">
+      <c r="Q36" s="286" t="s">
         <v>267</v>
       </c>
-      <c r="R36" s="291"/>
-      <c r="S36" s="291"/>
-      <c r="T36" s="291"/>
-      <c r="U36" s="292" t="s">
+      <c r="R36" s="286"/>
+      <c r="S36" s="286"/>
+      <c r="T36" s="286"/>
+      <c r="U36" s="285" t="s">
         <v>268</v>
       </c>
-      <c r="V36" s="292"/>
-      <c r="W36" s="292"/>
-      <c r="X36" s="292"/>
-      <c r="Y36" s="291" t="s">
+      <c r="V36" s="285"/>
+      <c r="W36" s="285"/>
+      <c r="X36" s="285"/>
+      <c r="Y36" s="286" t="s">
         <v>269</v>
       </c>
-      <c r="Z36" s="291"/>
-      <c r="AA36" s="291"/>
-      <c r="AB36" s="291"/>
-      <c r="AC36" s="292" t="s">
+      <c r="Z36" s="286"/>
+      <c r="AA36" s="286"/>
+      <c r="AB36" s="286"/>
+      <c r="AC36" s="285" t="s">
         <v>270</v>
       </c>
-      <c r="AD36" s="292"/>
-      <c r="AE36" s="292"/>
-      <c r="AF36" s="292"/>
-      <c r="AG36" s="291" t="s">
+      <c r="AD36" s="285"/>
+      <c r="AE36" s="285"/>
+      <c r="AF36" s="285"/>
+      <c r="AG36" s="286" t="s">
         <v>271</v>
       </c>
-      <c r="AH36" s="291"/>
-      <c r="AI36" s="291"/>
-      <c r="AJ36" s="291"/>
-      <c r="AK36" s="292" t="s">
+      <c r="AH36" s="286"/>
+      <c r="AI36" s="286"/>
+      <c r="AJ36" s="286"/>
+      <c r="AK36" s="285" t="s">
         <v>272</v>
       </c>
-      <c r="AL36" s="292"/>
-      <c r="AM36" s="292"/>
-      <c r="AN36" s="292"/>
-      <c r="AO36" s="291" t="s">
+      <c r="AL36" s="285"/>
+      <c r="AM36" s="285"/>
+      <c r="AN36" s="285"/>
+      <c r="AO36" s="286" t="s">
         <v>273</v>
       </c>
-      <c r="AP36" s="291"/>
-      <c r="AQ36" s="291"/>
-      <c r="AR36" s="291"/>
-      <c r="AS36" s="292" t="s">
+      <c r="AP36" s="286"/>
+      <c r="AQ36" s="286"/>
+      <c r="AR36" s="286"/>
+      <c r="AS36" s="285" t="s">
         <v>274</v>
       </c>
-      <c r="AT36" s="292"/>
-      <c r="AU36" s="292"/>
-      <c r="AV36" s="292"/>
+      <c r="AT36" s="285"/>
+      <c r="AU36" s="285"/>
+      <c r="AV36" s="285"/>
     </row>
     <row r="37" spans="6:48">
-      <c r="Q37" s="291"/>
-      <c r="R37" s="291"/>
-      <c r="S37" s="291"/>
-      <c r="T37" s="291"/>
-      <c r="U37" s="292"/>
-      <c r="V37" s="292"/>
-      <c r="W37" s="292"/>
-      <c r="X37" s="292"/>
-      <c r="Y37" s="291"/>
-      <c r="Z37" s="291"/>
-      <c r="AA37" s="291"/>
-      <c r="AB37" s="291"/>
-      <c r="AC37" s="292"/>
-      <c r="AD37" s="292"/>
-      <c r="AE37" s="292"/>
-      <c r="AF37" s="292"/>
-      <c r="AG37" s="291"/>
-      <c r="AH37" s="291"/>
-      <c r="AI37" s="291"/>
-      <c r="AJ37" s="291"/>
-      <c r="AK37" s="292"/>
-      <c r="AL37" s="292"/>
-      <c r="AM37" s="292"/>
-      <c r="AN37" s="292"/>
-      <c r="AO37" s="291"/>
-      <c r="AP37" s="291"/>
-      <c r="AQ37" s="291"/>
-      <c r="AR37" s="291"/>
-      <c r="AS37" s="292"/>
-      <c r="AT37" s="292"/>
-      <c r="AU37" s="292"/>
-      <c r="AV37" s="292"/>
+      <c r="Q37" s="286"/>
+      <c r="R37" s="286"/>
+      <c r="S37" s="286"/>
+      <c r="T37" s="286"/>
+      <c r="U37" s="285"/>
+      <c r="V37" s="285"/>
+      <c r="W37" s="285"/>
+      <c r="X37" s="285"/>
+      <c r="Y37" s="286"/>
+      <c r="Z37" s="286"/>
+      <c r="AA37" s="286"/>
+      <c r="AB37" s="286"/>
+      <c r="AC37" s="285"/>
+      <c r="AD37" s="285"/>
+      <c r="AE37" s="285"/>
+      <c r="AF37" s="285"/>
+      <c r="AG37" s="286"/>
+      <c r="AH37" s="286"/>
+      <c r="AI37" s="286"/>
+      <c r="AJ37" s="286"/>
+      <c r="AK37" s="285"/>
+      <c r="AL37" s="285"/>
+      <c r="AM37" s="285"/>
+      <c r="AN37" s="285"/>
+      <c r="AO37" s="286"/>
+      <c r="AP37" s="286"/>
+      <c r="AQ37" s="286"/>
+      <c r="AR37" s="286"/>
+      <c r="AS37" s="285"/>
+      <c r="AT37" s="285"/>
+      <c r="AU37" s="285"/>
+      <c r="AV37" s="285"/>
     </row>
     <row r="38" spans="6:48">
-      <c r="F38" s="285" t="s">
+      <c r="F38" s="318" t="s">
         <v>423</v>
       </c>
-      <c r="G38" s="286"/>
-      <c r="H38" s="287"/>
-      <c r="J38" s="320" t="s">
+      <c r="G38" s="319"/>
+      <c r="H38" s="320"/>
+      <c r="J38" s="287" t="s">
         <v>278</v>
       </c>
-      <c r="K38" s="321"/>
-      <c r="L38" s="321"/>
-      <c r="M38" s="322"/>
-      <c r="Q38" s="291">
+      <c r="K38" s="288"/>
+      <c r="L38" s="288"/>
+      <c r="M38" s="289"/>
+      <c r="Q38" s="286">
         <v>7369</v>
       </c>
-      <c r="R38" s="291"/>
-      <c r="S38" s="291"/>
-      <c r="T38" s="291"/>
-      <c r="U38" s="292" t="s">
+      <c r="R38" s="286"/>
+      <c r="S38" s="286"/>
+      <c r="T38" s="286"/>
+      <c r="U38" s="285" t="s">
         <v>276</v>
       </c>
-      <c r="V38" s="292"/>
-      <c r="W38" s="292"/>
-      <c r="X38" s="292"/>
-      <c r="Y38" s="291" t="s">
+      <c r="V38" s="285"/>
+      <c r="W38" s="285"/>
+      <c r="X38" s="285"/>
+      <c r="Y38" s="286" t="s">
         <v>277</v>
       </c>
-      <c r="Z38" s="291"/>
-      <c r="AA38" s="291"/>
-      <c r="AB38" s="291"/>
-      <c r="AC38" s="292">
+      <c r="Z38" s="286"/>
+      <c r="AA38" s="286"/>
+      <c r="AB38" s="286"/>
+      <c r="AC38" s="285">
         <v>7902</v>
       </c>
-      <c r="AD38" s="292"/>
-      <c r="AE38" s="292"/>
-      <c r="AF38" s="292"/>
-      <c r="AG38" s="293">
+      <c r="AD38" s="285"/>
+      <c r="AE38" s="285"/>
+      <c r="AF38" s="285"/>
+      <c r="AG38" s="324">
         <v>29572</v>
       </c>
-      <c r="AH38" s="291"/>
-      <c r="AI38" s="291"/>
-      <c r="AJ38" s="291"/>
-      <c r="AK38" s="292">
+      <c r="AH38" s="286"/>
+      <c r="AI38" s="286"/>
+      <c r="AJ38" s="286"/>
+      <c r="AK38" s="285">
         <v>800</v>
       </c>
-      <c r="AL38" s="292"/>
-      <c r="AM38" s="292"/>
-      <c r="AN38" s="292"/>
-      <c r="AO38" s="294"/>
-      <c r="AP38" s="294"/>
-      <c r="AQ38" s="294"/>
-      <c r="AR38" s="294"/>
-      <c r="AS38" s="292">
+      <c r="AL38" s="285"/>
+      <c r="AM38" s="285"/>
+      <c r="AN38" s="285"/>
+      <c r="AO38" s="317"/>
+      <c r="AP38" s="317"/>
+      <c r="AQ38" s="317"/>
+      <c r="AR38" s="317"/>
+      <c r="AS38" s="285">
         <v>20</v>
       </c>
-      <c r="AT38" s="292"/>
-      <c r="AU38" s="292"/>
-      <c r="AV38" s="292"/>
+      <c r="AT38" s="285"/>
+      <c r="AU38" s="285"/>
+      <c r="AV38" s="285"/>
     </row>
     <row r="39" spans="6:48">
-      <c r="F39" s="288"/>
-      <c r="G39" s="289"/>
-      <c r="H39" s="290"/>
-      <c r="J39" s="323"/>
+      <c r="F39" s="321"/>
+      <c r="G39" s="322"/>
+      <c r="H39" s="323"/>
+      <c r="J39" s="290"/>
       <c r="K39" s="279"/>
       <c r="L39" s="279"/>
-      <c r="M39" s="324"/>
-      <c r="Q39" s="291"/>
-      <c r="R39" s="291"/>
-      <c r="S39" s="291"/>
-      <c r="T39" s="291"/>
-      <c r="U39" s="292"/>
-      <c r="V39" s="292"/>
-      <c r="W39" s="292"/>
-      <c r="X39" s="292"/>
-      <c r="Y39" s="291"/>
-      <c r="Z39" s="291"/>
-      <c r="AA39" s="291"/>
-      <c r="AB39" s="291"/>
-      <c r="AC39" s="292"/>
-      <c r="AD39" s="292"/>
-      <c r="AE39" s="292"/>
-      <c r="AF39" s="292"/>
-      <c r="AG39" s="291"/>
-      <c r="AH39" s="291"/>
-      <c r="AI39" s="291"/>
-      <c r="AJ39" s="291"/>
-      <c r="AK39" s="292"/>
-      <c r="AL39" s="292"/>
-      <c r="AM39" s="292"/>
-      <c r="AN39" s="292"/>
-      <c r="AO39" s="294"/>
-      <c r="AP39" s="294"/>
-      <c r="AQ39" s="294"/>
-      <c r="AR39" s="294"/>
-      <c r="AS39" s="292"/>
-      <c r="AT39" s="292"/>
-      <c r="AU39" s="292"/>
-      <c r="AV39" s="292"/>
+      <c r="M39" s="291"/>
+      <c r="Q39" s="286"/>
+      <c r="R39" s="286"/>
+      <c r="S39" s="286"/>
+      <c r="T39" s="286"/>
+      <c r="U39" s="285"/>
+      <c r="V39" s="285"/>
+      <c r="W39" s="285"/>
+      <c r="X39" s="285"/>
+      <c r="Y39" s="286"/>
+      <c r="Z39" s="286"/>
+      <c r="AA39" s="286"/>
+      <c r="AB39" s="286"/>
+      <c r="AC39" s="285"/>
+      <c r="AD39" s="285"/>
+      <c r="AE39" s="285"/>
+      <c r="AF39" s="285"/>
+      <c r="AG39" s="286"/>
+      <c r="AH39" s="286"/>
+      <c r="AI39" s="286"/>
+      <c r="AJ39" s="286"/>
+      <c r="AK39" s="285"/>
+      <c r="AL39" s="285"/>
+      <c r="AM39" s="285"/>
+      <c r="AN39" s="285"/>
+      <c r="AO39" s="317"/>
+      <c r="AP39" s="317"/>
+      <c r="AQ39" s="317"/>
+      <c r="AR39" s="317"/>
+      <c r="AS39" s="285"/>
+      <c r="AT39" s="285"/>
+      <c r="AU39" s="285"/>
+      <c r="AV39" s="285"/>
     </row>
     <row r="40" spans="6:48">
-      <c r="F40" s="285" t="s">
+      <c r="F40" s="318" t="s">
         <v>423</v>
       </c>
-      <c r="G40" s="286"/>
-      <c r="H40" s="287"/>
-      <c r="Q40" s="291"/>
-      <c r="R40" s="291"/>
-      <c r="S40" s="291"/>
-      <c r="T40" s="291"/>
-      <c r="U40" s="292"/>
-      <c r="V40" s="292"/>
-      <c r="W40" s="292"/>
-      <c r="X40" s="292"/>
-      <c r="Y40" s="291"/>
-      <c r="Z40" s="291"/>
-      <c r="AA40" s="291"/>
-      <c r="AB40" s="291"/>
-      <c r="AC40" s="292"/>
-      <c r="AD40" s="292"/>
-      <c r="AE40" s="292"/>
-      <c r="AF40" s="292"/>
-      <c r="AG40" s="291"/>
-      <c r="AH40" s="291"/>
-      <c r="AI40" s="291"/>
-      <c r="AJ40" s="291"/>
-      <c r="AK40" s="292"/>
-      <c r="AL40" s="292"/>
-      <c r="AM40" s="292"/>
-      <c r="AN40" s="292"/>
-      <c r="AO40" s="291"/>
-      <c r="AP40" s="291"/>
-      <c r="AQ40" s="291"/>
-      <c r="AR40" s="291"/>
-      <c r="AS40" s="292"/>
-      <c r="AT40" s="292"/>
-      <c r="AU40" s="292"/>
-      <c r="AV40" s="292"/>
+      <c r="G40" s="319"/>
+      <c r="H40" s="320"/>
+      <c r="Q40" s="286"/>
+      <c r="R40" s="286"/>
+      <c r="S40" s="286"/>
+      <c r="T40" s="286"/>
+      <c r="U40" s="285"/>
+      <c r="V40" s="285"/>
+      <c r="W40" s="285"/>
+      <c r="X40" s="285"/>
+      <c r="Y40" s="286"/>
+      <c r="Z40" s="286"/>
+      <c r="AA40" s="286"/>
+      <c r="AB40" s="286"/>
+      <c r="AC40" s="285"/>
+      <c r="AD40" s="285"/>
+      <c r="AE40" s="285"/>
+      <c r="AF40" s="285"/>
+      <c r="AG40" s="286"/>
+      <c r="AH40" s="286"/>
+      <c r="AI40" s="286"/>
+      <c r="AJ40" s="286"/>
+      <c r="AK40" s="285"/>
+      <c r="AL40" s="285"/>
+      <c r="AM40" s="285"/>
+      <c r="AN40" s="285"/>
+      <c r="AO40" s="286"/>
+      <c r="AP40" s="286"/>
+      <c r="AQ40" s="286"/>
+      <c r="AR40" s="286"/>
+      <c r="AS40" s="285"/>
+      <c r="AT40" s="285"/>
+      <c r="AU40" s="285"/>
+      <c r="AV40" s="285"/>
     </row>
     <row r="41" spans="6:48">
-      <c r="F41" s="288"/>
-      <c r="G41" s="289"/>
-      <c r="H41" s="290"/>
-      <c r="Q41" s="291"/>
-      <c r="R41" s="291"/>
-      <c r="S41" s="291"/>
-      <c r="T41" s="291"/>
-      <c r="U41" s="292"/>
-      <c r="V41" s="292"/>
-      <c r="W41" s="292"/>
-      <c r="X41" s="292"/>
-      <c r="Y41" s="291"/>
-      <c r="Z41" s="291"/>
-      <c r="AA41" s="291"/>
-      <c r="AB41" s="291"/>
-      <c r="AC41" s="292"/>
-      <c r="AD41" s="292"/>
-      <c r="AE41" s="292"/>
-      <c r="AF41" s="292"/>
-      <c r="AG41" s="291"/>
-      <c r="AH41" s="291"/>
-      <c r="AI41" s="291"/>
-      <c r="AJ41" s="291"/>
-      <c r="AK41" s="292"/>
-      <c r="AL41" s="292"/>
-      <c r="AM41" s="292"/>
-      <c r="AN41" s="292"/>
-      <c r="AO41" s="291"/>
-      <c r="AP41" s="291"/>
-      <c r="AQ41" s="291"/>
-      <c r="AR41" s="291"/>
-      <c r="AS41" s="292"/>
-      <c r="AT41" s="292"/>
-      <c r="AU41" s="292"/>
-      <c r="AV41" s="292"/>
+      <c r="F41" s="321"/>
+      <c r="G41" s="322"/>
+      <c r="H41" s="323"/>
+      <c r="Q41" s="286"/>
+      <c r="R41" s="286"/>
+      <c r="S41" s="286"/>
+      <c r="T41" s="286"/>
+      <c r="U41" s="285"/>
+      <c r="V41" s="285"/>
+      <c r="W41" s="285"/>
+      <c r="X41" s="285"/>
+      <c r="Y41" s="286"/>
+      <c r="Z41" s="286"/>
+      <c r="AA41" s="286"/>
+      <c r="AB41" s="286"/>
+      <c r="AC41" s="285"/>
+      <c r="AD41" s="285"/>
+      <c r="AE41" s="285"/>
+      <c r="AF41" s="285"/>
+      <c r="AG41" s="286"/>
+      <c r="AH41" s="286"/>
+      <c r="AI41" s="286"/>
+      <c r="AJ41" s="286"/>
+      <c r="AK41" s="285"/>
+      <c r="AL41" s="285"/>
+      <c r="AM41" s="285"/>
+      <c r="AN41" s="285"/>
+      <c r="AO41" s="286"/>
+      <c r="AP41" s="286"/>
+      <c r="AQ41" s="286"/>
+      <c r="AR41" s="286"/>
+      <c r="AS41" s="285"/>
+      <c r="AT41" s="285"/>
+      <c r="AU41" s="285"/>
+      <c r="AV41" s="285"/>
     </row>
     <row r="42" spans="6:48">
-      <c r="Q42" s="291"/>
-      <c r="R42" s="291"/>
-      <c r="S42" s="291"/>
-      <c r="T42" s="291"/>
-      <c r="U42" s="292"/>
-      <c r="V42" s="292"/>
-      <c r="W42" s="292"/>
-      <c r="X42" s="292"/>
-      <c r="Y42" s="291"/>
-      <c r="Z42" s="291"/>
-      <c r="AA42" s="291"/>
-      <c r="AB42" s="291"/>
-      <c r="AC42" s="292"/>
-      <c r="AD42" s="292"/>
-      <c r="AE42" s="292"/>
-      <c r="AF42" s="292"/>
-      <c r="AG42" s="291"/>
-      <c r="AH42" s="291"/>
-      <c r="AI42" s="291"/>
-      <c r="AJ42" s="291"/>
-      <c r="AK42" s="292"/>
-      <c r="AL42" s="292"/>
-      <c r="AM42" s="292"/>
-      <c r="AN42" s="292"/>
-      <c r="AO42" s="291"/>
-      <c r="AP42" s="291"/>
-      <c r="AQ42" s="291"/>
-      <c r="AR42" s="291"/>
-      <c r="AS42" s="292"/>
-      <c r="AT42" s="292"/>
-      <c r="AU42" s="292"/>
-      <c r="AV42" s="292"/>
+      <c r="Q42" s="286"/>
+      <c r="R42" s="286"/>
+      <c r="S42" s="286"/>
+      <c r="T42" s="286"/>
+      <c r="U42" s="285"/>
+      <c r="V42" s="285"/>
+      <c r="W42" s="285"/>
+      <c r="X42" s="285"/>
+      <c r="Y42" s="286"/>
+      <c r="Z42" s="286"/>
+      <c r="AA42" s="286"/>
+      <c r="AB42" s="286"/>
+      <c r="AC42" s="285"/>
+      <c r="AD42" s="285"/>
+      <c r="AE42" s="285"/>
+      <c r="AF42" s="285"/>
+      <c r="AG42" s="286"/>
+      <c r="AH42" s="286"/>
+      <c r="AI42" s="286"/>
+      <c r="AJ42" s="286"/>
+      <c r="AK42" s="285"/>
+      <c r="AL42" s="285"/>
+      <c r="AM42" s="285"/>
+      <c r="AN42" s="285"/>
+      <c r="AO42" s="286"/>
+      <c r="AP42" s="286"/>
+      <c r="AQ42" s="286"/>
+      <c r="AR42" s="286"/>
+      <c r="AS42" s="285"/>
+      <c r="AT42" s="285"/>
+      <c r="AU42" s="285"/>
+      <c r="AV42" s="285"/>
     </row>
     <row r="43" spans="6:48">
-      <c r="Q43" s="291"/>
-      <c r="R43" s="291"/>
-      <c r="S43" s="291"/>
-      <c r="T43" s="291"/>
-      <c r="U43" s="292"/>
-      <c r="V43" s="292"/>
-      <c r="W43" s="292"/>
-      <c r="X43" s="292"/>
-      <c r="Y43" s="291"/>
-      <c r="Z43" s="291"/>
-      <c r="AA43" s="291"/>
-      <c r="AB43" s="291"/>
-      <c r="AC43" s="292"/>
-      <c r="AD43" s="292"/>
-      <c r="AE43" s="292"/>
-      <c r="AF43" s="292"/>
-      <c r="AG43" s="291"/>
-      <c r="AH43" s="291"/>
-      <c r="AI43" s="291"/>
-      <c r="AJ43" s="291"/>
-      <c r="AK43" s="292"/>
-      <c r="AL43" s="292"/>
-      <c r="AM43" s="292"/>
-      <c r="AN43" s="292"/>
-      <c r="AO43" s="291"/>
-      <c r="AP43" s="291"/>
-      <c r="AQ43" s="291"/>
-      <c r="AR43" s="291"/>
-      <c r="AS43" s="292"/>
-      <c r="AT43" s="292"/>
-      <c r="AU43" s="292"/>
-      <c r="AV43" s="292"/>
+      <c r="Q43" s="286"/>
+      <c r="R43" s="286"/>
+      <c r="S43" s="286"/>
+      <c r="T43" s="286"/>
+      <c r="U43" s="285"/>
+      <c r="V43" s="285"/>
+      <c r="W43" s="285"/>
+      <c r="X43" s="285"/>
+      <c r="Y43" s="286"/>
+      <c r="Z43" s="286"/>
+      <c r="AA43" s="286"/>
+      <c r="AB43" s="286"/>
+      <c r="AC43" s="285"/>
+      <c r="AD43" s="285"/>
+      <c r="AE43" s="285"/>
+      <c r="AF43" s="285"/>
+      <c r="AG43" s="286"/>
+      <c r="AH43" s="286"/>
+      <c r="AI43" s="286"/>
+      <c r="AJ43" s="286"/>
+      <c r="AK43" s="285"/>
+      <c r="AL43" s="285"/>
+      <c r="AM43" s="285"/>
+      <c r="AN43" s="285"/>
+      <c r="AO43" s="286"/>
+      <c r="AP43" s="286"/>
+      <c r="AQ43" s="286"/>
+      <c r="AR43" s="286"/>
+      <c r="AS43" s="285"/>
+      <c r="AT43" s="285"/>
+      <c r="AU43" s="285"/>
+      <c r="AV43" s="285"/>
     </row>
     <row r="44" spans="6:48">
-      <c r="Q44" s="291"/>
-      <c r="R44" s="291"/>
-      <c r="S44" s="291"/>
-      <c r="T44" s="291"/>
-      <c r="U44" s="292"/>
-      <c r="V44" s="292"/>
-      <c r="W44" s="292"/>
-      <c r="X44" s="292"/>
-      <c r="Y44" s="291"/>
-      <c r="Z44" s="291"/>
-      <c r="AA44" s="291"/>
-      <c r="AB44" s="291"/>
-      <c r="AC44" s="292"/>
-      <c r="AD44" s="292"/>
-      <c r="AE44" s="292"/>
-      <c r="AF44" s="292"/>
-      <c r="AG44" s="291"/>
-      <c r="AH44" s="291"/>
-      <c r="AI44" s="291"/>
-      <c r="AJ44" s="291"/>
-      <c r="AK44" s="292"/>
-      <c r="AL44" s="292"/>
-      <c r="AM44" s="292"/>
-      <c r="AN44" s="292"/>
-      <c r="AO44" s="291"/>
-      <c r="AP44" s="291"/>
-      <c r="AQ44" s="291"/>
-      <c r="AR44" s="291"/>
-      <c r="AS44" s="292"/>
-      <c r="AT44" s="292"/>
-      <c r="AU44" s="292"/>
-      <c r="AV44" s="292"/>
+      <c r="Q44" s="286"/>
+      <c r="R44" s="286"/>
+      <c r="S44" s="286"/>
+      <c r="T44" s="286"/>
+      <c r="U44" s="285"/>
+      <c r="V44" s="285"/>
+      <c r="W44" s="285"/>
+      <c r="X44" s="285"/>
+      <c r="Y44" s="286"/>
+      <c r="Z44" s="286"/>
+      <c r="AA44" s="286"/>
+      <c r="AB44" s="286"/>
+      <c r="AC44" s="285"/>
+      <c r="AD44" s="285"/>
+      <c r="AE44" s="285"/>
+      <c r="AF44" s="285"/>
+      <c r="AG44" s="286"/>
+      <c r="AH44" s="286"/>
+      <c r="AI44" s="286"/>
+      <c r="AJ44" s="286"/>
+      <c r="AK44" s="285"/>
+      <c r="AL44" s="285"/>
+      <c r="AM44" s="285"/>
+      <c r="AN44" s="285"/>
+      <c r="AO44" s="286"/>
+      <c r="AP44" s="286"/>
+      <c r="AQ44" s="286"/>
+      <c r="AR44" s="286"/>
+      <c r="AS44" s="285"/>
+      <c r="AT44" s="285"/>
+      <c r="AU44" s="285"/>
+      <c r="AV44" s="285"/>
     </row>
     <row r="45" spans="6:48">
-      <c r="Q45" s="291"/>
-      <c r="R45" s="291"/>
-      <c r="S45" s="291"/>
-      <c r="T45" s="291"/>
-      <c r="U45" s="292"/>
-      <c r="V45" s="292"/>
-      <c r="W45" s="292"/>
-      <c r="X45" s="292"/>
-      <c r="Y45" s="291"/>
-      <c r="Z45" s="291"/>
-      <c r="AA45" s="291"/>
-      <c r="AB45" s="291"/>
-      <c r="AC45" s="292"/>
-      <c r="AD45" s="292"/>
-      <c r="AE45" s="292"/>
-      <c r="AF45" s="292"/>
-      <c r="AG45" s="291"/>
-      <c r="AH45" s="291"/>
-      <c r="AI45" s="291"/>
-      <c r="AJ45" s="291"/>
-      <c r="AK45" s="292"/>
-      <c r="AL45" s="292"/>
-      <c r="AM45" s="292"/>
-      <c r="AN45" s="292"/>
-      <c r="AO45" s="291"/>
-      <c r="AP45" s="291"/>
-      <c r="AQ45" s="291"/>
-      <c r="AR45" s="291"/>
-      <c r="AS45" s="292"/>
-      <c r="AT45" s="292"/>
-      <c r="AU45" s="292"/>
-      <c r="AV45" s="292"/>
+      <c r="Q45" s="286"/>
+      <c r="R45" s="286"/>
+      <c r="S45" s="286"/>
+      <c r="T45" s="286"/>
+      <c r="U45" s="285"/>
+      <c r="V45" s="285"/>
+      <c r="W45" s="285"/>
+      <c r="X45" s="285"/>
+      <c r="Y45" s="286"/>
+      <c r="Z45" s="286"/>
+      <c r="AA45" s="286"/>
+      <c r="AB45" s="286"/>
+      <c r="AC45" s="285"/>
+      <c r="AD45" s="285"/>
+      <c r="AE45" s="285"/>
+      <c r="AF45" s="285"/>
+      <c r="AG45" s="286"/>
+      <c r="AH45" s="286"/>
+      <c r="AI45" s="286"/>
+      <c r="AJ45" s="286"/>
+      <c r="AK45" s="285"/>
+      <c r="AL45" s="285"/>
+      <c r="AM45" s="285"/>
+      <c r="AN45" s="285"/>
+      <c r="AO45" s="286"/>
+      <c r="AP45" s="286"/>
+      <c r="AQ45" s="286"/>
+      <c r="AR45" s="286"/>
+      <c r="AS45" s="285"/>
+      <c r="AT45" s="285"/>
+      <c r="AU45" s="285"/>
+      <c r="AV45" s="285"/>
     </row>
     <row r="46" spans="6:48">
-      <c r="Q46" s="291"/>
-      <c r="R46" s="291"/>
-      <c r="S46" s="291"/>
-      <c r="T46" s="291"/>
-      <c r="U46" s="292"/>
-      <c r="V46" s="292"/>
-      <c r="W46" s="292"/>
-      <c r="X46" s="292"/>
-      <c r="Y46" s="291"/>
-      <c r="Z46" s="291"/>
-      <c r="AA46" s="291"/>
-      <c r="AB46" s="291"/>
-      <c r="AC46" s="292"/>
-      <c r="AD46" s="292"/>
-      <c r="AE46" s="292"/>
-      <c r="AF46" s="292"/>
-      <c r="AG46" s="291"/>
-      <c r="AH46" s="291"/>
-      <c r="AI46" s="291"/>
-      <c r="AJ46" s="291"/>
-      <c r="AK46" s="292"/>
-      <c r="AL46" s="292"/>
-      <c r="AM46" s="292"/>
-      <c r="AN46" s="292"/>
-      <c r="AO46" s="291"/>
-      <c r="AP46" s="291"/>
-      <c r="AQ46" s="291"/>
-      <c r="AR46" s="291"/>
-      <c r="AS46" s="292"/>
-      <c r="AT46" s="292"/>
-      <c r="AU46" s="292"/>
-      <c r="AV46" s="292"/>
+      <c r="Q46" s="286"/>
+      <c r="R46" s="286"/>
+      <c r="S46" s="286"/>
+      <c r="T46" s="286"/>
+      <c r="U46" s="285"/>
+      <c r="V46" s="285"/>
+      <c r="W46" s="285"/>
+      <c r="X46" s="285"/>
+      <c r="Y46" s="286"/>
+      <c r="Z46" s="286"/>
+      <c r="AA46" s="286"/>
+      <c r="AB46" s="286"/>
+      <c r="AC46" s="285"/>
+      <c r="AD46" s="285"/>
+      <c r="AE46" s="285"/>
+      <c r="AF46" s="285"/>
+      <c r="AG46" s="286"/>
+      <c r="AH46" s="286"/>
+      <c r="AI46" s="286"/>
+      <c r="AJ46" s="286"/>
+      <c r="AK46" s="285"/>
+      <c r="AL46" s="285"/>
+      <c r="AM46" s="285"/>
+      <c r="AN46" s="285"/>
+      <c r="AO46" s="286"/>
+      <c r="AP46" s="286"/>
+      <c r="AQ46" s="286"/>
+      <c r="AR46" s="286"/>
+      <c r="AS46" s="285"/>
+      <c r="AT46" s="285"/>
+      <c r="AU46" s="285"/>
+      <c r="AV46" s="285"/>
     </row>
     <row r="47" spans="6:48">
-      <c r="Q47" s="291"/>
-      <c r="R47" s="291"/>
-      <c r="S47" s="291"/>
-      <c r="T47" s="291"/>
-      <c r="U47" s="292"/>
-      <c r="V47" s="292"/>
-      <c r="W47" s="292"/>
-      <c r="X47" s="292"/>
-      <c r="Y47" s="291"/>
-      <c r="Z47" s="291"/>
-      <c r="AA47" s="291"/>
-      <c r="AB47" s="291"/>
-      <c r="AC47" s="292"/>
-      <c r="AD47" s="292"/>
-      <c r="AE47" s="292"/>
-      <c r="AF47" s="292"/>
-      <c r="AG47" s="291"/>
-      <c r="AH47" s="291"/>
-      <c r="AI47" s="291"/>
-      <c r="AJ47" s="291"/>
-      <c r="AK47" s="292"/>
-      <c r="AL47" s="292"/>
-      <c r="AM47" s="292"/>
-      <c r="AN47" s="292"/>
-      <c r="AO47" s="291"/>
-      <c r="AP47" s="291"/>
-      <c r="AQ47" s="291"/>
-      <c r="AR47" s="291"/>
-      <c r="AS47" s="292"/>
-      <c r="AT47" s="292"/>
-      <c r="AU47" s="292"/>
-      <c r="AV47" s="292"/>
+      <c r="Q47" s="286"/>
+      <c r="R47" s="286"/>
+      <c r="S47" s="286"/>
+      <c r="T47" s="286"/>
+      <c r="U47" s="285"/>
+      <c r="V47" s="285"/>
+      <c r="W47" s="285"/>
+      <c r="X47" s="285"/>
+      <c r="Y47" s="286"/>
+      <c r="Z47" s="286"/>
+      <c r="AA47" s="286"/>
+      <c r="AB47" s="286"/>
+      <c r="AC47" s="285"/>
+      <c r="AD47" s="285"/>
+      <c r="AE47" s="285"/>
+      <c r="AF47" s="285"/>
+      <c r="AG47" s="286"/>
+      <c r="AH47" s="286"/>
+      <c r="AI47" s="286"/>
+      <c r="AJ47" s="286"/>
+      <c r="AK47" s="285"/>
+      <c r="AL47" s="285"/>
+      <c r="AM47" s="285"/>
+      <c r="AN47" s="285"/>
+      <c r="AO47" s="286"/>
+      <c r="AP47" s="286"/>
+      <c r="AQ47" s="286"/>
+      <c r="AR47" s="286"/>
+      <c r="AS47" s="285"/>
+      <c r="AT47" s="285"/>
+      <c r="AU47" s="285"/>
+      <c r="AV47" s="285"/>
     </row>
     <row r="48" spans="6:48">
-      <c r="Q48" s="291"/>
-      <c r="R48" s="291"/>
-      <c r="S48" s="291"/>
-      <c r="T48" s="291"/>
-      <c r="U48" s="292"/>
-      <c r="V48" s="292"/>
-      <c r="W48" s="292"/>
-      <c r="X48" s="292"/>
-      <c r="Y48" s="291"/>
-      <c r="Z48" s="291"/>
-      <c r="AA48" s="291"/>
-      <c r="AB48" s="291"/>
-      <c r="AC48" s="292"/>
-      <c r="AD48" s="292"/>
-      <c r="AE48" s="292"/>
-      <c r="AF48" s="292"/>
-      <c r="AG48" s="291"/>
-      <c r="AH48" s="291"/>
-      <c r="AI48" s="291"/>
-      <c r="AJ48" s="291"/>
-      <c r="AK48" s="292"/>
-      <c r="AL48" s="292"/>
-      <c r="AM48" s="292"/>
-      <c r="AN48" s="292"/>
-      <c r="AO48" s="291"/>
-      <c r="AP48" s="291"/>
-      <c r="AQ48" s="291"/>
-      <c r="AR48" s="291"/>
-      <c r="AS48" s="292"/>
-      <c r="AT48" s="292"/>
-      <c r="AU48" s="292"/>
-      <c r="AV48" s="292"/>
+      <c r="Q48" s="286"/>
+      <c r="R48" s="286"/>
+      <c r="S48" s="286"/>
+      <c r="T48" s="286"/>
+      <c r="U48" s="285"/>
+      <c r="V48" s="285"/>
+      <c r="W48" s="285"/>
+      <c r="X48" s="285"/>
+      <c r="Y48" s="286"/>
+      <c r="Z48" s="286"/>
+      <c r="AA48" s="286"/>
+      <c r="AB48" s="286"/>
+      <c r="AC48" s="285"/>
+      <c r="AD48" s="285"/>
+      <c r="AE48" s="285"/>
+      <c r="AF48" s="285"/>
+      <c r="AG48" s="286"/>
+      <c r="AH48" s="286"/>
+      <c r="AI48" s="286"/>
+      <c r="AJ48" s="286"/>
+      <c r="AK48" s="285"/>
+      <c r="AL48" s="285"/>
+      <c r="AM48" s="285"/>
+      <c r="AN48" s="285"/>
+      <c r="AO48" s="286"/>
+      <c r="AP48" s="286"/>
+      <c r="AQ48" s="286"/>
+      <c r="AR48" s="286"/>
+      <c r="AS48" s="285"/>
+      <c r="AT48" s="285"/>
+      <c r="AU48" s="285"/>
+      <c r="AV48" s="285"/>
     </row>
     <row r="49" spans="10:48">
-      <c r="Q49" s="291"/>
-      <c r="R49" s="291"/>
-      <c r="S49" s="291"/>
-      <c r="T49" s="291"/>
-      <c r="U49" s="292"/>
-      <c r="V49" s="292"/>
-      <c r="W49" s="292"/>
-      <c r="X49" s="292"/>
-      <c r="Y49" s="291"/>
-      <c r="Z49" s="291"/>
-      <c r="AA49" s="291"/>
-      <c r="AB49" s="291"/>
-      <c r="AC49" s="292"/>
-      <c r="AD49" s="292"/>
-      <c r="AE49" s="292"/>
-      <c r="AF49" s="292"/>
-      <c r="AG49" s="291"/>
-      <c r="AH49" s="291"/>
-      <c r="AI49" s="291"/>
-      <c r="AJ49" s="291"/>
-      <c r="AK49" s="292"/>
-      <c r="AL49" s="292"/>
-      <c r="AM49" s="292"/>
-      <c r="AN49" s="292"/>
-      <c r="AO49" s="291"/>
-      <c r="AP49" s="291"/>
-      <c r="AQ49" s="291"/>
-      <c r="AR49" s="291"/>
-      <c r="AS49" s="292"/>
-      <c r="AT49" s="292"/>
-      <c r="AU49" s="292"/>
-      <c r="AV49" s="292"/>
+      <c r="Q49" s="286"/>
+      <c r="R49" s="286"/>
+      <c r="S49" s="286"/>
+      <c r="T49" s="286"/>
+      <c r="U49" s="285"/>
+      <c r="V49" s="285"/>
+      <c r="W49" s="285"/>
+      <c r="X49" s="285"/>
+      <c r="Y49" s="286"/>
+      <c r="Z49" s="286"/>
+      <c r="AA49" s="286"/>
+      <c r="AB49" s="286"/>
+      <c r="AC49" s="285"/>
+      <c r="AD49" s="285"/>
+      <c r="AE49" s="285"/>
+      <c r="AF49" s="285"/>
+      <c r="AG49" s="286"/>
+      <c r="AH49" s="286"/>
+      <c r="AI49" s="286"/>
+      <c r="AJ49" s="286"/>
+      <c r="AK49" s="285"/>
+      <c r="AL49" s="285"/>
+      <c r="AM49" s="285"/>
+      <c r="AN49" s="285"/>
+      <c r="AO49" s="286"/>
+      <c r="AP49" s="286"/>
+      <c r="AQ49" s="286"/>
+      <c r="AR49" s="286"/>
+      <c r="AS49" s="285"/>
+      <c r="AT49" s="285"/>
+      <c r="AU49" s="285"/>
+      <c r="AV49" s="285"/>
     </row>
     <row r="50" spans="10:48">
-      <c r="Q50" s="291"/>
-      <c r="R50" s="291"/>
-      <c r="S50" s="291"/>
-      <c r="T50" s="291"/>
-      <c r="U50" s="292"/>
-      <c r="V50" s="292"/>
-      <c r="W50" s="292"/>
-      <c r="X50" s="292"/>
-      <c r="Y50" s="291"/>
-      <c r="Z50" s="291"/>
-      <c r="AA50" s="291"/>
-      <c r="AB50" s="291"/>
-      <c r="AC50" s="292"/>
-      <c r="AD50" s="292"/>
-      <c r="AE50" s="292"/>
-      <c r="AF50" s="292"/>
-      <c r="AG50" s="291"/>
-      <c r="AH50" s="291"/>
-      <c r="AI50" s="291"/>
-      <c r="AJ50" s="291"/>
-      <c r="AK50" s="292"/>
-      <c r="AL50" s="292"/>
-      <c r="AM50" s="292"/>
-      <c r="AN50" s="292"/>
-      <c r="AO50" s="291"/>
-      <c r="AP50" s="291"/>
-      <c r="AQ50" s="291"/>
-      <c r="AR50" s="291"/>
-      <c r="AS50" s="292"/>
-      <c r="AT50" s="292"/>
-      <c r="AU50" s="292"/>
-      <c r="AV50" s="292"/>
+      <c r="Q50" s="286"/>
+      <c r="R50" s="286"/>
+      <c r="S50" s="286"/>
+      <c r="T50" s="286"/>
+      <c r="U50" s="285"/>
+      <c r="V50" s="285"/>
+      <c r="W50" s="285"/>
+      <c r="X50" s="285"/>
+      <c r="Y50" s="286"/>
+      <c r="Z50" s="286"/>
+      <c r="AA50" s="286"/>
+      <c r="AB50" s="286"/>
+      <c r="AC50" s="285"/>
+      <c r="AD50" s="285"/>
+      <c r="AE50" s="285"/>
+      <c r="AF50" s="285"/>
+      <c r="AG50" s="286"/>
+      <c r="AH50" s="286"/>
+      <c r="AI50" s="286"/>
+      <c r="AJ50" s="286"/>
+      <c r="AK50" s="285"/>
+      <c r="AL50" s="285"/>
+      <c r="AM50" s="285"/>
+      <c r="AN50" s="285"/>
+      <c r="AO50" s="286"/>
+      <c r="AP50" s="286"/>
+      <c r="AQ50" s="286"/>
+      <c r="AR50" s="286"/>
+      <c r="AS50" s="285"/>
+      <c r="AT50" s="285"/>
+      <c r="AU50" s="285"/>
+      <c r="AV50" s="285"/>
     </row>
     <row r="51" spans="10:48">
-      <c r="Q51" s="291"/>
-      <c r="R51" s="291"/>
-      <c r="S51" s="291"/>
-      <c r="T51" s="291"/>
-      <c r="U51" s="292"/>
-      <c r="V51" s="292"/>
-      <c r="W51" s="292"/>
-      <c r="X51" s="292"/>
-      <c r="Y51" s="291"/>
-      <c r="Z51" s="291"/>
-      <c r="AA51" s="291"/>
-      <c r="AB51" s="291"/>
-      <c r="AC51" s="292"/>
-      <c r="AD51" s="292"/>
-      <c r="AE51" s="292"/>
-      <c r="AF51" s="292"/>
-      <c r="AG51" s="291"/>
-      <c r="AH51" s="291"/>
-      <c r="AI51" s="291"/>
-      <c r="AJ51" s="291"/>
-      <c r="AK51" s="292"/>
-      <c r="AL51" s="292"/>
-      <c r="AM51" s="292"/>
-      <c r="AN51" s="292"/>
-      <c r="AO51" s="291"/>
-      <c r="AP51" s="291"/>
-      <c r="AQ51" s="291"/>
-      <c r="AR51" s="291"/>
-      <c r="AS51" s="292"/>
-      <c r="AT51" s="292"/>
-      <c r="AU51" s="292"/>
-      <c r="AV51" s="292"/>
+      <c r="Q51" s="286"/>
+      <c r="R51" s="286"/>
+      <c r="S51" s="286"/>
+      <c r="T51" s="286"/>
+      <c r="U51" s="285"/>
+      <c r="V51" s="285"/>
+      <c r="W51" s="285"/>
+      <c r="X51" s="285"/>
+      <c r="Y51" s="286"/>
+      <c r="Z51" s="286"/>
+      <c r="AA51" s="286"/>
+      <c r="AB51" s="286"/>
+      <c r="AC51" s="285"/>
+      <c r="AD51" s="285"/>
+      <c r="AE51" s="285"/>
+      <c r="AF51" s="285"/>
+      <c r="AG51" s="286"/>
+      <c r="AH51" s="286"/>
+      <c r="AI51" s="286"/>
+      <c r="AJ51" s="286"/>
+      <c r="AK51" s="285"/>
+      <c r="AL51" s="285"/>
+      <c r="AM51" s="285"/>
+      <c r="AN51" s="285"/>
+      <c r="AO51" s="286"/>
+      <c r="AP51" s="286"/>
+      <c r="AQ51" s="286"/>
+      <c r="AR51" s="286"/>
+      <c r="AS51" s="285"/>
+      <c r="AT51" s="285"/>
+      <c r="AU51" s="285"/>
+      <c r="AV51" s="285"/>
     </row>
     <row r="52" spans="10:48">
-      <c r="Q52" s="291"/>
-      <c r="R52" s="291"/>
-      <c r="S52" s="291"/>
-      <c r="T52" s="291"/>
-      <c r="U52" s="292"/>
-      <c r="V52" s="292"/>
-      <c r="W52" s="292"/>
-      <c r="X52" s="292"/>
-      <c r="Y52" s="291"/>
-      <c r="Z52" s="291"/>
-      <c r="AA52" s="291"/>
-      <c r="AB52" s="291"/>
-      <c r="AC52" s="292"/>
-      <c r="AD52" s="292"/>
-      <c r="AE52" s="292"/>
-      <c r="AF52" s="292"/>
-      <c r="AG52" s="291"/>
-      <c r="AH52" s="291"/>
-      <c r="AI52" s="291"/>
-      <c r="AJ52" s="291"/>
-      <c r="AK52" s="292"/>
-      <c r="AL52" s="292"/>
-      <c r="AM52" s="292"/>
-      <c r="AN52" s="292"/>
-      <c r="AO52" s="291"/>
-      <c r="AP52" s="291"/>
-      <c r="AQ52" s="291"/>
-      <c r="AR52" s="291"/>
-      <c r="AS52" s="292"/>
-      <c r="AT52" s="292"/>
-      <c r="AU52" s="292"/>
-      <c r="AV52" s="292"/>
+      <c r="Q52" s="286"/>
+      <c r="R52" s="286"/>
+      <c r="S52" s="286"/>
+      <c r="T52" s="286"/>
+      <c r="U52" s="285"/>
+      <c r="V52" s="285"/>
+      <c r="W52" s="285"/>
+      <c r="X52" s="285"/>
+      <c r="Y52" s="286"/>
+      <c r="Z52" s="286"/>
+      <c r="AA52" s="286"/>
+      <c r="AB52" s="286"/>
+      <c r="AC52" s="285"/>
+      <c r="AD52" s="285"/>
+      <c r="AE52" s="285"/>
+      <c r="AF52" s="285"/>
+      <c r="AG52" s="286"/>
+      <c r="AH52" s="286"/>
+      <c r="AI52" s="286"/>
+      <c r="AJ52" s="286"/>
+      <c r="AK52" s="285"/>
+      <c r="AL52" s="285"/>
+      <c r="AM52" s="285"/>
+      <c r="AN52" s="285"/>
+      <c r="AO52" s="286"/>
+      <c r="AP52" s="286"/>
+      <c r="AQ52" s="286"/>
+      <c r="AR52" s="286"/>
+      <c r="AS52" s="285"/>
+      <c r="AT52" s="285"/>
+      <c r="AU52" s="285"/>
+      <c r="AV52" s="285"/>
     </row>
     <row r="53" spans="10:48">
-      <c r="Q53" s="291"/>
-      <c r="R53" s="291"/>
-      <c r="S53" s="291"/>
-      <c r="T53" s="291"/>
-      <c r="U53" s="292"/>
-      <c r="V53" s="292"/>
-      <c r="W53" s="292"/>
-      <c r="X53" s="292"/>
-      <c r="Y53" s="291"/>
-      <c r="Z53" s="291"/>
-      <c r="AA53" s="291"/>
-      <c r="AB53" s="291"/>
-      <c r="AC53" s="292"/>
-      <c r="AD53" s="292"/>
-      <c r="AE53" s="292"/>
-      <c r="AF53" s="292"/>
-      <c r="AG53" s="291"/>
-      <c r="AH53" s="291"/>
-      <c r="AI53" s="291"/>
-      <c r="AJ53" s="291"/>
-      <c r="AK53" s="292"/>
-      <c r="AL53" s="292"/>
-      <c r="AM53" s="292"/>
-      <c r="AN53" s="292"/>
-      <c r="AO53" s="291"/>
-      <c r="AP53" s="291"/>
-      <c r="AQ53" s="291"/>
-      <c r="AR53" s="291"/>
-      <c r="AS53" s="292"/>
-      <c r="AT53" s="292"/>
-      <c r="AU53" s="292"/>
-      <c r="AV53" s="292"/>
+      <c r="Q53" s="286"/>
+      <c r="R53" s="286"/>
+      <c r="S53" s="286"/>
+      <c r="T53" s="286"/>
+      <c r="U53" s="285"/>
+      <c r="V53" s="285"/>
+      <c r="W53" s="285"/>
+      <c r="X53" s="285"/>
+      <c r="Y53" s="286"/>
+      <c r="Z53" s="286"/>
+      <c r="AA53" s="286"/>
+      <c r="AB53" s="286"/>
+      <c r="AC53" s="285"/>
+      <c r="AD53" s="285"/>
+      <c r="AE53" s="285"/>
+      <c r="AF53" s="285"/>
+      <c r="AG53" s="286"/>
+      <c r="AH53" s="286"/>
+      <c r="AI53" s="286"/>
+      <c r="AJ53" s="286"/>
+      <c r="AK53" s="285"/>
+      <c r="AL53" s="285"/>
+      <c r="AM53" s="285"/>
+      <c r="AN53" s="285"/>
+      <c r="AO53" s="286"/>
+      <c r="AP53" s="286"/>
+      <c r="AQ53" s="286"/>
+      <c r="AR53" s="286"/>
+      <c r="AS53" s="285"/>
+      <c r="AT53" s="285"/>
+      <c r="AU53" s="285"/>
+      <c r="AV53" s="285"/>
     </row>
     <row r="54" spans="10:48">
-      <c r="Q54" s="291"/>
-      <c r="R54" s="291"/>
-      <c r="S54" s="291"/>
-      <c r="T54" s="291"/>
-      <c r="U54" s="292"/>
-      <c r="V54" s="292"/>
-      <c r="W54" s="292"/>
-      <c r="X54" s="292"/>
-      <c r="Y54" s="291"/>
-      <c r="Z54" s="291"/>
-      <c r="AA54" s="291"/>
-      <c r="AB54" s="291"/>
-      <c r="AC54" s="292"/>
-      <c r="AD54" s="292"/>
-      <c r="AE54" s="292"/>
-      <c r="AF54" s="292"/>
-      <c r="AG54" s="291"/>
-      <c r="AH54" s="291"/>
-      <c r="AI54" s="291"/>
-      <c r="AJ54" s="291"/>
-      <c r="AK54" s="292"/>
-      <c r="AL54" s="292"/>
-      <c r="AM54" s="292"/>
-      <c r="AN54" s="292"/>
-      <c r="AO54" s="291"/>
-      <c r="AP54" s="291"/>
-      <c r="AQ54" s="291"/>
-      <c r="AR54" s="291"/>
-      <c r="AS54" s="292"/>
-      <c r="AT54" s="292"/>
-      <c r="AU54" s="292"/>
-      <c r="AV54" s="292"/>
+      <c r="Q54" s="286"/>
+      <c r="R54" s="286"/>
+      <c r="S54" s="286"/>
+      <c r="T54" s="286"/>
+      <c r="U54" s="285"/>
+      <c r="V54" s="285"/>
+      <c r="W54" s="285"/>
+      <c r="X54" s="285"/>
+      <c r="Y54" s="286"/>
+      <c r="Z54" s="286"/>
+      <c r="AA54" s="286"/>
+      <c r="AB54" s="286"/>
+      <c r="AC54" s="285"/>
+      <c r="AD54" s="285"/>
+      <c r="AE54" s="285"/>
+      <c r="AF54" s="285"/>
+      <c r="AG54" s="286"/>
+      <c r="AH54" s="286"/>
+      <c r="AI54" s="286"/>
+      <c r="AJ54" s="286"/>
+      <c r="AK54" s="285"/>
+      <c r="AL54" s="285"/>
+      <c r="AM54" s="285"/>
+      <c r="AN54" s="285"/>
+      <c r="AO54" s="286"/>
+      <c r="AP54" s="286"/>
+      <c r="AQ54" s="286"/>
+      <c r="AR54" s="286"/>
+      <c r="AS54" s="285"/>
+      <c r="AT54" s="285"/>
+      <c r="AU54" s="285"/>
+      <c r="AV54" s="285"/>
     </row>
     <row r="55" spans="10:48">
-      <c r="Q55" s="291"/>
-      <c r="R55" s="291"/>
-      <c r="S55" s="291"/>
-      <c r="T55" s="291"/>
-      <c r="U55" s="292"/>
-      <c r="V55" s="292"/>
-      <c r="W55" s="292"/>
-      <c r="X55" s="292"/>
-      <c r="Y55" s="291"/>
-      <c r="Z55" s="291"/>
-      <c r="AA55" s="291"/>
-      <c r="AB55" s="291"/>
-      <c r="AC55" s="292"/>
-      <c r="AD55" s="292"/>
-      <c r="AE55" s="292"/>
-      <c r="AF55" s="292"/>
-      <c r="AG55" s="291"/>
-      <c r="AH55" s="291"/>
-      <c r="AI55" s="291"/>
-      <c r="AJ55" s="291"/>
-      <c r="AK55" s="292"/>
-      <c r="AL55" s="292"/>
-      <c r="AM55" s="292"/>
-      <c r="AN55" s="292"/>
-      <c r="AO55" s="291"/>
-      <c r="AP55" s="291"/>
-      <c r="AQ55" s="291"/>
-      <c r="AR55" s="291"/>
-      <c r="AS55" s="292"/>
-      <c r="AT55" s="292"/>
-      <c r="AU55" s="292"/>
-      <c r="AV55" s="292"/>
+      <c r="Q55" s="286"/>
+      <c r="R55" s="286"/>
+      <c r="S55" s="286"/>
+      <c r="T55" s="286"/>
+      <c r="U55" s="285"/>
+      <c r="V55" s="285"/>
+      <c r="W55" s="285"/>
+      <c r="X55" s="285"/>
+      <c r="Y55" s="286"/>
+      <c r="Z55" s="286"/>
+      <c r="AA55" s="286"/>
+      <c r="AB55" s="286"/>
+      <c r="AC55" s="285"/>
+      <c r="AD55" s="285"/>
+      <c r="AE55" s="285"/>
+      <c r="AF55" s="285"/>
+      <c r="AG55" s="286"/>
+      <c r="AH55" s="286"/>
+      <c r="AI55" s="286"/>
+      <c r="AJ55" s="286"/>
+      <c r="AK55" s="285"/>
+      <c r="AL55" s="285"/>
+      <c r="AM55" s="285"/>
+      <c r="AN55" s="285"/>
+      <c r="AO55" s="286"/>
+      <c r="AP55" s="286"/>
+      <c r="AQ55" s="286"/>
+      <c r="AR55" s="286"/>
+      <c r="AS55" s="285"/>
+      <c r="AT55" s="285"/>
+      <c r="AU55" s="285"/>
+      <c r="AV55" s="285"/>
     </row>
     <row r="56" spans="10:48">
-      <c r="Q56" s="291"/>
-      <c r="R56" s="291"/>
-      <c r="S56" s="291"/>
-      <c r="T56" s="291"/>
-      <c r="U56" s="292"/>
-      <c r="V56" s="292"/>
-      <c r="W56" s="292"/>
-      <c r="X56" s="292"/>
-      <c r="Y56" s="291"/>
-      <c r="Z56" s="291"/>
-      <c r="AA56" s="291"/>
-      <c r="AB56" s="291"/>
-      <c r="AC56" s="292"/>
-      <c r="AD56" s="292"/>
-      <c r="AE56" s="292"/>
-      <c r="AF56" s="292"/>
-      <c r="AG56" s="291"/>
-      <c r="AH56" s="291"/>
-      <c r="AI56" s="291"/>
-      <c r="AJ56" s="291"/>
-      <c r="AK56" s="292"/>
-      <c r="AL56" s="292"/>
-      <c r="AM56" s="292"/>
-      <c r="AN56" s="292"/>
-      <c r="AO56" s="291"/>
-      <c r="AP56" s="291"/>
-      <c r="AQ56" s="291"/>
-      <c r="AR56" s="291"/>
-      <c r="AS56" s="292"/>
-      <c r="AT56" s="292"/>
-      <c r="AU56" s="292"/>
-      <c r="AV56" s="292"/>
+      <c r="Q56" s="286"/>
+      <c r="R56" s="286"/>
+      <c r="S56" s="286"/>
+      <c r="T56" s="286"/>
+      <c r="U56" s="285"/>
+      <c r="V56" s="285"/>
+      <c r="W56" s="285"/>
+      <c r="X56" s="285"/>
+      <c r="Y56" s="286"/>
+      <c r="Z56" s="286"/>
+      <c r="AA56" s="286"/>
+      <c r="AB56" s="286"/>
+      <c r="AC56" s="285"/>
+      <c r="AD56" s="285"/>
+      <c r="AE56" s="285"/>
+      <c r="AF56" s="285"/>
+      <c r="AG56" s="286"/>
+      <c r="AH56" s="286"/>
+      <c r="AI56" s="286"/>
+      <c r="AJ56" s="286"/>
+      <c r="AK56" s="285"/>
+      <c r="AL56" s="285"/>
+      <c r="AM56" s="285"/>
+      <c r="AN56" s="285"/>
+      <c r="AO56" s="286"/>
+      <c r="AP56" s="286"/>
+      <c r="AQ56" s="286"/>
+      <c r="AR56" s="286"/>
+      <c r="AS56" s="285"/>
+      <c r="AT56" s="285"/>
+      <c r="AU56" s="285"/>
+      <c r="AV56" s="285"/>
     </row>
     <row r="57" spans="10:48">
-      <c r="Q57" s="291"/>
-      <c r="R57" s="291"/>
-      <c r="S57" s="291"/>
-      <c r="T57" s="291"/>
-      <c r="U57" s="292"/>
-      <c r="V57" s="292"/>
-      <c r="W57" s="292"/>
-      <c r="X57" s="292"/>
-      <c r="Y57" s="291"/>
-      <c r="Z57" s="291"/>
-      <c r="AA57" s="291"/>
-      <c r="AB57" s="291"/>
-      <c r="AC57" s="292"/>
-      <c r="AD57" s="292"/>
-      <c r="AE57" s="292"/>
-      <c r="AF57" s="292"/>
-      <c r="AG57" s="291"/>
-      <c r="AH57" s="291"/>
-      <c r="AI57" s="291"/>
-      <c r="AJ57" s="291"/>
-      <c r="AK57" s="292"/>
-      <c r="AL57" s="292"/>
-      <c r="AM57" s="292"/>
-      <c r="AN57" s="292"/>
-      <c r="AO57" s="291"/>
-      <c r="AP57" s="291"/>
-      <c r="AQ57" s="291"/>
-      <c r="AR57" s="291"/>
-      <c r="AS57" s="292"/>
-      <c r="AT57" s="292"/>
-      <c r="AU57" s="292"/>
-      <c r="AV57" s="292"/>
+      <c r="Q57" s="286"/>
+      <c r="R57" s="286"/>
+      <c r="S57" s="286"/>
+      <c r="T57" s="286"/>
+      <c r="U57" s="285"/>
+      <c r="V57" s="285"/>
+      <c r="W57" s="285"/>
+      <c r="X57" s="285"/>
+      <c r="Y57" s="286"/>
+      <c r="Z57" s="286"/>
+      <c r="AA57" s="286"/>
+      <c r="AB57" s="286"/>
+      <c r="AC57" s="285"/>
+      <c r="AD57" s="285"/>
+      <c r="AE57" s="285"/>
+      <c r="AF57" s="285"/>
+      <c r="AG57" s="286"/>
+      <c r="AH57" s="286"/>
+      <c r="AI57" s="286"/>
+      <c r="AJ57" s="286"/>
+      <c r="AK57" s="285"/>
+      <c r="AL57" s="285"/>
+      <c r="AM57" s="285"/>
+      <c r="AN57" s="285"/>
+      <c r="AO57" s="286"/>
+      <c r="AP57" s="286"/>
+      <c r="AQ57" s="286"/>
+      <c r="AR57" s="286"/>
+      <c r="AS57" s="285"/>
+      <c r="AT57" s="285"/>
+      <c r="AU57" s="285"/>
+      <c r="AV57" s="285"/>
     </row>
     <row r="59" spans="10:48">
       <c r="J59" t="s">
@@ -21030,172 +21541,172 @@
       </c>
     </row>
     <row r="64" spans="10:48">
-      <c r="Q64" s="291" t="s">
+      <c r="Q64" s="286" t="s">
         <v>267</v>
       </c>
-      <c r="R64" s="291"/>
+      <c r="R64" s="286"/>
     </row>
     <row r="65" spans="17:20">
-      <c r="Q65" s="291"/>
-      <c r="R65" s="291"/>
+      <c r="Q65" s="286"/>
+      <c r="R65" s="286"/>
       <c r="T65" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="66" spans="17:20">
-      <c r="Q66" s="291"/>
-      <c r="R66" s="291"/>
+      <c r="Q66" s="286"/>
+      <c r="R66" s="286"/>
     </row>
     <row r="67" spans="17:20">
-      <c r="Q67" s="291"/>
-      <c r="R67" s="291"/>
+      <c r="Q67" s="286"/>
+      <c r="R67" s="286"/>
     </row>
     <row r="68" spans="17:20">
-      <c r="Q68" s="292" t="s">
+      <c r="Q68" s="285" t="s">
         <v>268</v>
       </c>
-      <c r="R68" s="292"/>
+      <c r="R68" s="285"/>
     </row>
     <row r="69" spans="17:20">
-      <c r="Q69" s="292"/>
-      <c r="R69" s="292"/>
+      <c r="Q69" s="285"/>
+      <c r="R69" s="285"/>
       <c r="T69" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="70" spans="17:20">
-      <c r="Q70" s="292"/>
-      <c r="R70" s="292"/>
+      <c r="Q70" s="285"/>
+      <c r="R70" s="285"/>
     </row>
     <row r="71" spans="17:20">
-      <c r="Q71" s="292"/>
-      <c r="R71" s="292"/>
+      <c r="Q71" s="285"/>
+      <c r="R71" s="285"/>
     </row>
     <row r="72" spans="17:20">
-      <c r="Q72" s="291" t="s">
+      <c r="Q72" s="286" t="s">
         <v>269</v>
       </c>
-      <c r="R72" s="291"/>
+      <c r="R72" s="286"/>
     </row>
     <row r="73" spans="17:20">
-      <c r="Q73" s="291"/>
-      <c r="R73" s="291"/>
+      <c r="Q73" s="286"/>
+      <c r="R73" s="286"/>
       <c r="T73" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="74" spans="17:20">
-      <c r="Q74" s="291"/>
-      <c r="R74" s="291"/>
+      <c r="Q74" s="286"/>
+      <c r="R74" s="286"/>
     </row>
     <row r="75" spans="17:20">
-      <c r="Q75" s="291"/>
-      <c r="R75" s="291"/>
+      <c r="Q75" s="286"/>
+      <c r="R75" s="286"/>
     </row>
     <row r="76" spans="17:20">
-      <c r="Q76" s="292" t="s">
+      <c r="Q76" s="285" t="s">
         <v>270</v>
       </c>
-      <c r="R76" s="292"/>
+      <c r="R76" s="285"/>
     </row>
     <row r="77" spans="17:20">
-      <c r="Q77" s="292"/>
-      <c r="R77" s="292"/>
+      <c r="Q77" s="285"/>
+      <c r="R77" s="285"/>
       <c r="T77" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="78" spans="17:20">
-      <c r="Q78" s="292"/>
-      <c r="R78" s="292"/>
+      <c r="Q78" s="285"/>
+      <c r="R78" s="285"/>
     </row>
     <row r="79" spans="17:20">
-      <c r="Q79" s="292"/>
-      <c r="R79" s="292"/>
+      <c r="Q79" s="285"/>
+      <c r="R79" s="285"/>
     </row>
     <row r="80" spans="17:20">
-      <c r="Q80" s="291" t="s">
+      <c r="Q80" s="286" t="s">
         <v>271</v>
       </c>
-      <c r="R80" s="291"/>
+      <c r="R80" s="286"/>
     </row>
     <row r="81" spans="17:20">
-      <c r="Q81" s="291"/>
-      <c r="R81" s="291"/>
+      <c r="Q81" s="286"/>
+      <c r="R81" s="286"/>
       <c r="T81" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="82" spans="17:20">
-      <c r="Q82" s="291"/>
-      <c r="R82" s="291"/>
+      <c r="Q82" s="286"/>
+      <c r="R82" s="286"/>
     </row>
     <row r="83" spans="17:20">
-      <c r="Q83" s="291"/>
-      <c r="R83" s="291"/>
+      <c r="Q83" s="286"/>
+      <c r="R83" s="286"/>
     </row>
     <row r="84" spans="17:20">
-      <c r="Q84" s="292" t="s">
+      <c r="Q84" s="285" t="s">
         <v>272</v>
       </c>
-      <c r="R84" s="292"/>
+      <c r="R84" s="285"/>
     </row>
     <row r="85" spans="17:20">
-      <c r="Q85" s="292"/>
-      <c r="R85" s="292"/>
+      <c r="Q85" s="285"/>
+      <c r="R85" s="285"/>
       <c r="T85" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="86" spans="17:20">
-      <c r="Q86" s="292"/>
-      <c r="R86" s="292"/>
+      <c r="Q86" s="285"/>
+      <c r="R86" s="285"/>
     </row>
     <row r="87" spans="17:20">
-      <c r="Q87" s="292"/>
-      <c r="R87" s="292"/>
+      <c r="Q87" s="285"/>
+      <c r="R87" s="285"/>
     </row>
     <row r="88" spans="17:20">
-      <c r="Q88" s="291" t="s">
+      <c r="Q88" s="286" t="s">
         <v>273</v>
       </c>
-      <c r="R88" s="291"/>
+      <c r="R88" s="286"/>
     </row>
     <row r="89" spans="17:20">
-      <c r="Q89" s="291"/>
-      <c r="R89" s="291"/>
+      <c r="Q89" s="286"/>
+      <c r="R89" s="286"/>
       <c r="T89" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="90" spans="17:20">
-      <c r="Q90" s="291"/>
-      <c r="R90" s="291"/>
+      <c r="Q90" s="286"/>
+      <c r="R90" s="286"/>
     </row>
     <row r="91" spans="17:20">
-      <c r="Q91" s="291"/>
-      <c r="R91" s="291"/>
+      <c r="Q91" s="286"/>
+      <c r="R91" s="286"/>
     </row>
     <row r="92" spans="17:20">
-      <c r="Q92" s="292" t="s">
+      <c r="Q92" s="285" t="s">
         <v>274</v>
       </c>
-      <c r="R92" s="292"/>
+      <c r="R92" s="285"/>
     </row>
     <row r="93" spans="17:20">
-      <c r="Q93" s="292"/>
-      <c r="R93" s="292"/>
+      <c r="Q93" s="285"/>
+      <c r="R93" s="285"/>
       <c r="T93" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="94" spans="17:20">
-      <c r="Q94" s="292"/>
-      <c r="R94" s="292"/>
+      <c r="Q94" s="285"/>
+      <c r="R94" s="285"/>
     </row>
     <row r="95" spans="17:20">
-      <c r="Q95" s="292"/>
-      <c r="R95" s="292"/>
+      <c r="Q95" s="285"/>
+      <c r="R95" s="285"/>
     </row>
     <row r="98" spans="11:43">
       <c r="K98" t="s">
@@ -22552,54 +23063,54 @@
       <c r="Q143" s="150"/>
       <c r="R143" s="150"/>
       <c r="S143" s="151"/>
-      <c r="U143" s="229" t="s">
+      <c r="U143" s="222" t="s">
         <v>425</v>
       </c>
-      <c r="V143" s="230"/>
-      <c r="W143" s="230"/>
-      <c r="X143" s="230"/>
-      <c r="Y143" s="230"/>
-      <c r="Z143" s="230"/>
-      <c r="AA143" s="230"/>
-      <c r="AB143" s="230"/>
-      <c r="AC143" s="230"/>
-      <c r="AD143" s="231"/>
-      <c r="AF143" s="229" t="s">
+      <c r="V143" s="223"/>
+      <c r="W143" s="223"/>
+      <c r="X143" s="223"/>
+      <c r="Y143" s="223"/>
+      <c r="Z143" s="223"/>
+      <c r="AA143" s="223"/>
+      <c r="AB143" s="223"/>
+      <c r="AC143" s="223"/>
+      <c r="AD143" s="224"/>
+      <c r="AF143" s="222" t="s">
         <v>425</v>
       </c>
-      <c r="AG143" s="230"/>
-      <c r="AH143" s="230"/>
-      <c r="AI143" s="230"/>
-      <c r="AJ143" s="230"/>
-      <c r="AK143" s="230"/>
-      <c r="AL143" s="230"/>
-      <c r="AM143" s="230"/>
-      <c r="AN143" s="230"/>
-      <c r="AO143" s="231"/>
-      <c r="AQ143" s="229" t="s">
+      <c r="AG143" s="223"/>
+      <c r="AH143" s="223"/>
+      <c r="AI143" s="223"/>
+      <c r="AJ143" s="223"/>
+      <c r="AK143" s="223"/>
+      <c r="AL143" s="223"/>
+      <c r="AM143" s="223"/>
+      <c r="AN143" s="223"/>
+      <c r="AO143" s="224"/>
+      <c r="AQ143" s="222" t="s">
         <v>425</v>
       </c>
-      <c r="AR143" s="230"/>
-      <c r="AS143" s="230"/>
-      <c r="AT143" s="230"/>
-      <c r="AU143" s="230"/>
-      <c r="AV143" s="230"/>
-      <c r="AW143" s="230"/>
-      <c r="AX143" s="230"/>
-      <c r="AY143" s="230"/>
-      <c r="AZ143" s="231"/>
-      <c r="BB143" s="229" t="s">
+      <c r="AR143" s="223"/>
+      <c r="AS143" s="223"/>
+      <c r="AT143" s="223"/>
+      <c r="AU143" s="223"/>
+      <c r="AV143" s="223"/>
+      <c r="AW143" s="223"/>
+      <c r="AX143" s="223"/>
+      <c r="AY143" s="223"/>
+      <c r="AZ143" s="224"/>
+      <c r="BB143" s="222" t="s">
         <v>425</v>
       </c>
-      <c r="BC143" s="230"/>
-      <c r="BD143" s="230"/>
-      <c r="BE143" s="230"/>
-      <c r="BF143" s="230"/>
-      <c r="BG143" s="230"/>
-      <c r="BH143" s="230"/>
-      <c r="BI143" s="230"/>
-      <c r="BJ143" s="230"/>
-      <c r="BK143" s="231"/>
+      <c r="BC143" s="223"/>
+      <c r="BD143" s="223"/>
+      <c r="BE143" s="223"/>
+      <c r="BF143" s="223"/>
+      <c r="BG143" s="223"/>
+      <c r="BH143" s="223"/>
+      <c r="BI143" s="223"/>
+      <c r="BJ143" s="223"/>
+      <c r="BK143" s="224"/>
     </row>
     <row r="144" spans="7:63">
       <c r="J144" s="152"/>
@@ -22612,7 +23123,7 @@
       <c r="Q144" s="86"/>
       <c r="R144" s="86"/>
       <c r="S144" s="153"/>
-      <c r="U144" s="270"/>
+      <c r="U144" s="255"/>
       <c r="V144" s="280"/>
       <c r="W144" s="280"/>
       <c r="X144" s="280"/>
@@ -22622,7 +23133,7 @@
       <c r="AB144" s="280"/>
       <c r="AC144" s="280"/>
       <c r="AD144" s="281"/>
-      <c r="AF144" s="270"/>
+      <c r="AF144" s="255"/>
       <c r="AG144" s="280"/>
       <c r="AH144" s="280"/>
       <c r="AI144" s="280"/>
@@ -22632,7 +23143,7 @@
       <c r="AM144" s="280"/>
       <c r="AN144" s="280"/>
       <c r="AO144" s="281"/>
-      <c r="AQ144" s="270"/>
+      <c r="AQ144" s="255"/>
       <c r="AR144" s="280"/>
       <c r="AS144" s="280"/>
       <c r="AT144" s="280"/>
@@ -22642,7 +23153,7 @@
       <c r="AX144" s="280"/>
       <c r="AY144" s="280"/>
       <c r="AZ144" s="281"/>
-      <c r="BB144" s="270"/>
+      <c r="BB144" s="255"/>
       <c r="BC144" s="280"/>
       <c r="BD144" s="280"/>
       <c r="BE144" s="280"/>
@@ -22664,7 +23175,7 @@
       <c r="Q145" s="86"/>
       <c r="R145" s="86"/>
       <c r="S145" s="153"/>
-      <c r="U145" s="270"/>
+      <c r="U145" s="255"/>
       <c r="V145" s="280"/>
       <c r="W145" s="280"/>
       <c r="X145" s="280"/>
@@ -22674,7 +23185,7 @@
       <c r="AB145" s="280"/>
       <c r="AC145" s="280"/>
       <c r="AD145" s="281"/>
-      <c r="AF145" s="270"/>
+      <c r="AF145" s="255"/>
       <c r="AG145" s="280"/>
       <c r="AH145" s="280"/>
       <c r="AI145" s="280"/>
@@ -22684,7 +23195,7 @@
       <c r="AM145" s="280"/>
       <c r="AN145" s="280"/>
       <c r="AO145" s="281"/>
-      <c r="AQ145" s="270"/>
+      <c r="AQ145" s="255"/>
       <c r="AR145" s="280"/>
       <c r="AS145" s="280"/>
       <c r="AT145" s="280"/>
@@ -22694,7 +23205,7 @@
       <c r="AX145" s="280"/>
       <c r="AY145" s="280"/>
       <c r="AZ145" s="281"/>
-      <c r="BB145" s="270"/>
+      <c r="BB145" s="255"/>
       <c r="BC145" s="280"/>
       <c r="BD145" s="280"/>
       <c r="BE145" s="280"/>
@@ -22716,7 +23227,7 @@
       <c r="Q146" s="86"/>
       <c r="R146" s="86"/>
       <c r="S146" s="153"/>
-      <c r="U146" s="270"/>
+      <c r="U146" s="255"/>
       <c r="V146" s="280"/>
       <c r="W146" s="280"/>
       <c r="X146" s="280"/>
@@ -22726,7 +23237,7 @@
       <c r="AB146" s="280"/>
       <c r="AC146" s="280"/>
       <c r="AD146" s="281"/>
-      <c r="AF146" s="270"/>
+      <c r="AF146" s="255"/>
       <c r="AG146" s="280"/>
       <c r="AH146" s="280"/>
       <c r="AI146" s="280"/>
@@ -22736,7 +23247,7 @@
       <c r="AM146" s="280"/>
       <c r="AN146" s="280"/>
       <c r="AO146" s="281"/>
-      <c r="AQ146" s="270"/>
+      <c r="AQ146" s="255"/>
       <c r="AR146" s="280"/>
       <c r="AS146" s="280"/>
       <c r="AT146" s="280"/>
@@ -22746,7 +23257,7 @@
       <c r="AX146" s="280"/>
       <c r="AY146" s="280"/>
       <c r="AZ146" s="281"/>
-      <c r="BB146" s="270"/>
+      <c r="BB146" s="255"/>
       <c r="BC146" s="280"/>
       <c r="BD146" s="280"/>
       <c r="BE146" s="280"/>
@@ -22768,7 +23279,7 @@
       <c r="Q147" s="86"/>
       <c r="R147" s="86"/>
       <c r="S147" s="153"/>
-      <c r="U147" s="270"/>
+      <c r="U147" s="255"/>
       <c r="V147" s="280"/>
       <c r="W147" s="280"/>
       <c r="X147" s="280"/>
@@ -22778,7 +23289,7 @@
       <c r="AB147" s="280"/>
       <c r="AC147" s="280"/>
       <c r="AD147" s="281"/>
-      <c r="AF147" s="270"/>
+      <c r="AF147" s="255"/>
       <c r="AG147" s="280"/>
       <c r="AH147" s="280"/>
       <c r="AI147" s="280"/>
@@ -22788,7 +23299,7 @@
       <c r="AM147" s="280"/>
       <c r="AN147" s="280"/>
       <c r="AO147" s="281"/>
-      <c r="AQ147" s="270"/>
+      <c r="AQ147" s="255"/>
       <c r="AR147" s="280"/>
       <c r="AS147" s="280"/>
       <c r="AT147" s="280"/>
@@ -22798,7 +23309,7 @@
       <c r="AX147" s="280"/>
       <c r="AY147" s="280"/>
       <c r="AZ147" s="281"/>
-      <c r="BB147" s="270"/>
+      <c r="BB147" s="255"/>
       <c r="BC147" s="280"/>
       <c r="BD147" s="280"/>
       <c r="BE147" s="280"/>
@@ -22820,7 +23331,7 @@
       <c r="Q148" s="86"/>
       <c r="R148" s="86"/>
       <c r="S148" s="153"/>
-      <c r="U148" s="270"/>
+      <c r="U148" s="255"/>
       <c r="V148" s="280"/>
       <c r="W148" s="280"/>
       <c r="X148" s="280"/>
@@ -22830,7 +23341,7 @@
       <c r="AB148" s="280"/>
       <c r="AC148" s="280"/>
       <c r="AD148" s="281"/>
-      <c r="AF148" s="270"/>
+      <c r="AF148" s="255"/>
       <c r="AG148" s="280"/>
       <c r="AH148" s="280"/>
       <c r="AI148" s="280"/>
@@ -22840,7 +23351,7 @@
       <c r="AM148" s="280"/>
       <c r="AN148" s="280"/>
       <c r="AO148" s="281"/>
-      <c r="AQ148" s="270"/>
+      <c r="AQ148" s="255"/>
       <c r="AR148" s="280"/>
       <c r="AS148" s="280"/>
       <c r="AT148" s="280"/>
@@ -22850,7 +23361,7 @@
       <c r="AX148" s="280"/>
       <c r="AY148" s="280"/>
       <c r="AZ148" s="281"/>
-      <c r="BB148" s="270"/>
+      <c r="BB148" s="255"/>
       <c r="BC148" s="280"/>
       <c r="BD148" s="280"/>
       <c r="BE148" s="280"/>
@@ -22872,7 +23383,7 @@
       <c r="Q149" s="86"/>
       <c r="R149" s="86"/>
       <c r="S149" s="153"/>
-      <c r="U149" s="270"/>
+      <c r="U149" s="255"/>
       <c r="V149" s="280"/>
       <c r="W149" s="280"/>
       <c r="X149" s="280"/>
@@ -22882,7 +23393,7 @@
       <c r="AB149" s="280"/>
       <c r="AC149" s="280"/>
       <c r="AD149" s="281"/>
-      <c r="AF149" s="270"/>
+      <c r="AF149" s="255"/>
       <c r="AG149" s="280"/>
       <c r="AH149" s="280"/>
       <c r="AI149" s="280"/>
@@ -22892,7 +23403,7 @@
       <c r="AM149" s="280"/>
       <c r="AN149" s="280"/>
       <c r="AO149" s="281"/>
-      <c r="AQ149" s="270"/>
+      <c r="AQ149" s="255"/>
       <c r="AR149" s="280"/>
       <c r="AS149" s="280"/>
       <c r="AT149" s="280"/>
@@ -22902,7 +23413,7 @@
       <c r="AX149" s="280"/>
       <c r="AY149" s="280"/>
       <c r="AZ149" s="281"/>
-      <c r="BB149" s="270"/>
+      <c r="BB149" s="255"/>
       <c r="BC149" s="280"/>
       <c r="BD149" s="280"/>
       <c r="BE149" s="280"/>
@@ -22926,7 +23437,7 @@
       <c r="Q150" s="86"/>
       <c r="R150" s="86"/>
       <c r="S150" s="153"/>
-      <c r="U150" s="270"/>
+      <c r="U150" s="255"/>
       <c r="V150" s="280"/>
       <c r="W150" s="280"/>
       <c r="X150" s="280"/>
@@ -22936,7 +23447,7 @@
       <c r="AB150" s="280"/>
       <c r="AC150" s="280"/>
       <c r="AD150" s="281"/>
-      <c r="AF150" s="270"/>
+      <c r="AF150" s="255"/>
       <c r="AG150" s="280"/>
       <c r="AH150" s="280"/>
       <c r="AI150" s="280"/>
@@ -22946,7 +23457,7 @@
       <c r="AM150" s="280"/>
       <c r="AN150" s="280"/>
       <c r="AO150" s="281"/>
-      <c r="AQ150" s="270"/>
+      <c r="AQ150" s="255"/>
       <c r="AR150" s="280"/>
       <c r="AS150" s="280"/>
       <c r="AT150" s="280"/>
@@ -22956,7 +23467,7 @@
       <c r="AX150" s="280"/>
       <c r="AY150" s="280"/>
       <c r="AZ150" s="281"/>
-      <c r="BB150" s="270"/>
+      <c r="BB150" s="255"/>
       <c r="BC150" s="280"/>
       <c r="BD150" s="280"/>
       <c r="BE150" s="280"/>
@@ -22979,7 +23490,7 @@
       <c r="Q151" s="86"/>
       <c r="R151" s="86"/>
       <c r="S151" s="153"/>
-      <c r="U151" s="270"/>
+      <c r="U151" s="255"/>
       <c r="V151" s="280"/>
       <c r="W151" s="280"/>
       <c r="X151" s="280"/>
@@ -22989,7 +23500,7 @@
       <c r="AB151" s="280"/>
       <c r="AC151" s="280"/>
       <c r="AD151" s="281"/>
-      <c r="AF151" s="270"/>
+      <c r="AF151" s="255"/>
       <c r="AG151" s="280"/>
       <c r="AH151" s="280"/>
       <c r="AI151" s="280"/>
@@ -22999,7 +23510,7 @@
       <c r="AM151" s="280"/>
       <c r="AN151" s="280"/>
       <c r="AO151" s="281"/>
-      <c r="AQ151" s="270"/>
+      <c r="AQ151" s="255"/>
       <c r="AR151" s="280"/>
       <c r="AS151" s="280"/>
       <c r="AT151" s="280"/>
@@ -23009,7 +23520,7 @@
       <c r="AX151" s="280"/>
       <c r="AY151" s="280"/>
       <c r="AZ151" s="281"/>
-      <c r="BB151" s="270"/>
+      <c r="BB151" s="255"/>
       <c r="BC151" s="280"/>
       <c r="BD151" s="280"/>
       <c r="BE151" s="280"/>
@@ -23031,7 +23542,7 @@
       <c r="Q152" s="155"/>
       <c r="R152" s="155"/>
       <c r="S152" s="156"/>
-      <c r="U152" s="269"/>
+      <c r="U152" s="254"/>
       <c r="V152" s="282"/>
       <c r="W152" s="282"/>
       <c r="X152" s="282"/>
@@ -23041,7 +23552,7 @@
       <c r="AB152" s="282"/>
       <c r="AC152" s="282"/>
       <c r="AD152" s="283"/>
-      <c r="AF152" s="269"/>
+      <c r="AF152" s="254"/>
       <c r="AG152" s="282"/>
       <c r="AH152" s="282"/>
       <c r="AI152" s="282"/>
@@ -23051,7 +23562,7 @@
       <c r="AM152" s="282"/>
       <c r="AN152" s="282"/>
       <c r="AO152" s="283"/>
-      <c r="AQ152" s="269"/>
+      <c r="AQ152" s="254"/>
       <c r="AR152" s="282"/>
       <c r="AS152" s="282"/>
       <c r="AT152" s="282"/>
@@ -23061,7 +23572,7 @@
       <c r="AX152" s="282"/>
       <c r="AY152" s="282"/>
       <c r="AZ152" s="283"/>
-      <c r="BB152" s="269"/>
+      <c r="BB152" s="254"/>
       <c r="BC152" s="282"/>
       <c r="BD152" s="282"/>
       <c r="BE152" s="282"/>
@@ -23137,64 +23648,64 @@
     </row>
     <row r="159" spans="6:65" ht="17.25" thickBot="1"/>
     <row r="160" spans="6:65">
-      <c r="L160" s="229" t="s">
+      <c r="L160" s="222" t="s">
         <v>427</v>
       </c>
-      <c r="M160" s="230"/>
-      <c r="N160" s="231"/>
-      <c r="Q160" s="229"/>
-      <c r="R160" s="230"/>
-      <c r="S160" s="231"/>
-      <c r="V160" s="229"/>
-      <c r="W160" s="230"/>
-      <c r="X160" s="231"/>
-      <c r="Z160" s="229"/>
-      <c r="AA160" s="230"/>
-      <c r="AB160" s="231"/>
-      <c r="AD160" s="229"/>
-      <c r="AE160" s="230"/>
-      <c r="AF160" s="231"/>
-      <c r="AH160" s="229"/>
-      <c r="AI160" s="230"/>
-      <c r="AJ160" s="231"/>
+      <c r="M160" s="223"/>
+      <c r="N160" s="224"/>
+      <c r="Q160" s="222"/>
+      <c r="R160" s="223"/>
+      <c r="S160" s="224"/>
+      <c r="V160" s="222"/>
+      <c r="W160" s="223"/>
+      <c r="X160" s="224"/>
+      <c r="Z160" s="222"/>
+      <c r="AA160" s="223"/>
+      <c r="AB160" s="224"/>
+      <c r="AD160" s="222"/>
+      <c r="AE160" s="223"/>
+      <c r="AF160" s="224"/>
+      <c r="AH160" s="222"/>
+      <c r="AI160" s="223"/>
+      <c r="AJ160" s="224"/>
     </row>
     <row r="161" spans="12:36">
-      <c r="L161" s="270"/>
+      <c r="L161" s="255"/>
       <c r="M161" s="280"/>
       <c r="N161" s="281"/>
-      <c r="Q161" s="270"/>
+      <c r="Q161" s="255"/>
       <c r="R161" s="280"/>
       <c r="S161" s="281"/>
-      <c r="V161" s="270"/>
+      <c r="V161" s="255"/>
       <c r="W161" s="280"/>
       <c r="X161" s="281"/>
-      <c r="Z161" s="270"/>
+      <c r="Z161" s="255"/>
       <c r="AA161" s="280"/>
       <c r="AB161" s="281"/>
-      <c r="AD161" s="270"/>
+      <c r="AD161" s="255"/>
       <c r="AE161" s="280"/>
       <c r="AF161" s="281"/>
-      <c r="AH161" s="270"/>
+      <c r="AH161" s="255"/>
       <c r="AI161" s="280"/>
       <c r="AJ161" s="281"/>
     </row>
     <row r="162" spans="12:36" ht="17.25" thickBot="1">
-      <c r="L162" s="269"/>
+      <c r="L162" s="254"/>
       <c r="M162" s="282"/>
       <c r="N162" s="283"/>
-      <c r="Q162" s="269"/>
+      <c r="Q162" s="254"/>
       <c r="R162" s="282"/>
       <c r="S162" s="283"/>
-      <c r="V162" s="269"/>
+      <c r="V162" s="254"/>
       <c r="W162" s="282"/>
       <c r="X162" s="283"/>
-      <c r="Z162" s="269"/>
+      <c r="Z162" s="254"/>
       <c r="AA162" s="282"/>
       <c r="AB162" s="283"/>
-      <c r="AD162" s="269"/>
+      <c r="AD162" s="254"/>
       <c r="AE162" s="282"/>
       <c r="AF162" s="283"/>
-      <c r="AH162" s="269"/>
+      <c r="AH162" s="254"/>
       <c r="AI162" s="282"/>
       <c r="AJ162" s="283"/>
     </row>
@@ -23228,25 +23739,148 @@
     </row>
   </sheetData>
   <mergeCells count="185">
-    <mergeCell ref="U143:AD152"/>
-    <mergeCell ref="AF143:AO152"/>
-    <mergeCell ref="AQ143:AZ152"/>
-    <mergeCell ref="BB143:BK152"/>
-    <mergeCell ref="L160:N162"/>
-    <mergeCell ref="Q160:S162"/>
-    <mergeCell ref="V160:X162"/>
-    <mergeCell ref="Z160:AB162"/>
-    <mergeCell ref="AD160:AF162"/>
-    <mergeCell ref="AH160:AJ162"/>
-    <mergeCell ref="Q92:R95"/>
-    <mergeCell ref="Q72:R75"/>
-    <mergeCell ref="Q76:R79"/>
-    <mergeCell ref="Q80:R83"/>
-    <mergeCell ref="Q84:R87"/>
-    <mergeCell ref="Q88:R91"/>
-    <mergeCell ref="Q64:R67"/>
-    <mergeCell ref="Q68:R71"/>
-    <mergeCell ref="AK56:AN57"/>
+    <mergeCell ref="R104:S105"/>
+    <mergeCell ref="T104:U105"/>
+    <mergeCell ref="AJ104:AK105"/>
+    <mergeCell ref="AL104:AM105"/>
+    <mergeCell ref="F38:H39"/>
+    <mergeCell ref="F40:H41"/>
+    <mergeCell ref="AH114:AI115"/>
+    <mergeCell ref="AJ114:AK115"/>
+    <mergeCell ref="AL114:AM115"/>
+    <mergeCell ref="AH110:AI111"/>
+    <mergeCell ref="AJ110:AK111"/>
+    <mergeCell ref="AL110:AM111"/>
+    <mergeCell ref="AD104:AE105"/>
+    <mergeCell ref="AF104:AG105"/>
+    <mergeCell ref="AH104:AI105"/>
+    <mergeCell ref="AH100:AI101"/>
+    <mergeCell ref="AJ100:AK101"/>
+    <mergeCell ref="AL100:AM101"/>
+    <mergeCell ref="Q38:T39"/>
+    <mergeCell ref="U38:X39"/>
+    <mergeCell ref="Y38:AB39"/>
+    <mergeCell ref="AC38:AF39"/>
+    <mergeCell ref="AG38:AJ39"/>
+    <mergeCell ref="U40:X41"/>
+    <mergeCell ref="AN114:AO115"/>
+    <mergeCell ref="AP114:AQ115"/>
+    <mergeCell ref="P114:Q115"/>
+    <mergeCell ref="R114:S115"/>
+    <mergeCell ref="T114:U115"/>
+    <mergeCell ref="V114:W115"/>
+    <mergeCell ref="X114:Y115"/>
+    <mergeCell ref="Z114:AA115"/>
+    <mergeCell ref="AB114:AC115"/>
+    <mergeCell ref="AD114:AE115"/>
+    <mergeCell ref="AF114:AG115"/>
+    <mergeCell ref="AN110:AO111"/>
+    <mergeCell ref="AP110:AQ111"/>
+    <mergeCell ref="P104:Q105"/>
+    <mergeCell ref="AC52:AF53"/>
+    <mergeCell ref="AG52:AJ53"/>
+    <mergeCell ref="AK48:AN49"/>
+    <mergeCell ref="AO48:AR49"/>
+    <mergeCell ref="AS48:AV49"/>
+    <mergeCell ref="AO56:AR57"/>
+    <mergeCell ref="AN104:AO105"/>
+    <mergeCell ref="AP104:AQ105"/>
+    <mergeCell ref="P110:Q111"/>
+    <mergeCell ref="R110:S111"/>
+    <mergeCell ref="T110:U111"/>
+    <mergeCell ref="V110:W111"/>
+    <mergeCell ref="X110:Y111"/>
+    <mergeCell ref="Z110:AA111"/>
+    <mergeCell ref="AB110:AC111"/>
+    <mergeCell ref="AD110:AE111"/>
+    <mergeCell ref="AF110:AG111"/>
+    <mergeCell ref="V104:W105"/>
+    <mergeCell ref="X104:Y105"/>
+    <mergeCell ref="Z104:AA105"/>
+    <mergeCell ref="AB104:AC105"/>
+    <mergeCell ref="AN100:AO101"/>
+    <mergeCell ref="AP100:AQ101"/>
+    <mergeCell ref="AS38:AV39"/>
+    <mergeCell ref="AK40:AN41"/>
+    <mergeCell ref="AO40:AR41"/>
+    <mergeCell ref="AS40:AV41"/>
+    <mergeCell ref="AK44:AN45"/>
+    <mergeCell ref="AO44:AR45"/>
+    <mergeCell ref="AS44:AV45"/>
+    <mergeCell ref="AK38:AN39"/>
+    <mergeCell ref="AO38:AR39"/>
+    <mergeCell ref="AO46:AR47"/>
+    <mergeCell ref="AS46:AV47"/>
+    <mergeCell ref="AS56:AV57"/>
+    <mergeCell ref="AS52:AV53"/>
+    <mergeCell ref="AS54:AV55"/>
+    <mergeCell ref="AK50:AN51"/>
+    <mergeCell ref="AO50:AR51"/>
+    <mergeCell ref="AS50:AV51"/>
+    <mergeCell ref="AK46:AN47"/>
+    <mergeCell ref="AE2:AW2"/>
+    <mergeCell ref="BI6:BO6"/>
+    <mergeCell ref="BI7:BO7"/>
+    <mergeCell ref="BI8:BO8"/>
+    <mergeCell ref="BI9:BO9"/>
+    <mergeCell ref="AG6:AR6"/>
+    <mergeCell ref="P100:Q101"/>
+    <mergeCell ref="R100:S101"/>
+    <mergeCell ref="T100:U101"/>
+    <mergeCell ref="V100:W101"/>
+    <mergeCell ref="X100:Y101"/>
+    <mergeCell ref="Z100:AA101"/>
+    <mergeCell ref="AB100:AC101"/>
+    <mergeCell ref="AD100:AE101"/>
+    <mergeCell ref="AF100:AG101"/>
+    <mergeCell ref="Q42:T43"/>
+    <mergeCell ref="U42:X43"/>
+    <mergeCell ref="Y42:AB43"/>
+    <mergeCell ref="AC42:AF43"/>
+    <mergeCell ref="AG42:AJ43"/>
+    <mergeCell ref="AK42:AN43"/>
+    <mergeCell ref="AO42:AR43"/>
+    <mergeCell ref="AS42:AV43"/>
+    <mergeCell ref="Q40:T41"/>
+    <mergeCell ref="F8:O24"/>
+    <mergeCell ref="J26:J31"/>
+    <mergeCell ref="K31:AQ31"/>
+    <mergeCell ref="AQ26:AQ30"/>
+    <mergeCell ref="AJ9:AS10"/>
+    <mergeCell ref="AJ14:AQ14"/>
+    <mergeCell ref="AJ16:AL16"/>
+    <mergeCell ref="AN16:AP16"/>
+    <mergeCell ref="AG36:AJ37"/>
+    <mergeCell ref="AK36:AN37"/>
+    <mergeCell ref="AO36:AR37"/>
+    <mergeCell ref="AS36:AV37"/>
+    <mergeCell ref="Q36:T37"/>
+    <mergeCell ref="U36:X37"/>
+    <mergeCell ref="Y36:AB37"/>
+    <mergeCell ref="AC36:AF37"/>
+    <mergeCell ref="Q13:AA24"/>
+    <mergeCell ref="W29:AN29"/>
+    <mergeCell ref="V25:V29"/>
+    <mergeCell ref="AO25:AO29"/>
+    <mergeCell ref="Q33:T34"/>
+    <mergeCell ref="Q48:T49"/>
+    <mergeCell ref="U48:X49"/>
+    <mergeCell ref="Y48:AB49"/>
+    <mergeCell ref="AC48:AF49"/>
+    <mergeCell ref="AG48:AJ49"/>
+    <mergeCell ref="Y40:AB41"/>
+    <mergeCell ref="AC40:AF41"/>
+    <mergeCell ref="AG40:AJ41"/>
+    <mergeCell ref="Q46:T47"/>
+    <mergeCell ref="U46:X47"/>
+    <mergeCell ref="Y46:AB47"/>
+    <mergeCell ref="AC46:AF47"/>
+    <mergeCell ref="AG46:AJ47"/>
+    <mergeCell ref="Q44:T45"/>
+    <mergeCell ref="U44:X45"/>
+    <mergeCell ref="Y44:AB45"/>
+    <mergeCell ref="AC44:AF45"/>
+    <mergeCell ref="AG44:AJ45"/>
     <mergeCell ref="J38:M39"/>
     <mergeCell ref="W33:AJ34"/>
     <mergeCell ref="Q56:T57"/>
@@ -23271,148 +23905,25 @@
     <mergeCell ref="Y50:AB51"/>
     <mergeCell ref="AC50:AF51"/>
     <mergeCell ref="AG50:AJ51"/>
-    <mergeCell ref="Q48:T49"/>
-    <mergeCell ref="U48:X49"/>
-    <mergeCell ref="Y48:AB49"/>
-    <mergeCell ref="AC48:AF49"/>
-    <mergeCell ref="AG48:AJ49"/>
-    <mergeCell ref="Y40:AB41"/>
-    <mergeCell ref="AC40:AF41"/>
-    <mergeCell ref="AG40:AJ41"/>
-    <mergeCell ref="Q46:T47"/>
-    <mergeCell ref="U46:X47"/>
-    <mergeCell ref="Y46:AB47"/>
-    <mergeCell ref="AC46:AF47"/>
-    <mergeCell ref="AG46:AJ47"/>
-    <mergeCell ref="Q44:T45"/>
-    <mergeCell ref="U44:X45"/>
-    <mergeCell ref="Y44:AB45"/>
-    <mergeCell ref="AC44:AF45"/>
-    <mergeCell ref="AG44:AJ45"/>
-    <mergeCell ref="F8:O24"/>
-    <mergeCell ref="J26:J31"/>
-    <mergeCell ref="K31:AQ31"/>
-    <mergeCell ref="AQ26:AQ30"/>
-    <mergeCell ref="AJ9:AS10"/>
-    <mergeCell ref="AJ14:AQ14"/>
-    <mergeCell ref="AJ16:AL16"/>
-    <mergeCell ref="AN16:AP16"/>
-    <mergeCell ref="AG36:AJ37"/>
-    <mergeCell ref="AK36:AN37"/>
-    <mergeCell ref="AO36:AR37"/>
-    <mergeCell ref="AS36:AV37"/>
-    <mergeCell ref="Q36:T37"/>
-    <mergeCell ref="U36:X37"/>
-    <mergeCell ref="Y36:AB37"/>
-    <mergeCell ref="AC36:AF37"/>
-    <mergeCell ref="Q13:AA24"/>
-    <mergeCell ref="W29:AN29"/>
-    <mergeCell ref="V25:V29"/>
-    <mergeCell ref="AO25:AO29"/>
-    <mergeCell ref="Q33:T34"/>
-    <mergeCell ref="AE2:AW2"/>
-    <mergeCell ref="BI6:BO6"/>
-    <mergeCell ref="BI7:BO7"/>
-    <mergeCell ref="BI8:BO8"/>
-    <mergeCell ref="BI9:BO9"/>
-    <mergeCell ref="AG6:AR6"/>
-    <mergeCell ref="P100:Q101"/>
-    <mergeCell ref="R100:S101"/>
-    <mergeCell ref="T100:U101"/>
-    <mergeCell ref="V100:W101"/>
-    <mergeCell ref="X100:Y101"/>
-    <mergeCell ref="Z100:AA101"/>
-    <mergeCell ref="AB100:AC101"/>
-    <mergeCell ref="AD100:AE101"/>
-    <mergeCell ref="AF100:AG101"/>
-    <mergeCell ref="Q42:T43"/>
-    <mergeCell ref="U42:X43"/>
-    <mergeCell ref="Y42:AB43"/>
-    <mergeCell ref="AC42:AF43"/>
-    <mergeCell ref="AG42:AJ43"/>
-    <mergeCell ref="AK42:AN43"/>
-    <mergeCell ref="AO42:AR43"/>
-    <mergeCell ref="AS42:AV43"/>
-    <mergeCell ref="Q40:T41"/>
-    <mergeCell ref="AN100:AO101"/>
-    <mergeCell ref="AP100:AQ101"/>
-    <mergeCell ref="AS38:AV39"/>
-    <mergeCell ref="AK40:AN41"/>
-    <mergeCell ref="AO40:AR41"/>
-    <mergeCell ref="AS40:AV41"/>
-    <mergeCell ref="AK44:AN45"/>
-    <mergeCell ref="AO44:AR45"/>
-    <mergeCell ref="AS44:AV45"/>
-    <mergeCell ref="AK38:AN39"/>
-    <mergeCell ref="AO38:AR39"/>
-    <mergeCell ref="AO46:AR47"/>
-    <mergeCell ref="AS46:AV47"/>
-    <mergeCell ref="AS56:AV57"/>
-    <mergeCell ref="AS52:AV53"/>
-    <mergeCell ref="AS54:AV55"/>
-    <mergeCell ref="AK50:AN51"/>
-    <mergeCell ref="AO50:AR51"/>
-    <mergeCell ref="AS50:AV51"/>
-    <mergeCell ref="AK46:AN47"/>
-    <mergeCell ref="AN110:AO111"/>
-    <mergeCell ref="AP110:AQ111"/>
-    <mergeCell ref="P104:Q105"/>
-    <mergeCell ref="AC52:AF53"/>
-    <mergeCell ref="AG52:AJ53"/>
-    <mergeCell ref="AK48:AN49"/>
-    <mergeCell ref="AO48:AR49"/>
-    <mergeCell ref="AS48:AV49"/>
-    <mergeCell ref="AO56:AR57"/>
-    <mergeCell ref="AN104:AO105"/>
-    <mergeCell ref="AP104:AQ105"/>
-    <mergeCell ref="P110:Q111"/>
-    <mergeCell ref="R110:S111"/>
-    <mergeCell ref="T110:U111"/>
-    <mergeCell ref="V110:W111"/>
-    <mergeCell ref="X110:Y111"/>
-    <mergeCell ref="Z110:AA111"/>
-    <mergeCell ref="AB110:AC111"/>
-    <mergeCell ref="AD110:AE111"/>
-    <mergeCell ref="AF110:AG111"/>
-    <mergeCell ref="V104:W105"/>
-    <mergeCell ref="X104:Y105"/>
-    <mergeCell ref="Z104:AA105"/>
-    <mergeCell ref="AB104:AC105"/>
-    <mergeCell ref="AN114:AO115"/>
-    <mergeCell ref="AP114:AQ115"/>
-    <mergeCell ref="P114:Q115"/>
-    <mergeCell ref="R114:S115"/>
-    <mergeCell ref="T114:U115"/>
-    <mergeCell ref="V114:W115"/>
-    <mergeCell ref="X114:Y115"/>
-    <mergeCell ref="Z114:AA115"/>
-    <mergeCell ref="AB114:AC115"/>
-    <mergeCell ref="AD114:AE115"/>
-    <mergeCell ref="AF114:AG115"/>
-    <mergeCell ref="R104:S105"/>
-    <mergeCell ref="T104:U105"/>
-    <mergeCell ref="AJ104:AK105"/>
-    <mergeCell ref="AL104:AM105"/>
-    <mergeCell ref="F38:H39"/>
-    <mergeCell ref="F40:H41"/>
-    <mergeCell ref="AH114:AI115"/>
-    <mergeCell ref="AJ114:AK115"/>
-    <mergeCell ref="AL114:AM115"/>
-    <mergeCell ref="AH110:AI111"/>
-    <mergeCell ref="AJ110:AK111"/>
-    <mergeCell ref="AL110:AM111"/>
-    <mergeCell ref="AD104:AE105"/>
-    <mergeCell ref="AF104:AG105"/>
-    <mergeCell ref="AH104:AI105"/>
-    <mergeCell ref="AH100:AI101"/>
-    <mergeCell ref="AJ100:AK101"/>
-    <mergeCell ref="AL100:AM101"/>
-    <mergeCell ref="Q38:T39"/>
-    <mergeCell ref="U38:X39"/>
-    <mergeCell ref="Y38:AB39"/>
-    <mergeCell ref="AC38:AF39"/>
-    <mergeCell ref="AG38:AJ39"/>
-    <mergeCell ref="U40:X41"/>
+    <mergeCell ref="Q92:R95"/>
+    <mergeCell ref="Q72:R75"/>
+    <mergeCell ref="Q76:R79"/>
+    <mergeCell ref="Q80:R83"/>
+    <mergeCell ref="Q84:R87"/>
+    <mergeCell ref="Q88:R91"/>
+    <mergeCell ref="Q64:R67"/>
+    <mergeCell ref="Q68:R71"/>
+    <mergeCell ref="AK56:AN57"/>
+    <mergeCell ref="U143:AD152"/>
+    <mergeCell ref="AF143:AO152"/>
+    <mergeCell ref="AQ143:AZ152"/>
+    <mergeCell ref="BB143:BK152"/>
+    <mergeCell ref="L160:N162"/>
+    <mergeCell ref="Q160:S162"/>
+    <mergeCell ref="V160:X162"/>
+    <mergeCell ref="Z160:AB162"/>
+    <mergeCell ref="AD160:AF162"/>
+    <mergeCell ref="AH160:AJ162"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24146,68 +24657,68 @@
   <sheetData>
     <row r="1" spans="2:13" ht="17.25" thickBot="1"/>
     <row r="2" spans="2:13">
-      <c r="B2" s="353" t="s">
+      <c r="B2" s="354" t="s">
         <v>319</v>
       </c>
-      <c r="C2" s="354"/>
-      <c r="D2" s="354"/>
-      <c r="E2" s="354"/>
-      <c r="F2" s="354"/>
-      <c r="G2" s="354"/>
-      <c r="H2" s="354"/>
-      <c r="I2" s="354"/>
-      <c r="J2" s="354"/>
-      <c r="K2" s="354"/>
-      <c r="L2" s="354"/>
-      <c r="M2" s="355"/>
+      <c r="C2" s="355"/>
+      <c r="D2" s="355"/>
+      <c r="E2" s="355"/>
+      <c r="F2" s="355"/>
+      <c r="G2" s="355"/>
+      <c r="H2" s="355"/>
+      <c r="I2" s="355"/>
+      <c r="J2" s="355"/>
+      <c r="K2" s="355"/>
+      <c r="L2" s="355"/>
+      <c r="M2" s="356"/>
     </row>
     <row r="3" spans="2:13" ht="37.5" customHeight="1" thickBot="1">
-      <c r="B3" s="356"/>
-      <c r="C3" s="357"/>
-      <c r="D3" s="357"/>
-      <c r="E3" s="357"/>
-      <c r="F3" s="357"/>
-      <c r="G3" s="357"/>
-      <c r="H3" s="357"/>
-      <c r="I3" s="357"/>
-      <c r="J3" s="357"/>
-      <c r="K3" s="357"/>
-      <c r="L3" s="357"/>
-      <c r="M3" s="358"/>
+      <c r="B3" s="357"/>
+      <c r="C3" s="358"/>
+      <c r="D3" s="358"/>
+      <c r="E3" s="358"/>
+      <c r="F3" s="358"/>
+      <c r="G3" s="358"/>
+      <c r="H3" s="358"/>
+      <c r="I3" s="358"/>
+      <c r="J3" s="358"/>
+      <c r="K3" s="358"/>
+      <c r="L3" s="358"/>
+      <c r="M3" s="359"/>
     </row>
     <row r="4" spans="2:13">
-      <c r="B4" s="359" t="s">
+      <c r="B4" s="378" t="s">
         <v>320</v>
       </c>
-      <c r="C4" s="360"/>
-      <c r="D4" s="361"/>
-      <c r="E4" s="362"/>
-      <c r="F4" s="362"/>
-      <c r="G4" s="362"/>
-      <c r="H4" s="362"/>
-      <c r="I4" s="362"/>
-      <c r="J4" s="362"/>
-      <c r="K4" s="363"/>
+      <c r="C4" s="361"/>
+      <c r="D4" s="362"/>
+      <c r="E4" s="363"/>
+      <c r="F4" s="363"/>
+      <c r="G4" s="363"/>
+      <c r="H4" s="363"/>
+      <c r="I4" s="363"/>
+      <c r="J4" s="363"/>
+      <c r="K4" s="364"/>
       <c r="L4" s="110" t="s">
         <v>321</v>
       </c>
       <c r="M4" s="111"/>
     </row>
     <row r="5" spans="2:13">
-      <c r="B5" s="369" t="s">
+      <c r="B5" s="372" t="s">
         <v>322</v>
       </c>
-      <c r="C5" s="370"/>
-      <c r="D5" s="379">
+      <c r="C5" s="342"/>
+      <c r="D5" s="365">
         <v>44410</v>
       </c>
-      <c r="E5" s="372"/>
-      <c r="F5" s="372"/>
-      <c r="G5" s="372"/>
-      <c r="H5" s="372"/>
-      <c r="I5" s="372"/>
-      <c r="J5" s="372"/>
-      <c r="K5" s="373"/>
+      <c r="E5" s="347"/>
+      <c r="F5" s="347"/>
+      <c r="G5" s="347"/>
+      <c r="H5" s="347"/>
+      <c r="I5" s="347"/>
+      <c r="J5" s="347"/>
+      <c r="K5" s="348"/>
       <c r="L5" s="107" t="s">
         <v>323</v>
       </c>
@@ -24216,20 +24727,20 @@
       </c>
     </row>
     <row r="6" spans="2:13">
-      <c r="B6" s="369" t="s">
+      <c r="B6" s="372" t="s">
         <v>324</v>
       </c>
-      <c r="C6" s="370"/>
-      <c r="D6" s="380" t="s">
+      <c r="C6" s="342"/>
+      <c r="D6" s="373" t="s">
         <v>341</v>
       </c>
-      <c r="E6" s="381"/>
-      <c r="F6" s="381"/>
-      <c r="G6" s="381"/>
-      <c r="H6" s="381"/>
-      <c r="I6" s="381"/>
-      <c r="J6" s="381"/>
-      <c r="K6" s="382"/>
+      <c r="E6" s="374"/>
+      <c r="F6" s="374"/>
+      <c r="G6" s="374"/>
+      <c r="H6" s="374"/>
+      <c r="I6" s="374"/>
+      <c r="J6" s="374"/>
+      <c r="K6" s="375"/>
       <c r="L6" s="107" t="s">
         <v>325</v>
       </c>
@@ -24238,20 +24749,20 @@
       </c>
     </row>
     <row r="7" spans="2:13">
-      <c r="B7" s="369" t="s">
+      <c r="B7" s="372" t="s">
         <v>326</v>
       </c>
-      <c r="C7" s="370"/>
-      <c r="D7" s="371" t="s">
+      <c r="C7" s="342"/>
+      <c r="D7" s="346" t="s">
         <v>343</v>
       </c>
-      <c r="E7" s="372"/>
-      <c r="F7" s="372"/>
-      <c r="G7" s="372"/>
-      <c r="H7" s="372"/>
-      <c r="I7" s="372"/>
-      <c r="J7" s="372"/>
-      <c r="K7" s="373"/>
+      <c r="E7" s="347"/>
+      <c r="F7" s="347"/>
+      <c r="G7" s="347"/>
+      <c r="H7" s="347"/>
+      <c r="I7" s="347"/>
+      <c r="J7" s="347"/>
+      <c r="K7" s="348"/>
       <c r="L7" s="107" t="s">
         <v>327</v>
       </c>
@@ -24260,22 +24771,22 @@
       </c>
     </row>
     <row r="8" spans="2:13" ht="17.25" thickBot="1">
-      <c r="B8" s="374" t="s">
+      <c r="B8" s="379" t="s">
         <v>329</v>
       </c>
-      <c r="C8" s="375"/>
-      <c r="D8" s="350" t="s">
+      <c r="C8" s="350"/>
+      <c r="D8" s="351" t="s">
         <v>344</v>
       </c>
-      <c r="E8" s="351"/>
-      <c r="F8" s="351"/>
-      <c r="G8" s="351"/>
-      <c r="H8" s="351"/>
-      <c r="I8" s="351"/>
-      <c r="J8" s="351"/>
-      <c r="K8" s="351"/>
-      <c r="L8" s="351"/>
-      <c r="M8" s="376"/>
+      <c r="E8" s="352"/>
+      <c r="F8" s="352"/>
+      <c r="G8" s="352"/>
+      <c r="H8" s="352"/>
+      <c r="I8" s="352"/>
+      <c r="J8" s="352"/>
+      <c r="K8" s="352"/>
+      <c r="L8" s="352"/>
+      <c r="M8" s="380"/>
     </row>
     <row r="9" spans="2:13" ht="24">
       <c r="B9" s="108" t="s">
@@ -24308,10 +24819,10 @@
       <c r="K9" s="109" t="s">
         <v>337</v>
       </c>
-      <c r="L9" s="364" t="s">
+      <c r="L9" s="381" t="s">
         <v>338</v>
       </c>
-      <c r="M9" s="365"/>
+      <c r="M9" s="382"/>
     </row>
     <row r="10" spans="2:13">
       <c r="B10" s="101">
@@ -24338,10 +24849,10 @@
         <v>362</v>
       </c>
       <c r="K10" s="99"/>
-      <c r="L10" s="366" t="s">
+      <c r="L10" s="383" t="s">
         <v>363</v>
       </c>
-      <c r="M10" s="349"/>
+      <c r="M10" s="370"/>
     </row>
     <row r="11" spans="2:13">
       <c r="B11" s="187">
@@ -24366,8 +24877,8 @@
         <v>361</v>
       </c>
       <c r="K11" s="190"/>
-      <c r="L11" s="367"/>
-      <c r="M11" s="368"/>
+      <c r="L11" s="384"/>
+      <c r="M11" s="385"/>
     </row>
     <row r="12" spans="2:13">
       <c r="B12" s="101">
@@ -24392,8 +24903,8 @@
         <v>361</v>
       </c>
       <c r="K12" s="99"/>
-      <c r="L12" s="348"/>
-      <c r="M12" s="349"/>
+      <c r="L12" s="369"/>
+      <c r="M12" s="370"/>
     </row>
     <row r="13" spans="2:13">
       <c r="B13" s="101">
@@ -24418,10 +24929,10 @@
         <v>361</v>
       </c>
       <c r="K13" s="99"/>
-      <c r="L13" s="348" t="s">
+      <c r="L13" s="369" t="s">
         <v>356</v>
       </c>
-      <c r="M13" s="349"/>
+      <c r="M13" s="370"/>
     </row>
     <row r="14" spans="2:13">
       <c r="B14" s="101">
@@ -24444,8 +24955,8 @@
         <v>361</v>
       </c>
       <c r="K14" s="99"/>
-      <c r="L14" s="348"/>
-      <c r="M14" s="349"/>
+      <c r="L14" s="369"/>
+      <c r="M14" s="370"/>
     </row>
     <row r="15" spans="2:13">
       <c r="B15" s="101">
@@ -24470,8 +24981,8 @@
         <v>361</v>
       </c>
       <c r="K15" s="99"/>
-      <c r="L15" s="348"/>
-      <c r="M15" s="349"/>
+      <c r="L15" s="369"/>
+      <c r="M15" s="370"/>
     </row>
     <row r="16" spans="2:13">
       <c r="B16" s="101">
@@ -24496,10 +25007,10 @@
         <v>361</v>
       </c>
       <c r="K16" s="99"/>
-      <c r="L16" s="348" t="s">
+      <c r="L16" s="369" t="s">
         <v>357</v>
       </c>
-      <c r="M16" s="349"/>
+      <c r="M16" s="370"/>
     </row>
     <row r="17" spans="2:13">
       <c r="B17" s="191">
@@ -24526,91 +25037,91 @@
         <v>361</v>
       </c>
       <c r="K17" s="194"/>
-      <c r="L17" s="385" t="s">
+      <c r="L17" s="376" t="s">
         <v>366</v>
       </c>
-      <c r="M17" s="378"/>
+      <c r="M17" s="377"/>
     </row>
     <row r="18" spans="2:13" ht="17.25" thickBot="1">
       <c r="B18" s="106" t="s">
         <v>339</v>
       </c>
-      <c r="C18" s="350"/>
-      <c r="D18" s="351"/>
-      <c r="E18" s="351"/>
-      <c r="F18" s="351"/>
-      <c r="G18" s="351"/>
-      <c r="H18" s="351"/>
-      <c r="I18" s="351"/>
-      <c r="J18" s="351"/>
-      <c r="K18" s="351"/>
-      <c r="L18" s="351"/>
-      <c r="M18" s="352"/>
+      <c r="C18" s="351"/>
+      <c r="D18" s="352"/>
+      <c r="E18" s="352"/>
+      <c r="F18" s="352"/>
+      <c r="G18" s="352"/>
+      <c r="H18" s="352"/>
+      <c r="I18" s="352"/>
+      <c r="J18" s="352"/>
+      <c r="K18" s="352"/>
+      <c r="L18" s="352"/>
+      <c r="M18" s="371"/>
     </row>
     <row r="19" spans="2:13" ht="17.25" thickBot="1"/>
     <row r="20" spans="2:13">
-      <c r="B20" s="353" t="s">
+      <c r="B20" s="354" t="s">
         <v>319</v>
       </c>
-      <c r="C20" s="354"/>
-      <c r="D20" s="354"/>
-      <c r="E20" s="354"/>
-      <c r="F20" s="354"/>
-      <c r="G20" s="354"/>
-      <c r="H20" s="354"/>
-      <c r="I20" s="354"/>
-      <c r="J20" s="354"/>
-      <c r="K20" s="354"/>
-      <c r="L20" s="354"/>
-      <c r="M20" s="355"/>
+      <c r="C20" s="355"/>
+      <c r="D20" s="355"/>
+      <c r="E20" s="355"/>
+      <c r="F20" s="355"/>
+      <c r="G20" s="355"/>
+      <c r="H20" s="355"/>
+      <c r="I20" s="355"/>
+      <c r="J20" s="355"/>
+      <c r="K20" s="355"/>
+      <c r="L20" s="355"/>
+      <c r="M20" s="356"/>
     </row>
     <row r="21" spans="2:13" ht="17.25" thickBot="1">
-      <c r="B21" s="356"/>
-      <c r="C21" s="357"/>
-      <c r="D21" s="357"/>
-      <c r="E21" s="357"/>
-      <c r="F21" s="357"/>
-      <c r="G21" s="357"/>
-      <c r="H21" s="357"/>
-      <c r="I21" s="357"/>
-      <c r="J21" s="357"/>
-      <c r="K21" s="357"/>
-      <c r="L21" s="357"/>
-      <c r="M21" s="358"/>
+      <c r="B21" s="357"/>
+      <c r="C21" s="358"/>
+      <c r="D21" s="358"/>
+      <c r="E21" s="358"/>
+      <c r="F21" s="358"/>
+      <c r="G21" s="358"/>
+      <c r="H21" s="358"/>
+      <c r="I21" s="358"/>
+      <c r="J21" s="358"/>
+      <c r="K21" s="358"/>
+      <c r="L21" s="358"/>
+      <c r="M21" s="359"/>
     </row>
     <row r="22" spans="2:13">
-      <c r="B22" s="359" t="s">
+      <c r="B22" s="378" t="s">
         <v>320</v>
       </c>
-      <c r="C22" s="360"/>
-      <c r="D22" s="361"/>
-      <c r="E22" s="362"/>
-      <c r="F22" s="362"/>
-      <c r="G22" s="362"/>
-      <c r="H22" s="362"/>
-      <c r="I22" s="362"/>
-      <c r="J22" s="362"/>
-      <c r="K22" s="363"/>
+      <c r="C22" s="361"/>
+      <c r="D22" s="362"/>
+      <c r="E22" s="363"/>
+      <c r="F22" s="363"/>
+      <c r="G22" s="363"/>
+      <c r="H22" s="363"/>
+      <c r="I22" s="363"/>
+      <c r="J22" s="363"/>
+      <c r="K22" s="364"/>
       <c r="L22" s="110" t="s">
         <v>321</v>
       </c>
       <c r="M22" s="111"/>
     </row>
     <row r="23" spans="2:13">
-      <c r="B23" s="369" t="s">
+      <c r="B23" s="372" t="s">
         <v>322</v>
       </c>
-      <c r="C23" s="370"/>
-      <c r="D23" s="379">
+      <c r="C23" s="342"/>
+      <c r="D23" s="365">
         <v>44410</v>
       </c>
-      <c r="E23" s="372"/>
-      <c r="F23" s="372"/>
-      <c r="G23" s="372"/>
-      <c r="H23" s="372"/>
-      <c r="I23" s="372"/>
-      <c r="J23" s="372"/>
-      <c r="K23" s="373"/>
+      <c r="E23" s="347"/>
+      <c r="F23" s="347"/>
+      <c r="G23" s="347"/>
+      <c r="H23" s="347"/>
+      <c r="I23" s="347"/>
+      <c r="J23" s="347"/>
+      <c r="K23" s="348"/>
       <c r="L23" s="107" t="s">
         <v>323</v>
       </c>
@@ -24619,20 +25130,20 @@
       </c>
     </row>
     <row r="24" spans="2:13">
-      <c r="B24" s="369" t="s">
+      <c r="B24" s="372" t="s">
         <v>324</v>
       </c>
-      <c r="C24" s="370"/>
-      <c r="D24" s="380" t="s">
+      <c r="C24" s="342"/>
+      <c r="D24" s="373" t="s">
         <v>341</v>
       </c>
-      <c r="E24" s="381"/>
-      <c r="F24" s="381"/>
-      <c r="G24" s="381"/>
-      <c r="H24" s="381"/>
-      <c r="I24" s="381"/>
-      <c r="J24" s="381"/>
-      <c r="K24" s="382"/>
+      <c r="E24" s="374"/>
+      <c r="F24" s="374"/>
+      <c r="G24" s="374"/>
+      <c r="H24" s="374"/>
+      <c r="I24" s="374"/>
+      <c r="J24" s="374"/>
+      <c r="K24" s="375"/>
       <c r="L24" s="107" t="s">
         <v>325</v>
       </c>
@@ -24641,20 +25152,20 @@
       </c>
     </row>
     <row r="25" spans="2:13">
-      <c r="B25" s="369" t="s">
+      <c r="B25" s="372" t="s">
         <v>326</v>
       </c>
-      <c r="C25" s="370"/>
-      <c r="D25" s="371" t="s">
+      <c r="C25" s="342"/>
+      <c r="D25" s="346" t="s">
         <v>347</v>
       </c>
-      <c r="E25" s="372"/>
-      <c r="F25" s="372"/>
-      <c r="G25" s="372"/>
-      <c r="H25" s="372"/>
-      <c r="I25" s="372"/>
-      <c r="J25" s="372"/>
-      <c r="K25" s="373"/>
+      <c r="E25" s="347"/>
+      <c r="F25" s="347"/>
+      <c r="G25" s="347"/>
+      <c r="H25" s="347"/>
+      <c r="I25" s="347"/>
+      <c r="J25" s="347"/>
+      <c r="K25" s="348"/>
       <c r="L25" s="107" t="s">
         <v>327</v>
       </c>
@@ -24663,22 +25174,22 @@
       </c>
     </row>
     <row r="26" spans="2:13" ht="17.25" thickBot="1">
-      <c r="B26" s="374" t="s">
+      <c r="B26" s="379" t="s">
         <v>329</v>
       </c>
-      <c r="C26" s="375"/>
-      <c r="D26" s="350" t="s">
+      <c r="C26" s="350"/>
+      <c r="D26" s="351" t="s">
         <v>348</v>
       </c>
-      <c r="E26" s="351"/>
-      <c r="F26" s="351"/>
-      <c r="G26" s="351"/>
-      <c r="H26" s="351"/>
-      <c r="I26" s="351"/>
-      <c r="J26" s="351"/>
-      <c r="K26" s="351"/>
-      <c r="L26" s="351"/>
-      <c r="M26" s="376"/>
+      <c r="E26" s="352"/>
+      <c r="F26" s="352"/>
+      <c r="G26" s="352"/>
+      <c r="H26" s="352"/>
+      <c r="I26" s="352"/>
+      <c r="J26" s="352"/>
+      <c r="K26" s="352"/>
+      <c r="L26" s="352"/>
+      <c r="M26" s="380"/>
     </row>
     <row r="27" spans="2:13" ht="24">
       <c r="B27" s="108" t="s">
@@ -24711,10 +25222,10 @@
       <c r="K27" s="109" t="s">
         <v>337</v>
       </c>
-      <c r="L27" s="364" t="s">
+      <c r="L27" s="381" t="s">
         <v>338</v>
       </c>
-      <c r="M27" s="365"/>
+      <c r="M27" s="382"/>
     </row>
     <row r="28" spans="2:13">
       <c r="B28" s="191">
@@ -24741,8 +25252,8 @@
         <v>362</v>
       </c>
       <c r="K28" s="194"/>
-      <c r="L28" s="377"/>
-      <c r="M28" s="378"/>
+      <c r="L28" s="386"/>
+      <c r="M28" s="377"/>
     </row>
     <row r="29" spans="2:13">
       <c r="B29" s="187">
@@ -24767,8 +25278,8 @@
         <v>361</v>
       </c>
       <c r="K29" s="190"/>
-      <c r="L29" s="367"/>
-      <c r="M29" s="368"/>
+      <c r="L29" s="384"/>
+      <c r="M29" s="385"/>
     </row>
     <row r="30" spans="2:13">
       <c r="B30" s="101">
@@ -24793,89 +25304,89 @@
         <v>361</v>
       </c>
       <c r="K30" s="99"/>
-      <c r="L30" s="348"/>
-      <c r="M30" s="349"/>
+      <c r="L30" s="369"/>
+      <c r="M30" s="370"/>
     </row>
     <row r="31" spans="2:13" ht="17.25" thickBot="1">
       <c r="B31" s="106" t="s">
         <v>339</v>
       </c>
-      <c r="C31" s="350"/>
-      <c r="D31" s="351"/>
-      <c r="E31" s="351"/>
-      <c r="F31" s="351"/>
-      <c r="G31" s="351"/>
-      <c r="H31" s="351"/>
-      <c r="I31" s="351"/>
-      <c r="J31" s="351"/>
-      <c r="K31" s="351"/>
-      <c r="L31" s="351"/>
-      <c r="M31" s="352"/>
+      <c r="C31" s="351"/>
+      <c r="D31" s="352"/>
+      <c r="E31" s="352"/>
+      <c r="F31" s="352"/>
+      <c r="G31" s="352"/>
+      <c r="H31" s="352"/>
+      <c r="I31" s="352"/>
+      <c r="J31" s="352"/>
+      <c r="K31" s="352"/>
+      <c r="L31" s="352"/>
+      <c r="M31" s="371"/>
     </row>
     <row r="32" spans="2:13" ht="17.25" thickBot="1"/>
     <row r="33" spans="2:13">
-      <c r="B33" s="353" t="s">
+      <c r="B33" s="354" t="s">
         <v>319</v>
       </c>
-      <c r="C33" s="354"/>
-      <c r="D33" s="354"/>
-      <c r="E33" s="354"/>
-      <c r="F33" s="354"/>
-      <c r="G33" s="354"/>
-      <c r="H33" s="354"/>
-      <c r="I33" s="354"/>
-      <c r="J33" s="354"/>
-      <c r="K33" s="354"/>
-      <c r="L33" s="354"/>
-      <c r="M33" s="355"/>
+      <c r="C33" s="355"/>
+      <c r="D33" s="355"/>
+      <c r="E33" s="355"/>
+      <c r="F33" s="355"/>
+      <c r="G33" s="355"/>
+      <c r="H33" s="355"/>
+      <c r="I33" s="355"/>
+      <c r="J33" s="355"/>
+      <c r="K33" s="355"/>
+      <c r="L33" s="355"/>
+      <c r="M33" s="356"/>
     </row>
     <row r="34" spans="2:13" ht="17.25" thickBot="1">
-      <c r="B34" s="356"/>
-      <c r="C34" s="357"/>
-      <c r="D34" s="357"/>
-      <c r="E34" s="357"/>
-      <c r="F34" s="357"/>
-      <c r="G34" s="357"/>
-      <c r="H34" s="357"/>
-      <c r="I34" s="357"/>
-      <c r="J34" s="357"/>
-      <c r="K34" s="357"/>
-      <c r="L34" s="357"/>
-      <c r="M34" s="358"/>
+      <c r="B34" s="357"/>
+      <c r="C34" s="358"/>
+      <c r="D34" s="358"/>
+      <c r="E34" s="358"/>
+      <c r="F34" s="358"/>
+      <c r="G34" s="358"/>
+      <c r="H34" s="358"/>
+      <c r="I34" s="358"/>
+      <c r="J34" s="358"/>
+      <c r="K34" s="358"/>
+      <c r="L34" s="358"/>
+      <c r="M34" s="359"/>
     </row>
     <row r="35" spans="2:13">
-      <c r="B35" s="359" t="s">
+      <c r="B35" s="378" t="s">
         <v>320</v>
       </c>
-      <c r="C35" s="360"/>
-      <c r="D35" s="361"/>
-      <c r="E35" s="362"/>
-      <c r="F35" s="362"/>
-      <c r="G35" s="362"/>
-      <c r="H35" s="362"/>
-      <c r="I35" s="362"/>
-      <c r="J35" s="362"/>
-      <c r="K35" s="363"/>
+      <c r="C35" s="361"/>
+      <c r="D35" s="362"/>
+      <c r="E35" s="363"/>
+      <c r="F35" s="363"/>
+      <c r="G35" s="363"/>
+      <c r="H35" s="363"/>
+      <c r="I35" s="363"/>
+      <c r="J35" s="363"/>
+      <c r="K35" s="364"/>
       <c r="L35" s="110" t="s">
         <v>321</v>
       </c>
       <c r="M35" s="111"/>
     </row>
     <row r="36" spans="2:13">
-      <c r="B36" s="369" t="s">
+      <c r="B36" s="372" t="s">
         <v>322</v>
       </c>
-      <c r="C36" s="370"/>
-      <c r="D36" s="379">
+      <c r="C36" s="342"/>
+      <c r="D36" s="365">
         <v>44410</v>
       </c>
-      <c r="E36" s="372"/>
-      <c r="F36" s="372"/>
-      <c r="G36" s="372"/>
-      <c r="H36" s="372"/>
-      <c r="I36" s="372"/>
-      <c r="J36" s="372"/>
-      <c r="K36" s="373"/>
+      <c r="E36" s="347"/>
+      <c r="F36" s="347"/>
+      <c r="G36" s="347"/>
+      <c r="H36" s="347"/>
+      <c r="I36" s="347"/>
+      <c r="J36" s="347"/>
+      <c r="K36" s="348"/>
       <c r="L36" s="107" t="s">
         <v>323</v>
       </c>
@@ -24884,20 +25395,20 @@
       </c>
     </row>
     <row r="37" spans="2:13">
-      <c r="B37" s="369" t="s">
+      <c r="B37" s="372" t="s">
         <v>324</v>
       </c>
-      <c r="C37" s="370"/>
-      <c r="D37" s="380" t="s">
+      <c r="C37" s="342"/>
+      <c r="D37" s="373" t="s">
         <v>341</v>
       </c>
-      <c r="E37" s="381"/>
-      <c r="F37" s="381"/>
-      <c r="G37" s="381"/>
-      <c r="H37" s="381"/>
-      <c r="I37" s="381"/>
-      <c r="J37" s="381"/>
-      <c r="K37" s="382"/>
+      <c r="E37" s="374"/>
+      <c r="F37" s="374"/>
+      <c r="G37" s="374"/>
+      <c r="H37" s="374"/>
+      <c r="I37" s="374"/>
+      <c r="J37" s="374"/>
+      <c r="K37" s="375"/>
       <c r="L37" s="107" t="s">
         <v>325</v>
       </c>
@@ -24906,20 +25417,20 @@
       </c>
     </row>
     <row r="38" spans="2:13">
-      <c r="B38" s="369" t="s">
+      <c r="B38" s="372" t="s">
         <v>326</v>
       </c>
-      <c r="C38" s="370"/>
-      <c r="D38" s="371" t="s">
+      <c r="C38" s="342"/>
+      <c r="D38" s="346" t="s">
         <v>350</v>
       </c>
-      <c r="E38" s="372"/>
-      <c r="F38" s="372"/>
-      <c r="G38" s="372"/>
-      <c r="H38" s="372"/>
-      <c r="I38" s="372"/>
-      <c r="J38" s="372"/>
-      <c r="K38" s="373"/>
+      <c r="E38" s="347"/>
+      <c r="F38" s="347"/>
+      <c r="G38" s="347"/>
+      <c r="H38" s="347"/>
+      <c r="I38" s="347"/>
+      <c r="J38" s="347"/>
+      <c r="K38" s="348"/>
       <c r="L38" s="107" t="s">
         <v>327</v>
       </c>
@@ -24928,22 +25439,22 @@
       </c>
     </row>
     <row r="39" spans="2:13" ht="17.25" thickBot="1">
-      <c r="B39" s="374" t="s">
+      <c r="B39" s="379" t="s">
         <v>329</v>
       </c>
-      <c r="C39" s="375"/>
-      <c r="D39" s="350" t="s">
+      <c r="C39" s="350"/>
+      <c r="D39" s="351" t="s">
         <v>348</v>
       </c>
-      <c r="E39" s="351"/>
-      <c r="F39" s="351"/>
-      <c r="G39" s="351"/>
-      <c r="H39" s="351"/>
-      <c r="I39" s="351"/>
-      <c r="J39" s="351"/>
-      <c r="K39" s="351"/>
-      <c r="L39" s="351"/>
-      <c r="M39" s="376"/>
+      <c r="E39" s="352"/>
+      <c r="F39" s="352"/>
+      <c r="G39" s="352"/>
+      <c r="H39" s="352"/>
+      <c r="I39" s="352"/>
+      <c r="J39" s="352"/>
+      <c r="K39" s="352"/>
+      <c r="L39" s="352"/>
+      <c r="M39" s="380"/>
     </row>
     <row r="40" spans="2:13" ht="24">
       <c r="B40" s="108" t="s">
@@ -24976,10 +25487,10 @@
       <c r="K40" s="109" t="s">
         <v>337</v>
       </c>
-      <c r="L40" s="364" t="s">
+      <c r="L40" s="381" t="s">
         <v>338</v>
       </c>
-      <c r="M40" s="365"/>
+      <c r="M40" s="382"/>
     </row>
     <row r="41" spans="2:13">
       <c r="B41" s="101">
@@ -25002,8 +25513,8 @@
         <v>361</v>
       </c>
       <c r="K41" s="99"/>
-      <c r="L41" s="366"/>
-      <c r="M41" s="349"/>
+      <c r="L41" s="383"/>
+      <c r="M41" s="370"/>
     </row>
     <row r="42" spans="2:13">
       <c r="B42" s="101">
@@ -25026,8 +25537,8 @@
         <v>361</v>
       </c>
       <c r="K42" s="99"/>
-      <c r="L42" s="348"/>
-      <c r="M42" s="349"/>
+      <c r="L42" s="369"/>
+      <c r="M42" s="370"/>
     </row>
     <row r="43" spans="2:13">
       <c r="B43" s="101">
@@ -25050,89 +25561,89 @@
         <v>361</v>
       </c>
       <c r="K43" s="99"/>
-      <c r="L43" s="348"/>
-      <c r="M43" s="349"/>
+      <c r="L43" s="369"/>
+      <c r="M43" s="370"/>
     </row>
     <row r="44" spans="2:13" ht="17.25" thickBot="1">
       <c r="B44" s="106" t="s">
         <v>339</v>
       </c>
-      <c r="C44" s="350"/>
-      <c r="D44" s="351"/>
-      <c r="E44" s="351"/>
-      <c r="F44" s="351"/>
-      <c r="G44" s="351"/>
-      <c r="H44" s="351"/>
-      <c r="I44" s="351"/>
-      <c r="J44" s="351"/>
-      <c r="K44" s="351"/>
-      <c r="L44" s="351"/>
-      <c r="M44" s="352"/>
+      <c r="C44" s="351"/>
+      <c r="D44" s="352"/>
+      <c r="E44" s="352"/>
+      <c r="F44" s="352"/>
+      <c r="G44" s="352"/>
+      <c r="H44" s="352"/>
+      <c r="I44" s="352"/>
+      <c r="J44" s="352"/>
+      <c r="K44" s="352"/>
+      <c r="L44" s="352"/>
+      <c r="M44" s="371"/>
     </row>
     <row r="46" spans="2:13" ht="17.25" thickBot="1"/>
     <row r="47" spans="2:13">
-      <c r="B47" s="353" t="s">
+      <c r="B47" s="354" t="s">
         <v>319</v>
       </c>
-      <c r="C47" s="354"/>
-      <c r="D47" s="354"/>
-      <c r="E47" s="354"/>
-      <c r="F47" s="354"/>
-      <c r="G47" s="354"/>
-      <c r="H47" s="354"/>
-      <c r="I47" s="354"/>
-      <c r="J47" s="354"/>
-      <c r="K47" s="354"/>
-      <c r="L47" s="354"/>
-      <c r="M47" s="355"/>
+      <c r="C47" s="355"/>
+      <c r="D47" s="355"/>
+      <c r="E47" s="355"/>
+      <c r="F47" s="355"/>
+      <c r="G47" s="355"/>
+      <c r="H47" s="355"/>
+      <c r="I47" s="355"/>
+      <c r="J47" s="355"/>
+      <c r="K47" s="355"/>
+      <c r="L47" s="355"/>
+      <c r="M47" s="356"/>
     </row>
     <row r="48" spans="2:13" ht="17.25" thickBot="1">
-      <c r="B48" s="356"/>
-      <c r="C48" s="357"/>
-      <c r="D48" s="357"/>
-      <c r="E48" s="357"/>
-      <c r="F48" s="357"/>
-      <c r="G48" s="357"/>
-      <c r="H48" s="357"/>
-      <c r="I48" s="357"/>
-      <c r="J48" s="357"/>
-      <c r="K48" s="357"/>
-      <c r="L48" s="357"/>
-      <c r="M48" s="358"/>
+      <c r="B48" s="357"/>
+      <c r="C48" s="358"/>
+      <c r="D48" s="358"/>
+      <c r="E48" s="358"/>
+      <c r="F48" s="358"/>
+      <c r="G48" s="358"/>
+      <c r="H48" s="358"/>
+      <c r="I48" s="358"/>
+      <c r="J48" s="358"/>
+      <c r="K48" s="358"/>
+      <c r="L48" s="358"/>
+      <c r="M48" s="359"/>
     </row>
     <row r="49" spans="2:13">
-      <c r="B49" s="386" t="s">
+      <c r="B49" s="360" t="s">
         <v>320</v>
       </c>
-      <c r="C49" s="360"/>
-      <c r="D49" s="361"/>
-      <c r="E49" s="362"/>
-      <c r="F49" s="362"/>
-      <c r="G49" s="362"/>
-      <c r="H49" s="362"/>
-      <c r="I49" s="362"/>
-      <c r="J49" s="362"/>
-      <c r="K49" s="363"/>
+      <c r="C49" s="361"/>
+      <c r="D49" s="362"/>
+      <c r="E49" s="363"/>
+      <c r="F49" s="363"/>
+      <c r="G49" s="363"/>
+      <c r="H49" s="363"/>
+      <c r="I49" s="363"/>
+      <c r="J49" s="363"/>
+      <c r="K49" s="364"/>
       <c r="L49" s="110" t="s">
         <v>321</v>
       </c>
       <c r="M49" s="117"/>
     </row>
     <row r="50" spans="2:13">
-      <c r="B50" s="387" t="s">
+      <c r="B50" s="341" t="s">
         <v>322</v>
       </c>
-      <c r="C50" s="370"/>
-      <c r="D50" s="379">
+      <c r="C50" s="342"/>
+      <c r="D50" s="365">
         <v>44413</v>
       </c>
-      <c r="E50" s="372"/>
-      <c r="F50" s="372"/>
-      <c r="G50" s="372"/>
-      <c r="H50" s="372"/>
-      <c r="I50" s="372"/>
-      <c r="J50" s="372"/>
-      <c r="K50" s="373"/>
+      <c r="E50" s="347"/>
+      <c r="F50" s="347"/>
+      <c r="G50" s="347"/>
+      <c r="H50" s="347"/>
+      <c r="I50" s="347"/>
+      <c r="J50" s="347"/>
+      <c r="K50" s="348"/>
       <c r="L50" s="107" t="s">
         <v>323</v>
       </c>
@@ -25141,20 +25652,20 @@
       </c>
     </row>
     <row r="51" spans="2:13">
-      <c r="B51" s="387" t="s">
+      <c r="B51" s="341" t="s">
         <v>324</v>
       </c>
-      <c r="C51" s="370"/>
-      <c r="D51" s="388" t="s">
+      <c r="C51" s="342"/>
+      <c r="D51" s="343" t="s">
         <v>341</v>
       </c>
-      <c r="E51" s="389"/>
-      <c r="F51" s="389"/>
-      <c r="G51" s="389"/>
-      <c r="H51" s="389"/>
-      <c r="I51" s="389"/>
-      <c r="J51" s="389"/>
-      <c r="K51" s="390"/>
+      <c r="E51" s="344"/>
+      <c r="F51" s="344"/>
+      <c r="G51" s="344"/>
+      <c r="H51" s="344"/>
+      <c r="I51" s="344"/>
+      <c r="J51" s="344"/>
+      <c r="K51" s="345"/>
       <c r="L51" s="107" t="s">
         <v>325</v>
       </c>
@@ -25163,20 +25674,20 @@
       </c>
     </row>
     <row r="52" spans="2:13">
-      <c r="B52" s="387" t="s">
+      <c r="B52" s="341" t="s">
         <v>326</v>
       </c>
-      <c r="C52" s="370"/>
-      <c r="D52" s="371" t="s">
+      <c r="C52" s="342"/>
+      <c r="D52" s="346" t="s">
         <v>343</v>
       </c>
-      <c r="E52" s="372"/>
-      <c r="F52" s="372"/>
-      <c r="G52" s="372"/>
-      <c r="H52" s="372"/>
-      <c r="I52" s="372"/>
-      <c r="J52" s="372"/>
-      <c r="K52" s="373"/>
+      <c r="E52" s="347"/>
+      <c r="F52" s="347"/>
+      <c r="G52" s="347"/>
+      <c r="H52" s="347"/>
+      <c r="I52" s="347"/>
+      <c r="J52" s="347"/>
+      <c r="K52" s="348"/>
       <c r="L52" s="107" t="s">
         <v>327</v>
       </c>
@@ -25185,22 +25696,22 @@
       </c>
     </row>
     <row r="53" spans="2:13" ht="17.25" thickBot="1">
-      <c r="B53" s="383" t="s">
+      <c r="B53" s="349" t="s">
         <v>329</v>
       </c>
-      <c r="C53" s="375"/>
-      <c r="D53" s="350" t="s">
+      <c r="C53" s="350"/>
+      <c r="D53" s="351" t="s">
         <v>372</v>
       </c>
-      <c r="E53" s="351"/>
-      <c r="F53" s="351"/>
-      <c r="G53" s="351"/>
-      <c r="H53" s="351"/>
-      <c r="I53" s="351"/>
-      <c r="J53" s="351"/>
-      <c r="K53" s="351"/>
-      <c r="L53" s="351"/>
-      <c r="M53" s="384"/>
+      <c r="E53" s="352"/>
+      <c r="F53" s="352"/>
+      <c r="G53" s="352"/>
+      <c r="H53" s="352"/>
+      <c r="I53" s="352"/>
+      <c r="J53" s="352"/>
+      <c r="K53" s="352"/>
+      <c r="L53" s="352"/>
+      <c r="M53" s="353"/>
     </row>
     <row r="54" spans="2:13" ht="24">
       <c r="B54" s="119" t="s">
@@ -25233,10 +25744,10 @@
       <c r="K54" s="113" t="s">
         <v>337</v>
       </c>
-      <c r="L54" s="394" t="s">
+      <c r="L54" s="335" t="s">
         <v>338</v>
       </c>
-      <c r="M54" s="395"/>
+      <c r="M54" s="336"/>
     </row>
     <row r="55" spans="2:13">
       <c r="B55" s="126">
@@ -25261,10 +25772,10 @@
       <c r="I55" s="129"/>
       <c r="J55" s="129"/>
       <c r="K55" s="129"/>
-      <c r="L55" s="396" t="s">
+      <c r="L55" s="337" t="s">
         <v>410</v>
       </c>
-      <c r="M55" s="397"/>
+      <c r="M55" s="338"/>
     </row>
     <row r="56" spans="2:13">
       <c r="B56" s="120">
@@ -25287,10 +25798,10 @@
       <c r="I56" s="116"/>
       <c r="J56" s="116"/>
       <c r="K56" s="116"/>
-      <c r="L56" s="398" t="s">
+      <c r="L56" s="339" t="s">
         <v>411</v>
       </c>
-      <c r="M56" s="399"/>
+      <c r="M56" s="340"/>
     </row>
     <row r="57" spans="2:13">
       <c r="B57" s="120">
@@ -25315,10 +25826,10 @@
         <v>422</v>
       </c>
       <c r="K57" s="116"/>
-      <c r="L57" s="398" t="s">
+      <c r="L57" s="339" t="s">
         <v>412</v>
       </c>
-      <c r="M57" s="399"/>
+      <c r="M57" s="340"/>
     </row>
     <row r="58" spans="2:13">
       <c r="B58" s="120">
@@ -25343,10 +25854,10 @@
         <v>422</v>
       </c>
       <c r="K58" s="116"/>
-      <c r="L58" s="398" t="s">
+      <c r="L58" s="339" t="s">
         <v>413</v>
       </c>
-      <c r="M58" s="399"/>
+      <c r="M58" s="340"/>
     </row>
     <row r="59" spans="2:13">
       <c r="B59" s="126">
@@ -25369,10 +25880,10 @@
       <c r="I59" s="129"/>
       <c r="J59" s="129"/>
       <c r="K59" s="129"/>
-      <c r="L59" s="396" t="s">
+      <c r="L59" s="337" t="s">
         <v>414</v>
       </c>
-      <c r="M59" s="397"/>
+      <c r="M59" s="338"/>
     </row>
     <row r="60" spans="2:13">
       <c r="B60" s="122">
@@ -25395,10 +25906,10 @@
       <c r="I60" s="125"/>
       <c r="J60" s="125"/>
       <c r="K60" s="125"/>
-      <c r="L60" s="400" t="s">
+      <c r="L60" s="366" t="s">
         <v>417</v>
       </c>
-      <c r="M60" s="401"/>
+      <c r="M60" s="367"/>
     </row>
     <row r="61" spans="2:13">
       <c r="B61" s="126">
@@ -25421,10 +25932,10 @@
       <c r="I61" s="129"/>
       <c r="J61" s="129"/>
       <c r="K61" s="129"/>
-      <c r="L61" s="396" t="s">
+      <c r="L61" s="337" t="s">
         <v>415</v>
       </c>
-      <c r="M61" s="397"/>
+      <c r="M61" s="338"/>
     </row>
     <row r="62" spans="2:13">
       <c r="B62" s="126">
@@ -25447,10 +25958,10 @@
       <c r="I62" s="129"/>
       <c r="J62" s="129"/>
       <c r="K62" s="129"/>
-      <c r="L62" s="396" t="s">
+      <c r="L62" s="337" t="s">
         <v>415</v>
       </c>
-      <c r="M62" s="397"/>
+      <c r="M62" s="338"/>
     </row>
     <row r="63" spans="2:13">
       <c r="B63" s="120">
@@ -25475,8 +25986,8 @@
         <v>422</v>
       </c>
       <c r="K63" s="116"/>
-      <c r="L63" s="406"/>
-      <c r="M63" s="399"/>
+      <c r="L63" s="368"/>
+      <c r="M63" s="340"/>
     </row>
     <row r="64" spans="2:13">
       <c r="B64" s="120">
@@ -25499,10 +26010,10 @@
       <c r="I64" s="116"/>
       <c r="J64" s="116"/>
       <c r="K64" s="116"/>
-      <c r="L64" s="398" t="s">
+      <c r="L64" s="339" t="s">
         <v>416</v>
       </c>
-      <c r="M64" s="399"/>
+      <c r="M64" s="340"/>
     </row>
     <row r="65" spans="2:16">
       <c r="B65" s="122">
@@ -25525,10 +26036,10 @@
       <c r="I65" s="125"/>
       <c r="J65" s="125"/>
       <c r="K65" s="125"/>
-      <c r="L65" s="400" t="s">
+      <c r="L65" s="366" t="s">
         <v>424</v>
       </c>
-      <c r="M65" s="401"/>
+      <c r="M65" s="367"/>
     </row>
     <row r="66" spans="2:16">
       <c r="B66" s="120">
@@ -25551,10 +26062,10 @@
       <c r="I66" s="116"/>
       <c r="J66" s="116"/>
       <c r="K66" s="116"/>
-      <c r="L66" s="398" t="s">
+      <c r="L66" s="339" t="s">
         <v>418</v>
       </c>
-      <c r="M66" s="399"/>
+      <c r="M66" s="340"/>
     </row>
     <row r="67" spans="2:16">
       <c r="B67" s="120">
@@ -25577,10 +26088,10 @@
       <c r="I67" s="116"/>
       <c r="J67" s="116"/>
       <c r="K67" s="116"/>
-      <c r="L67" s="398" t="s">
+      <c r="L67" s="339" t="s">
         <v>419</v>
       </c>
-      <c r="M67" s="399"/>
+      <c r="M67" s="340"/>
     </row>
     <row r="68" spans="2:16">
       <c r="B68" s="122">
@@ -25603,10 +26114,10 @@
       <c r="I68" s="125"/>
       <c r="J68" s="125"/>
       <c r="K68" s="125"/>
-      <c r="L68" s="400" t="s">
+      <c r="L68" s="366" t="s">
         <v>420</v>
       </c>
-      <c r="M68" s="401"/>
+      <c r="M68" s="367"/>
     </row>
     <row r="69" spans="2:16">
       <c r="B69" s="135">
@@ -25631,10 +26142,10 @@
         <v>422</v>
       </c>
       <c r="K69" s="138"/>
-      <c r="L69" s="402" t="s">
+      <c r="L69" s="326" t="s">
         <v>421</v>
       </c>
-      <c r="M69" s="403"/>
+      <c r="M69" s="327"/>
     </row>
     <row r="70" spans="2:16">
       <c r="B70" s="139">
@@ -25655,10 +26166,10 @@
       <c r="I70" s="142"/>
       <c r="J70" s="142"/>
       <c r="K70" s="142"/>
-      <c r="L70" s="404" t="s">
+      <c r="L70" s="328" t="s">
         <v>414</v>
       </c>
-      <c r="M70" s="405"/>
+      <c r="M70" s="329"/>
     </row>
     <row r="71" spans="2:16">
       <c r="B71" s="126">
@@ -25679,26 +26190,26 @@
       <c r="I71" s="129"/>
       <c r="J71" s="129"/>
       <c r="K71" s="129"/>
-      <c r="L71" s="396" t="s">
+      <c r="L71" s="337" t="s">
         <v>414</v>
       </c>
-      <c r="M71" s="397"/>
+      <c r="M71" s="338"/>
     </row>
     <row r="72" spans="2:16" ht="17.25" thickBot="1">
       <c r="B72" s="121" t="s">
         <v>339</v>
       </c>
-      <c r="C72" s="391"/>
-      <c r="D72" s="392"/>
-      <c r="E72" s="392"/>
-      <c r="F72" s="392"/>
-      <c r="G72" s="392"/>
-      <c r="H72" s="392"/>
-      <c r="I72" s="392"/>
-      <c r="J72" s="392"/>
-      <c r="K72" s="392"/>
-      <c r="L72" s="392"/>
-      <c r="M72" s="393"/>
+      <c r="C72" s="330"/>
+      <c r="D72" s="331"/>
+      <c r="E72" s="331"/>
+      <c r="F72" s="331"/>
+      <c r="G72" s="331"/>
+      <c r="H72" s="331"/>
+      <c r="I72" s="331"/>
+      <c r="J72" s="331"/>
+      <c r="K72" s="331"/>
+      <c r="L72" s="331"/>
+      <c r="M72" s="332"/>
     </row>
     <row r="74" spans="2:16" ht="17.25" thickBot="1">
       <c r="C74" t="s">
@@ -25795,20 +26306,20 @@
     </row>
     <row r="80" spans="2:16">
       <c r="C80" s="3"/>
-      <c r="D80" s="263" t="s">
+      <c r="D80" s="248" t="s">
         <v>430</v>
       </c>
-      <c r="E80" s="265"/>
+      <c r="E80" s="250"/>
       <c r="F80" s="9"/>
-      <c r="G80" s="328" t="s">
+      <c r="G80" s="404" t="s">
         <v>438</v>
       </c>
-      <c r="H80" s="329"/>
+      <c r="H80" s="405"/>
       <c r="I80" s="9"/>
-      <c r="J80" s="328" t="s">
+      <c r="J80" s="404" t="s">
         <v>439</v>
       </c>
-      <c r="K80" s="329"/>
+      <c r="K80" s="405"/>
       <c r="L80" s="9"/>
       <c r="M80" s="9"/>
       <c r="N80" s="9"/>
@@ -25817,14 +26328,14 @@
     </row>
     <row r="81" spans="3:16">
       <c r="C81" s="3"/>
-      <c r="D81" s="326"/>
-      <c r="E81" s="327"/>
+      <c r="D81" s="402"/>
+      <c r="E81" s="403"/>
       <c r="F81" s="9"/>
-      <c r="G81" s="330"/>
-      <c r="H81" s="331"/>
+      <c r="G81" s="406"/>
+      <c r="H81" s="407"/>
       <c r="I81" s="9"/>
-      <c r="J81" s="330"/>
-      <c r="K81" s="331"/>
+      <c r="J81" s="406"/>
+      <c r="K81" s="407"/>
       <c r="L81" s="9"/>
       <c r="M81" s="9"/>
       <c r="N81" s="9"/>
@@ -25833,14 +26344,14 @@
     </row>
     <row r="82" spans="3:16">
       <c r="C82" s="3"/>
-      <c r="D82" s="326"/>
-      <c r="E82" s="327"/>
+      <c r="D82" s="402"/>
+      <c r="E82" s="403"/>
       <c r="F82" s="9"/>
-      <c r="G82" s="330"/>
-      <c r="H82" s="331"/>
+      <c r="G82" s="406"/>
+      <c r="H82" s="407"/>
       <c r="I82" s="9"/>
-      <c r="J82" s="330"/>
-      <c r="K82" s="331"/>
+      <c r="J82" s="406"/>
+      <c r="K82" s="407"/>
       <c r="L82" s="9"/>
       <c r="M82" s="9"/>
       <c r="N82" s="9"/>
@@ -25849,14 +26360,14 @@
     </row>
     <row r="83" spans="3:16">
       <c r="C83" s="3"/>
-      <c r="D83" s="326"/>
-      <c r="E83" s="327"/>
+      <c r="D83" s="402"/>
+      <c r="E83" s="403"/>
       <c r="F83" s="9"/>
-      <c r="G83" s="330"/>
-      <c r="H83" s="331"/>
+      <c r="G83" s="406"/>
+      <c r="H83" s="407"/>
       <c r="I83" s="9"/>
-      <c r="J83" s="330"/>
-      <c r="K83" s="331"/>
+      <c r="J83" s="406"/>
+      <c r="K83" s="407"/>
       <c r="L83" s="9"/>
       <c r="M83" s="9"/>
       <c r="N83" s="9"/>
@@ -25865,14 +26376,14 @@
     </row>
     <row r="84" spans="3:16">
       <c r="C84" s="3"/>
-      <c r="D84" s="326"/>
-      <c r="E84" s="327"/>
+      <c r="D84" s="402"/>
+      <c r="E84" s="403"/>
       <c r="F84" s="9"/>
-      <c r="G84" s="330"/>
-      <c r="H84" s="331"/>
+      <c r="G84" s="406"/>
+      <c r="H84" s="407"/>
       <c r="I84" s="9"/>
-      <c r="J84" s="330"/>
-      <c r="K84" s="331"/>
+      <c r="J84" s="406"/>
+      <c r="K84" s="407"/>
       <c r="L84" s="9"/>
       <c r="M84" s="9"/>
       <c r="N84" s="9"/>
@@ -25881,14 +26392,14 @@
     </row>
     <row r="85" spans="3:16">
       <c r="C85" s="3"/>
-      <c r="D85" s="326"/>
-      <c r="E85" s="327"/>
+      <c r="D85" s="402"/>
+      <c r="E85" s="403"/>
       <c r="F85" s="9"/>
-      <c r="G85" s="330"/>
-      <c r="H85" s="331"/>
+      <c r="G85" s="406"/>
+      <c r="H85" s="407"/>
       <c r="I85" s="9"/>
-      <c r="J85" s="330"/>
-      <c r="K85" s="331"/>
+      <c r="J85" s="406"/>
+      <c r="K85" s="407"/>
       <c r="L85" s="9"/>
       <c r="M85" s="9"/>
       <c r="N85" s="9"/>
@@ -25897,14 +26408,14 @@
     </row>
     <row r="86" spans="3:16" ht="17.25" thickBot="1">
       <c r="C86" s="3"/>
-      <c r="D86" s="266"/>
-      <c r="E86" s="268"/>
+      <c r="D86" s="251"/>
+      <c r="E86" s="253"/>
       <c r="F86" s="9"/>
-      <c r="G86" s="330"/>
-      <c r="H86" s="331"/>
+      <c r="G86" s="406"/>
+      <c r="H86" s="407"/>
       <c r="I86" s="9"/>
-      <c r="J86" s="330"/>
-      <c r="K86" s="331"/>
+      <c r="J86" s="406"/>
+      <c r="K86" s="407"/>
       <c r="L86" s="9"/>
       <c r="M86" s="9"/>
       <c r="N86" s="9"/>
@@ -25948,15 +26459,15 @@
       <c r="D89" s="9"/>
       <c r="E89" s="9"/>
       <c r="F89" s="9"/>
-      <c r="G89" s="242" t="s">
+      <c r="G89" s="267" t="s">
         <v>431</v>
       </c>
-      <c r="H89" s="244"/>
+      <c r="H89" s="269"/>
       <c r="I89" s="9"/>
-      <c r="J89" s="242" t="s">
+      <c r="J89" s="267" t="s">
         <v>432</v>
       </c>
-      <c r="K89" s="244"/>
+      <c r="K89" s="269"/>
       <c r="L89" s="9"/>
       <c r="M89" s="9"/>
       <c r="N89" s="9"/>
@@ -25968,11 +26479,11 @@
       <c r="D90" s="9"/>
       <c r="E90" s="9"/>
       <c r="F90" s="9"/>
-      <c r="G90" s="242"/>
-      <c r="H90" s="244"/>
+      <c r="G90" s="267"/>
+      <c r="H90" s="269"/>
       <c r="I90" s="9"/>
-      <c r="J90" s="242"/>
-      <c r="K90" s="244"/>
+      <c r="J90" s="267"/>
+      <c r="K90" s="269"/>
       <c r="L90" s="9"/>
       <c r="M90" s="9"/>
       <c r="N90" s="9"/>
@@ -25984,11 +26495,11 @@
       <c r="D91" s="9"/>
       <c r="E91" s="9"/>
       <c r="F91" s="9"/>
-      <c r="G91" s="242"/>
-      <c r="H91" s="244"/>
+      <c r="G91" s="267"/>
+      <c r="H91" s="269"/>
       <c r="I91" s="9"/>
-      <c r="J91" s="242"/>
-      <c r="K91" s="244"/>
+      <c r="J91" s="267"/>
+      <c r="K91" s="269"/>
       <c r="L91" s="9"/>
       <c r="M91" s="9"/>
       <c r="N91" s="9"/>
@@ -26000,11 +26511,11 @@
       <c r="D92" s="9"/>
       <c r="E92" s="9"/>
       <c r="F92" s="9"/>
-      <c r="G92" s="242"/>
-      <c r="H92" s="244"/>
+      <c r="G92" s="267"/>
+      <c r="H92" s="269"/>
       <c r="I92" s="9"/>
-      <c r="J92" s="242"/>
-      <c r="K92" s="244"/>
+      <c r="J92" s="267"/>
+      <c r="K92" s="269"/>
       <c r="L92" s="9"/>
       <c r="M92" s="9"/>
       <c r="N92" s="9"/>
@@ -26016,11 +26527,11 @@
       <c r="D93" s="9"/>
       <c r="E93" s="9"/>
       <c r="F93" s="9"/>
-      <c r="G93" s="242"/>
-      <c r="H93" s="244"/>
+      <c r="G93" s="267"/>
+      <c r="H93" s="269"/>
       <c r="I93" s="9"/>
-      <c r="J93" s="242"/>
-      <c r="K93" s="244"/>
+      <c r="J93" s="267"/>
+      <c r="K93" s="269"/>
       <c r="L93" s="9"/>
       <c r="M93" s="9"/>
       <c r="N93" s="9"/>
@@ -26032,11 +26543,11 @@
       <c r="D94" s="9"/>
       <c r="E94" s="9"/>
       <c r="F94" s="9"/>
-      <c r="G94" s="242"/>
-      <c r="H94" s="244"/>
+      <c r="G94" s="267"/>
+      <c r="H94" s="269"/>
       <c r="I94" s="9"/>
-      <c r="J94" s="242"/>
-      <c r="K94" s="244"/>
+      <c r="J94" s="267"/>
+      <c r="K94" s="269"/>
       <c r="L94" s="9"/>
       <c r="M94" s="9"/>
       <c r="N94" s="9"/>
@@ -26048,11 +26559,11 @@
       <c r="D95" s="9"/>
       <c r="E95" s="9"/>
       <c r="F95" s="9"/>
-      <c r="G95" s="245"/>
-      <c r="H95" s="247"/>
+      <c r="G95" s="270"/>
+      <c r="H95" s="272"/>
       <c r="I95" s="9"/>
-      <c r="J95" s="245"/>
-      <c r="K95" s="247"/>
+      <c r="J95" s="270"/>
+      <c r="K95" s="272"/>
       <c r="L95" s="9"/>
       <c r="M95" s="9"/>
       <c r="N95" s="9"/>
@@ -26099,80 +26610,80 @@
     </row>
     <row r="98" spans="3:16">
       <c r="C98" s="3"/>
-      <c r="D98" s="254" t="s">
+      <c r="D98" s="239" t="s">
         <v>433</v>
       </c>
-      <c r="E98" s="256"/>
+      <c r="E98" s="241"/>
       <c r="F98" s="9"/>
-      <c r="G98" s="334" t="s">
+      <c r="G98" s="401" t="s">
         <v>436</v>
       </c>
-      <c r="H98" s="334"/>
+      <c r="H98" s="401"/>
       <c r="I98" s="9"/>
-      <c r="J98" s="335" t="s">
+      <c r="J98" s="395" t="s">
         <v>435</v>
       </c>
-      <c r="K98" s="336"/>
+      <c r="K98" s="396"/>
       <c r="L98" s="9"/>
-      <c r="M98" s="341" t="s">
+      <c r="M98" s="387" t="s">
         <v>434</v>
       </c>
-      <c r="N98" s="342"/>
+      <c r="N98" s="388"/>
       <c r="O98" s="9"/>
       <c r="P98" s="4"/>
     </row>
     <row r="99" spans="3:16">
       <c r="C99" s="3"/>
-      <c r="D99" s="332"/>
-      <c r="E99" s="333"/>
+      <c r="D99" s="393"/>
+      <c r="E99" s="394"/>
       <c r="F99" s="9"/>
-      <c r="G99" s="334"/>
-      <c r="H99" s="334"/>
+      <c r="G99" s="401"/>
+      <c r="H99" s="401"/>
       <c r="I99" s="9"/>
-      <c r="J99" s="337"/>
-      <c r="K99" s="338"/>
+      <c r="J99" s="397"/>
+      <c r="K99" s="398"/>
       <c r="L99" s="9"/>
-      <c r="M99" s="343"/>
-      <c r="N99" s="344"/>
+      <c r="M99" s="389"/>
+      <c r="N99" s="390"/>
       <c r="O99" s="9"/>
       <c r="P99" s="4"/>
     </row>
     <row r="100" spans="3:16">
       <c r="C100" s="3"/>
-      <c r="D100" s="332"/>
-      <c r="E100" s="333"/>
+      <c r="D100" s="393"/>
+      <c r="E100" s="394"/>
       <c r="F100" s="9"/>
-      <c r="G100" s="334"/>
-      <c r="H100" s="334"/>
+      <c r="G100" s="401"/>
+      <c r="H100" s="401"/>
       <c r="I100" s="9"/>
-      <c r="J100" s="337"/>
-      <c r="K100" s="338"/>
+      <c r="J100" s="397"/>
+      <c r="K100" s="398"/>
       <c r="L100" s="9"/>
-      <c r="M100" s="343"/>
-      <c r="N100" s="344"/>
+      <c r="M100" s="389"/>
+      <c r="N100" s="390"/>
       <c r="O100" s="9"/>
       <c r="P100" s="4"/>
     </row>
     <row r="101" spans="3:16" ht="17.25" thickBot="1">
       <c r="C101" s="3"/>
-      <c r="D101" s="332"/>
-      <c r="E101" s="333"/>
+      <c r="D101" s="393"/>
+      <c r="E101" s="394"/>
       <c r="F101" s="9"/>
-      <c r="G101" s="334"/>
-      <c r="H101" s="334"/>
+      <c r="G101" s="401"/>
+      <c r="H101" s="401"/>
       <c r="I101" s="9"/>
-      <c r="J101" s="339"/>
-      <c r="K101" s="340"/>
+      <c r="J101" s="399"/>
+      <c r="K101" s="400"/>
       <c r="L101" s="9"/>
-      <c r="M101" s="345"/>
-      <c r="N101" s="346"/>
+      <c r="M101" s="391"/>
+      <c r="N101" s="392"/>
       <c r="O101" s="9"/>
       <c r="P101" s="4"/>
     </row>
     <row r="102" spans="3:16">
       <c r="C102" s="3"/>
-      <c r="D102" s="332"/>
-      <c r="E102" s="333"/>
+      <c r="D102" s="393"/>
+      <c r="E102" s="394"/>
       <c r="F102" s="9"/>
       <c r="G102" s="9"/>
       <c r="H102" s="9"/>
@@ -26187,8 +26698,8 @@
     </row>
     <row r="103" spans="3:16">
       <c r="C103" s="3"/>
-      <c r="D103" s="332"/>
-      <c r="E103" s="333"/>
+      <c r="D103" s="393"/>
+      <c r="E103" s="394"/>
       <c r="F103" s="9"/>
       <c r="G103" s="9"/>
       <c r="H103" s="9"/>
@@ -26203,18 +26714,18 @@
     </row>
     <row r="104" spans="3:16" ht="17.25" thickBot="1">
       <c r="C104" s="3"/>
-      <c r="D104" s="257"/>
-      <c r="E104" s="259"/>
+      <c r="D104" s="242"/>
+      <c r="E104" s="244"/>
       <c r="F104" s="9"/>
-      <c r="G104" s="347" t="s">
+      <c r="G104" s="408" t="s">
         <v>440</v>
       </c>
-      <c r="H104" s="347"/>
+      <c r="H104" s="408"/>
       <c r="I104" s="9"/>
-      <c r="J104" s="334" t="s">
+      <c r="J104" s="401" t="s">
         <v>441</v>
       </c>
-      <c r="K104" s="334"/>
+      <c r="K104" s="401"/>
       <c r="L104" s="9"/>
       <c r="M104" s="160"/>
       <c r="N104" s="160"/>
@@ -26226,11 +26737,11 @@
       <c r="D105" s="9"/>
       <c r="E105" s="9"/>
       <c r="F105" s="9"/>
-      <c r="G105" s="347"/>
-      <c r="H105" s="347"/>
+      <c r="G105" s="408"/>
+      <c r="H105" s="408"/>
       <c r="I105" s="9"/>
-      <c r="J105" s="334"/>
-      <c r="K105" s="334"/>
+      <c r="J105" s="401"/>
+      <c r="K105" s="401"/>
       <c r="L105" s="9"/>
       <c r="M105" s="160"/>
       <c r="N105" s="160"/>
@@ -26242,11 +26753,11 @@
       <c r="D106" s="9"/>
       <c r="E106" s="9"/>
       <c r="F106" s="9"/>
-      <c r="G106" s="347"/>
-      <c r="H106" s="347"/>
+      <c r="G106" s="408"/>
+      <c r="H106" s="408"/>
       <c r="I106" s="9"/>
-      <c r="J106" s="334"/>
-      <c r="K106" s="334"/>
+      <c r="J106" s="401"/>
+      <c r="K106" s="401"/>
       <c r="L106" s="9"/>
       <c r="M106" s="160"/>
       <c r="N106" s="160"/>
@@ -26258,11 +26769,11 @@
       <c r="D107" s="9"/>
       <c r="E107" s="9"/>
       <c r="F107" s="9"/>
-      <c r="G107" s="347"/>
-      <c r="H107" s="347"/>
+      <c r="G107" s="408"/>
+      <c r="H107" s="408"/>
       <c r="I107" s="9"/>
-      <c r="J107" s="334"/>
-      <c r="K107" s="334"/>
+      <c r="J107" s="401"/>
+      <c r="K107" s="401"/>
       <c r="L107" s="9"/>
       <c r="M107" s="9"/>
       <c r="N107" s="9"/>
@@ -26348,68 +26859,68 @@
     </row>
     <row r="122" spans="2:13" ht="17.25" thickBot="1"/>
     <row r="123" spans="2:13">
-      <c r="B123" s="353" t="s">
+      <c r="B123" s="354" t="s">
         <v>319</v>
       </c>
-      <c r="C123" s="354"/>
-      <c r="D123" s="354"/>
-      <c r="E123" s="354"/>
-      <c r="F123" s="354"/>
-      <c r="G123" s="354"/>
-      <c r="H123" s="354"/>
-      <c r="I123" s="354"/>
-      <c r="J123" s="354"/>
-      <c r="K123" s="354"/>
-      <c r="L123" s="354"/>
-      <c r="M123" s="355"/>
+      <c r="C123" s="355"/>
+      <c r="D123" s="355"/>
+      <c r="E123" s="355"/>
+      <c r="F123" s="355"/>
+      <c r="G123" s="355"/>
+      <c r="H123" s="355"/>
+      <c r="I123" s="355"/>
+      <c r="J123" s="355"/>
+      <c r="K123" s="355"/>
+      <c r="L123" s="355"/>
+      <c r="M123" s="356"/>
     </row>
     <row r="124" spans="2:13" ht="17.25" thickBot="1">
-      <c r="B124" s="356"/>
-      <c r="C124" s="357"/>
-      <c r="D124" s="357"/>
-      <c r="E124" s="357"/>
-      <c r="F124" s="357"/>
-      <c r="G124" s="357"/>
-      <c r="H124" s="357"/>
-      <c r="I124" s="357"/>
-      <c r="J124" s="357"/>
-      <c r="K124" s="357"/>
-      <c r="L124" s="357"/>
-      <c r="M124" s="358"/>
+      <c r="B124" s="357"/>
+      <c r="C124" s="358"/>
+      <c r="D124" s="358"/>
+      <c r="E124" s="358"/>
+      <c r="F124" s="358"/>
+      <c r="G124" s="358"/>
+      <c r="H124" s="358"/>
+      <c r="I124" s="358"/>
+      <c r="J124" s="358"/>
+      <c r="K124" s="358"/>
+      <c r="L124" s="358"/>
+      <c r="M124" s="359"/>
     </row>
     <row r="125" spans="2:13">
-      <c r="B125" s="386" t="s">
+      <c r="B125" s="360" t="s">
         <v>320</v>
       </c>
-      <c r="C125" s="360"/>
-      <c r="D125" s="361"/>
-      <c r="E125" s="362"/>
-      <c r="F125" s="362"/>
-      <c r="G125" s="362"/>
-      <c r="H125" s="362"/>
-      <c r="I125" s="362"/>
-      <c r="J125" s="362"/>
-      <c r="K125" s="363"/>
+      <c r="C125" s="361"/>
+      <c r="D125" s="362"/>
+      <c r="E125" s="363"/>
+      <c r="F125" s="363"/>
+      <c r="G125" s="363"/>
+      <c r="H125" s="363"/>
+      <c r="I125" s="363"/>
+      <c r="J125" s="363"/>
+      <c r="K125" s="364"/>
       <c r="L125" s="110" t="s">
         <v>321</v>
       </c>
       <c r="M125" s="117"/>
     </row>
     <row r="126" spans="2:13">
-      <c r="B126" s="387" t="s">
+      <c r="B126" s="341" t="s">
         <v>322</v>
       </c>
-      <c r="C126" s="370"/>
-      <c r="D126" s="379">
+      <c r="C126" s="342"/>
+      <c r="D126" s="365">
         <v>44418</v>
       </c>
-      <c r="E126" s="372"/>
-      <c r="F126" s="372"/>
-      <c r="G126" s="372"/>
-      <c r="H126" s="372"/>
-      <c r="I126" s="372"/>
-      <c r="J126" s="372"/>
-      <c r="K126" s="373"/>
+      <c r="E126" s="347"/>
+      <c r="F126" s="347"/>
+      <c r="G126" s="347"/>
+      <c r="H126" s="347"/>
+      <c r="I126" s="347"/>
+      <c r="J126" s="347"/>
+      <c r="K126" s="348"/>
       <c r="L126" s="107" t="s">
         <v>323</v>
       </c>
@@ -26418,20 +26929,20 @@
       </c>
     </row>
     <row r="127" spans="2:13">
-      <c r="B127" s="387" t="s">
+      <c r="B127" s="341" t="s">
         <v>324</v>
       </c>
-      <c r="C127" s="370"/>
-      <c r="D127" s="388" t="s">
+      <c r="C127" s="342"/>
+      <c r="D127" s="343" t="s">
         <v>341</v>
       </c>
-      <c r="E127" s="389"/>
-      <c r="F127" s="389"/>
-      <c r="G127" s="389"/>
-      <c r="H127" s="389"/>
-      <c r="I127" s="389"/>
-      <c r="J127" s="389"/>
-      <c r="K127" s="390"/>
+      <c r="E127" s="344"/>
+      <c r="F127" s="344"/>
+      <c r="G127" s="344"/>
+      <c r="H127" s="344"/>
+      <c r="I127" s="344"/>
+      <c r="J127" s="344"/>
+      <c r="K127" s="345"/>
       <c r="L127" s="107" t="s">
         <v>325</v>
       </c>
@@ -26440,20 +26951,20 @@
       </c>
     </row>
     <row r="128" spans="2:13">
-      <c r="B128" s="387" t="s">
+      <c r="B128" s="341" t="s">
         <v>326</v>
       </c>
-      <c r="C128" s="370"/>
-      <c r="D128" s="371" t="s">
+      <c r="C128" s="342"/>
+      <c r="D128" s="346" t="s">
         <v>507</v>
       </c>
-      <c r="E128" s="372"/>
-      <c r="F128" s="372"/>
-      <c r="G128" s="372"/>
-      <c r="H128" s="372"/>
-      <c r="I128" s="372"/>
-      <c r="J128" s="372"/>
-      <c r="K128" s="373"/>
+      <c r="E128" s="347"/>
+      <c r="F128" s="347"/>
+      <c r="G128" s="347"/>
+      <c r="H128" s="347"/>
+      <c r="I128" s="347"/>
+      <c r="J128" s="347"/>
+      <c r="K128" s="348"/>
       <c r="L128" s="107" t="s">
         <v>327</v>
       </c>
@@ -26462,22 +26973,22 @@
       </c>
     </row>
     <row r="129" spans="2:16" ht="17.25" thickBot="1">
-      <c r="B129" s="383" t="s">
+      <c r="B129" s="349" t="s">
         <v>329</v>
       </c>
-      <c r="C129" s="375"/>
-      <c r="D129" s="350" t="s">
+      <c r="C129" s="350"/>
+      <c r="D129" s="351" t="s">
         <v>508</v>
       </c>
-      <c r="E129" s="351"/>
-      <c r="F129" s="351"/>
-      <c r="G129" s="351"/>
-      <c r="H129" s="351"/>
-      <c r="I129" s="351"/>
-      <c r="J129" s="351"/>
-      <c r="K129" s="351"/>
-      <c r="L129" s="351"/>
-      <c r="M129" s="384"/>
+      <c r="E129" s="352"/>
+      <c r="F129" s="352"/>
+      <c r="G129" s="352"/>
+      <c r="H129" s="352"/>
+      <c r="I129" s="352"/>
+      <c r="J129" s="352"/>
+      <c r="K129" s="352"/>
+      <c r="L129" s="352"/>
+      <c r="M129" s="353"/>
     </row>
     <row r="130" spans="2:16" ht="24">
       <c r="B130" s="119" t="s">
@@ -26510,10 +27021,10 @@
       <c r="K130" s="113" t="s">
         <v>337</v>
       </c>
-      <c r="L130" s="394" t="s">
+      <c r="L130" s="335" t="s">
         <v>338</v>
       </c>
-      <c r="M130" s="395"/>
+      <c r="M130" s="336"/>
     </row>
     <row r="131" spans="2:16">
       <c r="B131" s="126">
@@ -26538,10 +27049,10 @@
       <c r="I131" s="129"/>
       <c r="J131" s="129"/>
       <c r="K131" s="129"/>
-      <c r="L131" s="396" t="s">
+      <c r="L131" s="337" t="s">
         <v>520</v>
       </c>
-      <c r="M131" s="397"/>
+      <c r="M131" s="338"/>
     </row>
     <row r="132" spans="2:16">
       <c r="B132" s="120">
@@ -26566,10 +27077,10 @@
         <v>362</v>
       </c>
       <c r="K132" s="116"/>
-      <c r="L132" s="398" t="s">
+      <c r="L132" s="339" t="s">
         <v>411</v>
       </c>
-      <c r="M132" s="399"/>
+      <c r="M132" s="340"/>
     </row>
     <row r="133" spans="2:16">
       <c r="B133" s="120">
@@ -26594,8 +27105,8 @@
         <v>362</v>
       </c>
       <c r="K133" s="116"/>
-      <c r="L133" s="398"/>
-      <c r="M133" s="399"/>
+      <c r="L133" s="339"/>
+      <c r="M133" s="340"/>
     </row>
     <row r="134" spans="2:16">
       <c r="B134" s="120">
@@ -26618,8 +27129,8 @@
       <c r="I134" s="116"/>
       <c r="J134" s="116"/>
       <c r="K134" s="116"/>
-      <c r="L134" s="398"/>
-      <c r="M134" s="399"/>
+      <c r="L134" s="339"/>
+      <c r="M134" s="340"/>
     </row>
     <row r="135" spans="2:16">
       <c r="B135" s="179">
@@ -26642,10 +27153,10 @@
       <c r="I135" s="182"/>
       <c r="J135" s="182"/>
       <c r="K135" s="182"/>
-      <c r="L135" s="407" t="s">
+      <c r="L135" s="333" t="s">
         <v>413</v>
       </c>
-      <c r="M135" s="408"/>
+      <c r="M135" s="334"/>
     </row>
     <row r="136" spans="2:16">
       <c r="B136" s="135">
@@ -26670,10 +27181,10 @@
         <v>362</v>
       </c>
       <c r="K136" s="138"/>
-      <c r="L136" s="402" t="s">
+      <c r="L136" s="326" t="s">
         <v>519</v>
       </c>
-      <c r="M136" s="403"/>
+      <c r="M136" s="327"/>
     </row>
     <row r="137" spans="2:16">
       <c r="B137" s="139">
@@ -26694,10 +27205,10 @@
       <c r="I137" s="142"/>
       <c r="J137" s="142"/>
       <c r="K137" s="142"/>
-      <c r="L137" s="404" t="s">
+      <c r="L137" s="328" t="s">
         <v>414</v>
       </c>
-      <c r="M137" s="405"/>
+      <c r="M137" s="329"/>
     </row>
     <row r="138" spans="2:16">
       <c r="B138" s="139">
@@ -26718,26 +27229,26 @@
       <c r="I138" s="142"/>
       <c r="J138" s="142"/>
       <c r="K138" s="142"/>
-      <c r="L138" s="404" t="s">
+      <c r="L138" s="328" t="s">
         <v>414</v>
       </c>
-      <c r="M138" s="405"/>
+      <c r="M138" s="329"/>
     </row>
     <row r="139" spans="2:16" ht="17.25" thickBot="1">
       <c r="B139" s="121" t="s">
         <v>339</v>
       </c>
-      <c r="C139" s="391"/>
-      <c r="D139" s="392"/>
-      <c r="E139" s="392"/>
-      <c r="F139" s="392"/>
-      <c r="G139" s="392"/>
-      <c r="H139" s="392"/>
-      <c r="I139" s="392"/>
-      <c r="J139" s="392"/>
-      <c r="K139" s="392"/>
-      <c r="L139" s="392"/>
-      <c r="M139" s="393"/>
+      <c r="C139" s="330"/>
+      <c r="D139" s="331"/>
+      <c r="E139" s="331"/>
+      <c r="F139" s="331"/>
+      <c r="G139" s="331"/>
+      <c r="H139" s="331"/>
+      <c r="I139" s="331"/>
+      <c r="J139" s="331"/>
+      <c r="K139" s="331"/>
+      <c r="L139" s="331"/>
+      <c r="M139" s="332"/>
     </row>
     <row r="142" spans="2:16" ht="17.25" thickBot="1">
       <c r="C142" t="s">
@@ -26834,20 +27345,20 @@
     </row>
     <row r="148" spans="3:16">
       <c r="C148" s="3"/>
-      <c r="D148" s="263" t="s">
+      <c r="D148" s="248" t="s">
         <v>524</v>
       </c>
-      <c r="E148" s="265"/>
+      <c r="E148" s="250"/>
       <c r="F148" s="9"/>
-      <c r="G148" s="328" t="s">
+      <c r="G148" s="404" t="s">
         <v>526</v>
       </c>
-      <c r="H148" s="329"/>
+      <c r="H148" s="405"/>
       <c r="I148" s="9"/>
-      <c r="J148" s="328" t="s">
+      <c r="J148" s="404" t="s">
         <v>528</v>
       </c>
-      <c r="K148" s="329"/>
+      <c r="K148" s="405"/>
       <c r="L148" s="9"/>
       <c r="M148" s="9"/>
       <c r="N148" s="9"/>
@@ -26856,14 +27367,14 @@
     </row>
     <row r="149" spans="3:16">
       <c r="C149" s="3"/>
-      <c r="D149" s="326"/>
-      <c r="E149" s="327"/>
+      <c r="D149" s="402"/>
+      <c r="E149" s="403"/>
       <c r="F149" s="9"/>
-      <c r="G149" s="330"/>
-      <c r="H149" s="331"/>
+      <c r="G149" s="406"/>
+      <c r="H149" s="407"/>
       <c r="I149" s="9"/>
-      <c r="J149" s="330"/>
-      <c r="K149" s="331"/>
+      <c r="J149" s="406"/>
+      <c r="K149" s="407"/>
       <c r="L149" s="9"/>
       <c r="M149" s="9"/>
       <c r="N149" s="9"/>
@@ -26872,14 +27383,14 @@
     </row>
     <row r="150" spans="3:16">
       <c r="C150" s="3"/>
-      <c r="D150" s="326"/>
-      <c r="E150" s="327"/>
+      <c r="D150" s="402"/>
+      <c r="E150" s="403"/>
       <c r="F150" s="9"/>
-      <c r="G150" s="330"/>
-      <c r="H150" s="331"/>
+      <c r="G150" s="406"/>
+      <c r="H150" s="407"/>
       <c r="I150" s="9"/>
-      <c r="J150" s="330"/>
-      <c r="K150" s="331"/>
+      <c r="J150" s="406"/>
+      <c r="K150" s="407"/>
       <c r="L150" s="9"/>
       <c r="M150" s="9"/>
       <c r="N150" s="9"/>
@@ -26888,14 +27399,14 @@
     </row>
     <row r="151" spans="3:16">
       <c r="C151" s="3"/>
-      <c r="D151" s="326"/>
-      <c r="E151" s="327"/>
+      <c r="D151" s="402"/>
+      <c r="E151" s="403"/>
       <c r="F151" s="9"/>
-      <c r="G151" s="330"/>
-      <c r="H151" s="331"/>
+      <c r="G151" s="406"/>
+      <c r="H151" s="407"/>
       <c r="I151" s="9"/>
-      <c r="J151" s="330"/>
-      <c r="K151" s="331"/>
+      <c r="J151" s="406"/>
+      <c r="K151" s="407"/>
       <c r="L151" s="9"/>
       <c r="M151" s="9"/>
       <c r="N151" s="9"/>
@@ -26904,14 +27415,14 @@
     </row>
     <row r="152" spans="3:16">
       <c r="C152" s="3"/>
-      <c r="D152" s="326"/>
-      <c r="E152" s="327"/>
+      <c r="D152" s="402"/>
+      <c r="E152" s="403"/>
       <c r="F152" s="9"/>
-      <c r="G152" s="330"/>
-      <c r="H152" s="331"/>
+      <c r="G152" s="406"/>
+      <c r="H152" s="407"/>
       <c r="I152" s="9"/>
-      <c r="J152" s="330"/>
-      <c r="K152" s="331"/>
+      <c r="J152" s="406"/>
+      <c r="K152" s="407"/>
       <c r="L152" s="9"/>
       <c r="M152" s="9"/>
       <c r="N152" s="9"/>
@@ -26920,14 +27431,14 @@
     </row>
     <row r="153" spans="3:16">
       <c r="C153" s="3"/>
-      <c r="D153" s="326"/>
-      <c r="E153" s="327"/>
+      <c r="D153" s="402"/>
+      <c r="E153" s="403"/>
       <c r="F153" s="9"/>
-      <c r="G153" s="330"/>
-      <c r="H153" s="331"/>
+      <c r="G153" s="406"/>
+      <c r="H153" s="407"/>
       <c r="I153" s="9"/>
-      <c r="J153" s="330"/>
-      <c r="K153" s="331"/>
+      <c r="J153" s="406"/>
+      <c r="K153" s="407"/>
       <c r="L153" s="9"/>
       <c r="M153" s="9"/>
       <c r="N153" s="9"/>
@@ -26936,14 +27447,14 @@
     </row>
     <row r="154" spans="3:16" ht="17.25" thickBot="1">
       <c r="C154" s="3"/>
-      <c r="D154" s="266"/>
-      <c r="E154" s="268"/>
+      <c r="D154" s="251"/>
+      <c r="E154" s="253"/>
       <c r="F154" s="9"/>
-      <c r="G154" s="330"/>
-      <c r="H154" s="331"/>
+      <c r="G154" s="406"/>
+      <c r="H154" s="407"/>
       <c r="I154" s="9"/>
-      <c r="J154" s="330"/>
-      <c r="K154" s="331"/>
+      <c r="J154" s="406"/>
+      <c r="K154" s="407"/>
       <c r="L154" s="9"/>
       <c r="M154" s="9"/>
       <c r="N154" s="9"/>
@@ -26987,15 +27498,15 @@
       <c r="D157" s="9"/>
       <c r="E157" s="9"/>
       <c r="F157" s="9"/>
-      <c r="G157" s="242" t="s">
+      <c r="G157" s="267" t="s">
         <v>527</v>
       </c>
-      <c r="H157" s="244"/>
+      <c r="H157" s="269"/>
       <c r="I157" s="9"/>
-      <c r="J157" s="242" t="s">
+      <c r="J157" s="267" t="s">
         <v>529</v>
       </c>
-      <c r="K157" s="244"/>
+      <c r="K157" s="269"/>
       <c r="L157" s="9"/>
       <c r="M157" s="9"/>
       <c r="N157" s="9"/>
@@ -27007,11 +27518,11 @@
       <c r="D158" s="9"/>
       <c r="E158" s="9"/>
       <c r="F158" s="9"/>
-      <c r="G158" s="242"/>
-      <c r="H158" s="244"/>
+      <c r="G158" s="267"/>
+      <c r="H158" s="269"/>
       <c r="I158" s="9"/>
-      <c r="J158" s="242"/>
-      <c r="K158" s="244"/>
+      <c r="J158" s="267"/>
+      <c r="K158" s="269"/>
       <c r="L158" s="9"/>
       <c r="M158" s="9"/>
       <c r="N158" s="9"/>
@@ -27023,11 +27534,11 @@
       <c r="D159" s="9"/>
       <c r="E159" s="9"/>
       <c r="F159" s="9"/>
-      <c r="G159" s="242"/>
-      <c r="H159" s="244"/>
+      <c r="G159" s="267"/>
+      <c r="H159" s="269"/>
       <c r="I159" s="9"/>
-      <c r="J159" s="242"/>
-      <c r="K159" s="244"/>
+      <c r="J159" s="267"/>
+      <c r="K159" s="269"/>
       <c r="L159" s="9"/>
       <c r="M159" s="9"/>
       <c r="N159" s="9"/>
@@ -27039,11 +27550,11 @@
       <c r="D160" s="9"/>
       <c r="E160" s="9"/>
       <c r="F160" s="9"/>
-      <c r="G160" s="242"/>
-      <c r="H160" s="244"/>
+      <c r="G160" s="267"/>
+      <c r="H160" s="269"/>
       <c r="I160" s="9"/>
-      <c r="J160" s="242"/>
-      <c r="K160" s="244"/>
+      <c r="J160" s="267"/>
+      <c r="K160" s="269"/>
       <c r="L160" s="9"/>
       <c r="M160" s="9"/>
       <c r="N160" s="9"/>
@@ -27055,11 +27566,11 @@
       <c r="D161" s="9"/>
       <c r="E161" s="9"/>
       <c r="F161" s="9"/>
-      <c r="G161" s="242"/>
-      <c r="H161" s="244"/>
+      <c r="G161" s="267"/>
+      <c r="H161" s="269"/>
       <c r="I161" s="9"/>
-      <c r="J161" s="242"/>
-      <c r="K161" s="244"/>
+      <c r="J161" s="267"/>
+      <c r="K161" s="269"/>
       <c r="L161" s="9"/>
       <c r="M161" s="9"/>
       <c r="N161" s="9"/>
@@ -27071,11 +27582,11 @@
       <c r="D162" s="9"/>
       <c r="E162" s="9"/>
       <c r="F162" s="9"/>
-      <c r="G162" s="242"/>
-      <c r="H162" s="244"/>
+      <c r="G162" s="267"/>
+      <c r="H162" s="269"/>
       <c r="I162" s="9"/>
-      <c r="J162" s="242"/>
-      <c r="K162" s="244"/>
+      <c r="J162" s="267"/>
+      <c r="K162" s="269"/>
       <c r="L162" s="9"/>
       <c r="M162" s="9"/>
       <c r="N162" s="9"/>
@@ -27087,11 +27598,11 @@
       <c r="D163" s="9"/>
       <c r="E163" s="9"/>
       <c r="F163" s="9"/>
-      <c r="G163" s="245"/>
-      <c r="H163" s="247"/>
+      <c r="G163" s="270"/>
+      <c r="H163" s="272"/>
       <c r="I163" s="9"/>
-      <c r="J163" s="245"/>
-      <c r="K163" s="247"/>
+      <c r="J163" s="270"/>
+      <c r="K163" s="272"/>
       <c r="L163" s="9"/>
       <c r="M163" s="9"/>
       <c r="N163" s="9"/>
@@ -27138,80 +27649,80 @@
     </row>
     <row r="166" spans="3:16">
       <c r="C166" s="3"/>
-      <c r="D166" s="254" t="s">
+      <c r="D166" s="239" t="s">
         <v>525</v>
       </c>
-      <c r="E166" s="256"/>
+      <c r="E166" s="241"/>
       <c r="F166" s="9"/>
-      <c r="G166" s="334" t="s">
+      <c r="G166" s="401" t="s">
         <v>436</v>
       </c>
-      <c r="H166" s="334"/>
+      <c r="H166" s="401"/>
       <c r="I166" s="9"/>
-      <c r="J166" s="335" t="s">
+      <c r="J166" s="395" t="s">
         <v>435</v>
       </c>
-      <c r="K166" s="336"/>
+      <c r="K166" s="396"/>
       <c r="L166" s="9"/>
-      <c r="M166" s="341" t="s">
+      <c r="M166" s="387" t="s">
         <v>530</v>
       </c>
-      <c r="N166" s="342"/>
+      <c r="N166" s="388"/>
       <c r="O166" s="9"/>
       <c r="P166" s="4"/>
     </row>
     <row r="167" spans="3:16">
       <c r="C167" s="3"/>
-      <c r="D167" s="332"/>
-      <c r="E167" s="333"/>
+      <c r="D167" s="393"/>
+      <c r="E167" s="394"/>
       <c r="F167" s="9"/>
-      <c r="G167" s="334"/>
-      <c r="H167" s="334"/>
+      <c r="G167" s="401"/>
+      <c r="H167" s="401"/>
       <c r="I167" s="9"/>
-      <c r="J167" s="337"/>
-      <c r="K167" s="338"/>
+      <c r="J167" s="397"/>
+      <c r="K167" s="398"/>
       <c r="L167" s="9"/>
-      <c r="M167" s="343"/>
-      <c r="N167" s="344"/>
+      <c r="M167" s="389"/>
+      <c r="N167" s="390"/>
       <c r="O167" s="9"/>
       <c r="P167" s="4"/>
     </row>
     <row r="168" spans="3:16">
       <c r="C168" s="3"/>
-      <c r="D168" s="332"/>
-      <c r="E168" s="333"/>
+      <c r="D168" s="393"/>
+      <c r="E168" s="394"/>
       <c r="F168" s="9"/>
-      <c r="G168" s="334"/>
-      <c r="H168" s="334"/>
+      <c r="G168" s="401"/>
+      <c r="H168" s="401"/>
       <c r="I168" s="9"/>
-      <c r="J168" s="337"/>
-      <c r="K168" s="338"/>
+      <c r="J168" s="397"/>
+      <c r="K168" s="398"/>
       <c r="L168" s="9"/>
-      <c r="M168" s="343"/>
-      <c r="N168" s="344"/>
+      <c r="M168" s="389"/>
+      <c r="N168" s="390"/>
       <c r="O168" s="9"/>
       <c r="P168" s="4"/>
     </row>
     <row r="169" spans="3:16" ht="17.25" thickBot="1">
       <c r="C169" s="3"/>
-      <c r="D169" s="332"/>
-      <c r="E169" s="333"/>
+      <c r="D169" s="393"/>
+      <c r="E169" s="394"/>
       <c r="F169" s="9"/>
-      <c r="G169" s="334"/>
-      <c r="H169" s="334"/>
+      <c r="G169" s="401"/>
+      <c r="H169" s="401"/>
       <c r="I169" s="9"/>
-      <c r="J169" s="339"/>
-      <c r="K169" s="340"/>
+      <c r="J169" s="399"/>
+      <c r="K169" s="400"/>
       <c r="L169" s="9"/>
-      <c r="M169" s="345"/>
-      <c r="N169" s="346"/>
+      <c r="M169" s="391"/>
+      <c r="N169" s="392"/>
       <c r="O169" s="9"/>
       <c r="P169" s="4"/>
     </row>
     <row r="170" spans="3:16">
       <c r="C170" s="3"/>
-      <c r="D170" s="332"/>
-      <c r="E170" s="333"/>
+      <c r="D170" s="393"/>
+      <c r="E170" s="394"/>
       <c r="F170" s="9"/>
       <c r="G170" s="9"/>
       <c r="H170" s="9"/>
@@ -27226,8 +27737,8 @@
     </row>
     <row r="171" spans="3:16">
       <c r="C171" s="3"/>
-      <c r="D171" s="332"/>
-      <c r="E171" s="333"/>
+      <c r="D171" s="393"/>
+      <c r="E171" s="394"/>
       <c r="F171" s="9"/>
       <c r="G171" s="9"/>
       <c r="H171" s="9"/>
@@ -27242,18 +27753,18 @@
     </row>
     <row r="172" spans="3:16" ht="17.25" thickBot="1">
       <c r="C172" s="3"/>
-      <c r="D172" s="257"/>
-      <c r="E172" s="259"/>
+      <c r="D172" s="242"/>
+      <c r="E172" s="244"/>
       <c r="F172" s="9"/>
-      <c r="G172" s="347" t="s">
+      <c r="G172" s="408" t="s">
         <v>531</v>
       </c>
-      <c r="H172" s="347"/>
+      <c r="H172" s="408"/>
       <c r="I172" s="9"/>
-      <c r="J172" s="334" t="s">
+      <c r="J172" s="401" t="s">
         <v>441</v>
       </c>
-      <c r="K172" s="334"/>
+      <c r="K172" s="401"/>
       <c r="L172" s="9"/>
       <c r="M172" s="160"/>
       <c r="N172" s="160"/>
@@ -27265,11 +27776,11 @@
       <c r="D173" s="9"/>
       <c r="E173" s="9"/>
       <c r="F173" s="9"/>
-      <c r="G173" s="347"/>
-      <c r="H173" s="347"/>
+      <c r="G173" s="408"/>
+      <c r="H173" s="408"/>
       <c r="I173" s="9"/>
-      <c r="J173" s="334"/>
-      <c r="K173" s="334"/>
+      <c r="J173" s="401"/>
+      <c r="K173" s="401"/>
       <c r="L173" s="9"/>
       <c r="M173" s="160"/>
       <c r="N173" s="160"/>
@@ -27281,11 +27792,11 @@
       <c r="D174" s="9"/>
       <c r="E174" s="9"/>
       <c r="F174" s="9"/>
-      <c r="G174" s="347"/>
-      <c r="H174" s="347"/>
+      <c r="G174" s="408"/>
+      <c r="H174" s="408"/>
       <c r="I174" s="9"/>
-      <c r="J174" s="334"/>
-      <c r="K174" s="334"/>
+      <c r="J174" s="401"/>
+      <c r="K174" s="401"/>
       <c r="L174" s="9"/>
       <c r="M174" s="160"/>
       <c r="N174" s="160"/>
@@ -27297,11 +27808,11 @@
       <c r="D175" s="9"/>
       <c r="E175" s="9"/>
       <c r="F175" s="9"/>
-      <c r="G175" s="347"/>
-      <c r="H175" s="347"/>
+      <c r="G175" s="408"/>
+      <c r="H175" s="408"/>
       <c r="I175" s="9"/>
-      <c r="J175" s="334"/>
-      <c r="K175" s="334"/>
+      <c r="J175" s="401"/>
+      <c r="K175" s="401"/>
       <c r="L175" s="9"/>
       <c r="M175" s="9"/>
       <c r="N175" s="9"/>
@@ -27342,55 +27853,59 @@
     </row>
   </sheetData>
   <mergeCells count="126">
-    <mergeCell ref="L136:M136"/>
-    <mergeCell ref="L137:M137"/>
-    <mergeCell ref="L138:M138"/>
-    <mergeCell ref="C139:M139"/>
-    <mergeCell ref="L135:M135"/>
-    <mergeCell ref="L130:M130"/>
-    <mergeCell ref="L131:M131"/>
-    <mergeCell ref="L132:M132"/>
-    <mergeCell ref="L133:M133"/>
-    <mergeCell ref="L134:M134"/>
-    <mergeCell ref="B127:C127"/>
-    <mergeCell ref="D127:K127"/>
-    <mergeCell ref="B128:C128"/>
-    <mergeCell ref="D128:K128"/>
-    <mergeCell ref="B129:C129"/>
-    <mergeCell ref="D129:M129"/>
-    <mergeCell ref="B123:M124"/>
-    <mergeCell ref="B125:C125"/>
-    <mergeCell ref="D125:K125"/>
-    <mergeCell ref="B126:C126"/>
-    <mergeCell ref="D126:K126"/>
-    <mergeCell ref="C72:M72"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="L56:M56"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="L58:M58"/>
-    <mergeCell ref="L59:M59"/>
-    <mergeCell ref="L60:M60"/>
-    <mergeCell ref="L61:M61"/>
-    <mergeCell ref="L62:M62"/>
-    <mergeCell ref="L68:M68"/>
-    <mergeCell ref="L69:M69"/>
-    <mergeCell ref="L70:M70"/>
-    <mergeCell ref="L71:M71"/>
-    <mergeCell ref="L63:M63"/>
-    <mergeCell ref="L64:M64"/>
-    <mergeCell ref="L65:M65"/>
-    <mergeCell ref="L66:M66"/>
-    <mergeCell ref="L67:M67"/>
-    <mergeCell ref="B47:M48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:K49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:K50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:K51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:K52"/>
+    <mergeCell ref="D148:E154"/>
+    <mergeCell ref="G148:H154"/>
+    <mergeCell ref="J148:K154"/>
+    <mergeCell ref="G157:H163"/>
+    <mergeCell ref="J157:K163"/>
+    <mergeCell ref="D166:E172"/>
+    <mergeCell ref="G166:H169"/>
+    <mergeCell ref="J166:K169"/>
+    <mergeCell ref="M166:N169"/>
+    <mergeCell ref="G172:H175"/>
+    <mergeCell ref="J172:K175"/>
+    <mergeCell ref="M98:N101"/>
+    <mergeCell ref="D98:E104"/>
+    <mergeCell ref="J98:K101"/>
+    <mergeCell ref="J104:K107"/>
+    <mergeCell ref="D80:E86"/>
+    <mergeCell ref="G80:H86"/>
+    <mergeCell ref="G89:H95"/>
+    <mergeCell ref="J80:K86"/>
+    <mergeCell ref="J89:K95"/>
+    <mergeCell ref="G98:H101"/>
+    <mergeCell ref="G104:H107"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="C44:M44"/>
+    <mergeCell ref="B20:M21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:K22"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:K25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:M26"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:M39"/>
+    <mergeCell ref="C31:M31"/>
+    <mergeCell ref="B33:M34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:K35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:K36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:K37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:K38"/>
     <mergeCell ref="B53:C53"/>
     <mergeCell ref="D53:M53"/>
     <mergeCell ref="L15:M15"/>
@@ -27415,59 +27930,55 @@
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:M39"/>
-    <mergeCell ref="C31:M31"/>
-    <mergeCell ref="B33:M34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:K35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:K36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:K37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:K38"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="C44:M44"/>
-    <mergeCell ref="B20:M21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:K22"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:K25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:M26"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="M98:N101"/>
-    <mergeCell ref="D98:E104"/>
-    <mergeCell ref="J98:K101"/>
-    <mergeCell ref="J104:K107"/>
-    <mergeCell ref="D80:E86"/>
-    <mergeCell ref="G80:H86"/>
-    <mergeCell ref="G89:H95"/>
-    <mergeCell ref="J80:K86"/>
-    <mergeCell ref="J89:K95"/>
-    <mergeCell ref="G98:H101"/>
-    <mergeCell ref="G104:H107"/>
-    <mergeCell ref="D148:E154"/>
-    <mergeCell ref="G148:H154"/>
-    <mergeCell ref="J148:K154"/>
-    <mergeCell ref="G157:H163"/>
-    <mergeCell ref="J157:K163"/>
-    <mergeCell ref="D166:E172"/>
-    <mergeCell ref="G166:H169"/>
-    <mergeCell ref="J166:K169"/>
-    <mergeCell ref="M166:N169"/>
-    <mergeCell ref="G172:H175"/>
-    <mergeCell ref="J172:K175"/>
+    <mergeCell ref="B47:M48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:K49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:K50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:K51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:K52"/>
+    <mergeCell ref="C72:M72"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="D127:K127"/>
+    <mergeCell ref="B128:C128"/>
+    <mergeCell ref="D128:K128"/>
+    <mergeCell ref="B129:C129"/>
+    <mergeCell ref="D129:M129"/>
+    <mergeCell ref="B123:M124"/>
+    <mergeCell ref="B125:C125"/>
+    <mergeCell ref="D125:K125"/>
+    <mergeCell ref="B126:C126"/>
+    <mergeCell ref="D126:K126"/>
+    <mergeCell ref="L136:M136"/>
+    <mergeCell ref="L137:M137"/>
+    <mergeCell ref="L138:M138"/>
+    <mergeCell ref="C139:M139"/>
+    <mergeCell ref="L135:M135"/>
+    <mergeCell ref="L130:M130"/>
+    <mergeCell ref="L131:M131"/>
+    <mergeCell ref="L132:M132"/>
+    <mergeCell ref="L133:M133"/>
+    <mergeCell ref="L134:M134"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
